--- a/p100-cycles.xlsx
+++ b/p100-cycles.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>appName</t>
   </si>
@@ -47,10 +47,16 @@
     <t>shm_op</t>
   </si>
   <si>
+    <t>shm_del</t>
+  </si>
+  <si>
     <t>compute_lat</t>
   </si>
   <si>
-    <t>compute</t>
+    <t>compute_del</t>
+  </si>
+  <si>
+    <t>insts</t>
   </si>
   <si>
     <t>offset</t>
@@ -465,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +479,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,13 +522,19 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>607</v>
@@ -534,42 +546,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F2" t="n">
-        <v>1486.706767061308</v>
+        <v>1315.630947362018</v>
       </c>
       <c r="G2" t="n">
         <v>1915</v>
       </c>
       <c r="H2" t="n">
-        <v>7091.274205430626</v>
+        <v>6870.115387374106</v>
       </c>
       <c r="I2" t="n">
         <v>7494.867112442502</v>
       </c>
       <c r="J2" t="n">
-        <v>5176.274205430626</v>
+        <v>4955.115387374106</v>
       </c>
       <c r="K2" t="n">
         <v>707</v>
       </c>
       <c r="L2" t="n">
+        <v>808.354656</v>
+      </c>
+      <c r="M2" t="n">
         <v>1208</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>9006.459648</v>
       </c>
-      <c r="N2" t="n">
-        <v>3388.606274033654</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.05384924121494512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>151</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3338.523275676424</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.08335727848079158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>810</v>
@@ -581,42 +599,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F3" t="n">
-        <v>1918.262445297574</v>
+        <v>1579.547946881986</v>
       </c>
       <c r="G3" t="n">
         <v>1915</v>
       </c>
       <c r="H3" t="n">
-        <v>7213.233972949762</v>
+        <v>6945.059003563385</v>
       </c>
       <c r="I3" t="n">
         <v>7514.333775584999</v>
       </c>
       <c r="J3" t="n">
-        <v>5298.233972949763</v>
+        <v>5030.059003563385</v>
       </c>
       <c r="K3" t="n">
         <v>707</v>
       </c>
       <c r="L3" t="n">
+        <v>805.943584</v>
+      </c>
+      <c r="M3" t="n">
         <v>1208</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>8977.622272000001</v>
       </c>
-      <c r="N3" t="n">
-        <v>3071.104010169671</v>
-      </c>
       <c r="O3" t="n">
-        <v>0.04007005965233375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>151</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3141.643539198881</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.07575851552818404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>1012</v>
@@ -628,42 +652,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F4" t="n">
-        <v>2347.506368890708</v>
+        <v>1842.53273781702</v>
       </c>
       <c r="G4" t="n">
         <v>1915</v>
       </c>
       <c r="H4" t="n">
-        <v>7334.592126706279</v>
+        <v>7019.637480342621</v>
       </c>
       <c r="I4" t="n">
         <v>7522.7375648425</v>
       </c>
       <c r="J4" t="n">
-        <v>5419.592126706279</v>
+        <v>5104.637480342621</v>
       </c>
       <c r="K4" t="n">
         <v>707</v>
       </c>
       <c r="L4" t="n">
+        <v>804.44232</v>
+      </c>
+      <c r="M4" t="n">
         <v>1208</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>8959.66656</v>
       </c>
-      <c r="N4" t="n">
-        <v>2755.350834738647</v>
-      </c>
       <c r="O4" t="n">
-        <v>0.02501023550462789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>151</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2945.369819448677</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.06687726112514107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>1202</v>
@@ -675,42 +705,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F5" t="n">
-        <v>2755.405303750379</v>
+        <v>2093.300440967063</v>
       </c>
       <c r="G5" t="n">
         <v>1915</v>
       </c>
       <c r="H5" t="n">
-        <v>7448.762468457299</v>
+        <v>7089.803205560642</v>
       </c>
       <c r="I5" t="n">
         <v>7574.006255484374</v>
       </c>
       <c r="J5" t="n">
-        <v>5533.762468457299</v>
+        <v>5174.803205560642</v>
       </c>
       <c r="K5" t="n">
         <v>707</v>
       </c>
       <c r="L5" t="n">
+        <v>804.612</v>
+      </c>
+      <c r="M5" t="n">
         <v>1208</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>8961.696</v>
       </c>
-      <c r="N5" t="n">
-        <v>2454.222206664962</v>
-      </c>
       <c r="O5" t="n">
-        <v>0.0165360025860007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>151</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2757.367806551621</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.06392958146464678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>1328</v>
@@ -722,42 +758,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F6" t="n">
-        <v>3025.885833717392</v>
+        <v>2259.525650671127</v>
       </c>
       <c r="G6" t="n">
         <v>1915</v>
       </c>
       <c r="H6" t="n">
-        <v>7524.667345498388</v>
+        <v>7136.451966304592</v>
       </c>
       <c r="I6" t="n">
         <v>7615.937015858499</v>
       </c>
       <c r="J6" t="n">
-        <v>5609.667345498388</v>
+        <v>5221.451966304591</v>
       </c>
       <c r="K6" t="n">
         <v>707</v>
       </c>
       <c r="L6" t="n">
+        <v>804.610384</v>
+      </c>
+      <c r="M6" t="n">
         <v>1208</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>8961.676672</v>
       </c>
-      <c r="N6" t="n">
-        <v>2254.739162130647</v>
-      </c>
       <c r="O6" t="n">
-        <v>0.01198403691759289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>151</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2632.883965983115</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.06295811645441467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>607</v>
@@ -787,24 +829,30 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>56</v>
+      </c>
+      <c r="M7" t="n">
         <v>1672</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>12467.47648</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
+        <v>209</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.279847692271033</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>810</v>
@@ -816,42 +864,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F8" t="n">
-        <v>4750.269385253666</v>
+        <v>4750.424781685663</v>
       </c>
       <c r="G8" t="n">
         <v>1672</v>
       </c>
       <c r="H8" t="n">
-        <v>6731.136902736183</v>
+        <v>6731.292299168181</v>
       </c>
       <c r="I8" t="n">
         <v>7764.875390327344</v>
       </c>
       <c r="J8" t="n">
-        <v>12434.97706159838</v>
+        <v>12435.10124758031</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M8" t="n">
         <v>1672</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>12307.753664</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>0.1331300807323813</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1331100679924228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
         <v>1012</v>
@@ -863,42 +917,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F9" t="n">
-        <v>5769.316252223475</v>
+        <v>5769.559226391902</v>
       </c>
       <c r="G9" t="n">
         <v>1672</v>
       </c>
       <c r="H9" t="n">
-        <v>7758.051175300398</v>
+        <v>7758.294149468825</v>
       </c>
       <c r="I9" t="n">
         <v>7804.952850213752</v>
       </c>
       <c r="J9" t="n">
-        <v>12769.13418659296</v>
+        <v>12769.29119631133</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>56</v>
+      </c>
+      <c r="M9" t="n">
         <v>1672</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>11966.759296</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0.006009219506312448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.005978088739338024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>1202</v>
@@ -910,42 +970,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F10" t="n">
-        <v>6684.722694249172</v>
+        <v>6685.011371482</v>
       </c>
       <c r="G10" t="n">
         <v>1672</v>
       </c>
       <c r="H10" t="n">
-        <v>8680.857652291132</v>
+        <v>8681.146329523959</v>
       </c>
       <c r="I10" t="n">
         <v>9027.140070033749</v>
       </c>
       <c r="J10" t="n">
-        <v>13083.12395682272</v>
+        <v>13083.29017503586</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>56</v>
+      </c>
+      <c r="M10" t="n">
         <v>1672</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>11676.740864</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>0.03836014674150533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.03832816792755231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>1328</v>
@@ -957,42 +1023,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F11" t="n">
-        <v>7406.679442261699</v>
+        <v>7407.030259951122</v>
       </c>
       <c r="G11" t="n">
         <v>1672</v>
       </c>
       <c r="H11" t="n">
-        <v>9407.721791912049</v>
+        <v>9408.072609601473</v>
       </c>
       <c r="I11" t="n">
         <v>9953.246165292498</v>
       </c>
       <c r="J11" t="n">
-        <v>13291.11349284523</v>
+        <v>13291.30165591657</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>56</v>
+      </c>
+      <c r="M11" t="n">
         <v>1672</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>11712.628672</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>0.05480868897653932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.05477344241641222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
         <v>607</v>
@@ -1004,42 +1076,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F12" t="n">
-        <v>1855.196578608362</v>
+        <v>1539.303506391673</v>
       </c>
       <c r="G12" t="n">
         <v>936.0001220703125</v>
       </c>
       <c r="H12" t="n">
-        <v>3092.157865014339</v>
+        <v>3812.962104840547</v>
       </c>
       <c r="I12" t="n">
         <v>3819.610539795313</v>
       </c>
       <c r="J12" t="n">
-        <v>6579.223492248631</v>
+        <v>6155.568149149965</v>
       </c>
       <c r="K12" t="n">
         <v>448</v>
       </c>
       <c r="L12" t="n">
+        <v>515.540992</v>
+      </c>
+      <c r="M12" t="n">
         <v>488.0001220703125</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>3512.000940504883</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>0.1904520545228041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>61.00001525878906</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1036.697312042898</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.001740605458461667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
         <v>810</v>
@@ -1051,42 +1129,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F13" t="n">
-        <v>2417.579542055997</v>
+        <v>1795.350271480972</v>
       </c>
       <c r="G13" t="n">
         <v>936.0001220703125</v>
       </c>
       <c r="H13" t="n">
-        <v>3662.447181608827</v>
+        <v>3790.058082280369</v>
       </c>
       <c r="I13" t="n">
         <v>3790.720019903906</v>
       </c>
       <c r="J13" t="n">
-        <v>6748.255024980729</v>
+        <v>6234.290163470213</v>
       </c>
       <c r="K13" t="n">
         <v>448</v>
       </c>
       <c r="L13" t="n">
+        <v>511.500288</v>
+      </c>
+      <c r="M13" t="n">
         <v>488.0001220703125</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>3481.190564797851</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>0.0338386474394199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>61.00001525878906</v>
+      </c>
+      <c r="P13" t="n">
+        <v>749.840171246567</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0001746205523122405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
         <v>1012</v>
@@ -1098,42 +1182,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F14" t="n">
-        <v>2999.373396144194</v>
+        <v>2067.624000668053</v>
       </c>
       <c r="G14" t="n">
         <v>936.0001220703125</v>
       </c>
       <c r="H14" t="n">
-        <v>4252.10844129143</v>
+        <v>3804.577905538838</v>
       </c>
       <c r="I14" t="n">
         <v>3812.778891820937</v>
       </c>
       <c r="J14" t="n">
-        <v>6916.598652786101</v>
+        <v>6312.683837623645</v>
       </c>
       <c r="K14" t="n">
         <v>448</v>
       </c>
       <c r="L14" t="n">
+        <v>512.372736</v>
+      </c>
+      <c r="M14" t="n">
         <v>488.0001220703125</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>3487.842982461914</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0.115225551214871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>61.00001525878906</v>
+      </c>
+      <c r="P14" t="n">
+        <v>484.2188597235486</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.002150921025001512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
         <v>1202</v>
@@ -1145,42 +1235,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F15" t="n">
-        <v>3510.015435735801</v>
+        <v>2299.189397286125</v>
       </c>
       <c r="G15" t="n">
         <v>936.0001220703125</v>
       </c>
       <c r="H15" t="n">
-        <v>4770.150515848071</v>
+        <v>3780.054924518521</v>
       </c>
       <c r="I15" t="n">
         <v>3874.5921933075</v>
       </c>
       <c r="J15" t="n">
-        <v>7075.055997578203</v>
+        <v>6386.406390773077</v>
       </c>
       <c r="K15" t="n">
         <v>448</v>
       </c>
       <c r="L15" t="n">
+        <v>508.186112</v>
+      </c>
+      <c r="M15" t="n">
         <v>488.0001220703125</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>3455.919966476563</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>0.2311361500411451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>61.00001525878906</v>
+      </c>
+      <c r="P15" t="n">
+        <v>220.7304471201251</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.02439928231731606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>1328</v>
@@ -1192,42 +1288,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F16" t="n">
-        <v>3897.316921047892</v>
+        <v>2484.811888284628</v>
       </c>
       <c r="G16" t="n">
         <v>936.0001220703125</v>
       </c>
       <c r="H16" t="n">
-        <v>5162.359392768554</v>
+        <v>3812.184914936482</v>
       </c>
       <c r="I16" t="n">
         <v>4014.5831168625</v>
       </c>
       <c r="J16" t="n">
-        <v>7180.054686165244</v>
+        <v>6435.302845436029</v>
       </c>
       <c r="K16" t="n">
         <v>448</v>
       </c>
       <c r="L16" t="n">
+        <v>511.756288</v>
+      </c>
+      <c r="M16" t="n">
         <v>488.0001220703125</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>3483.142565286133</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
-        <v>0.2859017343756157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>61.00001525878906</v>
+      </c>
+      <c r="P16" t="n">
+        <v>62.33055493119173</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.05041574580331463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
         <v>607</v>
@@ -1239,7 +1341,7 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F17" t="n">
-        <v>7701.603301129047</v>
+        <v>6838.099963887983</v>
       </c>
       <c r="G17" t="n">
         <v>15068.66666933333</v>
@@ -1251,30 +1353,36 @@
         <v>13794.09504921</v>
       </c>
       <c r="J17" t="n">
-        <v>33218.51985647567</v>
+        <v>31815.36260538557</v>
       </c>
       <c r="K17" t="n">
         <v>15568</v>
       </c>
       <c r="L17" t="n">
+        <v>13235.815424</v>
+      </c>
+      <c r="M17" t="n">
         <v>-499.3333306666664</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>-2951.137200196862</v>
       </c>
-      <c r="N17" t="n">
-        <v>-7701.603301129047</v>
-      </c>
       <c r="O17" t="n">
-        <v>0.1142179156253696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>-62.4166663333333</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-6838.099963887983</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1142179156253697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
         <v>810</v>
@@ -1286,7 +1394,7 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F18" t="n">
-        <v>10077.00330595858</v>
+        <v>8363.779243195553</v>
       </c>
       <c r="G18" t="n">
         <v>15068.66666933333</v>
@@ -1298,30 +1406,36 @@
         <v>13886.7920226</v>
       </c>
       <c r="J18" t="n">
-        <v>34058.34128101581</v>
+        <v>32355.86910605621</v>
       </c>
       <c r="K18" t="n">
         <v>15568</v>
       </c>
       <c r="L18" t="n">
+        <v>13213.112832</v>
+      </c>
+      <c r="M18" t="n">
         <v>-499.3333306666664</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>-2946.040005557417</v>
       </c>
-      <c r="N18" t="n">
-        <v>-10077.00330595858</v>
-      </c>
       <c r="O18" t="n">
+        <v>-62.4166663333333</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-8363.779243195553</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0.1073496428685436</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
         <v>1012</v>
@@ -1333,7 +1447,7 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F19" t="n">
-        <v>12433.42448411197</v>
+        <v>9877.040798081698</v>
       </c>
       <c r="G19" t="n">
         <v>15068.66666933333</v>
@@ -1345,30 +1459,36 @@
         <v>13915.56657944444</v>
       </c>
       <c r="J19" t="n">
-        <v>34895.14041831096</v>
+        <v>32894.38961793695</v>
       </c>
       <c r="K19" t="n">
         <v>15568</v>
       </c>
       <c r="L19" t="n">
+        <v>13189.6096</v>
+      </c>
+      <c r="M19" t="n">
         <v>-499.3333306666664</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>-2940.763050918932</v>
       </c>
-      <c r="N19" t="n">
-        <v>-12433.42448411197</v>
-      </c>
       <c r="O19" t="n">
-        <v>0.1056252366423225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>-62.4166663333333</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-9877.040798081698</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1056252366423224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
         <v>1202</v>
@@ -1380,7 +1500,7 @@
         <v>324.134958041958</v>
       </c>
       <c r="F20" t="n">
-        <v>14651.91005847906</v>
+        <v>11300.72385356632</v>
       </c>
       <c r="G20" t="n">
         <v>15068.66666933333</v>
@@ -1392,30 +1512,36 @@
         <v>13897.34353355639</v>
       </c>
       <c r="J20" t="n">
-        <v>35690.71456265716</v>
+        <v>33406.00485992723</v>
       </c>
       <c r="K20" t="n">
         <v>15568</v>
       </c>
       <c r="L20" t="n">
+        <v>13164.594048</v>
+      </c>
+      <c r="M20" t="n">
         <v>-499.3333306666664</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>-2935.146549615593</v>
       </c>
-      <c r="N20" t="n">
-        <v>-14651.91005847906</v>
-      </c>
       <c r="O20" t="n">
-        <v>0.1076074783794459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>-62.4166663333333</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-11300.72385356632</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.107607478379446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
         <v>1328</v>
@@ -1427,42 +1553,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F21" t="n">
-        <v>16060.83409839321</v>
+        <v>12187.17944797472</v>
       </c>
       <c r="G21" t="n">
         <v>15068.66666933333</v>
       </c>
       <c r="H21" t="n">
-        <v>15397.70901898368</v>
+        <v>15397.70901898369</v>
       </c>
       <c r="I21" t="n">
         <v>14026.95403349334</v>
       </c>
       <c r="J21" t="n">
-        <v>36268.99378001054</v>
+        <v>33776.93396979151</v>
       </c>
       <c r="K21" t="n">
         <v>15568</v>
       </c>
       <c r="L21" t="n">
+        <v>13035.904512</v>
+      </c>
+      <c r="M21" t="n">
         <v>-499.3333306666664</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>-2906.253125769897</v>
       </c>
-      <c r="N21" t="n">
-        <v>-16060.83409839321</v>
-      </c>
       <c r="O21" t="n">
-        <v>0.09772292560575016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>-62.4166663333333</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-12187.17944797472</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.09772292560575042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
         <v>607</v>
@@ -1474,42 +1606,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F22" t="n">
-        <v>304.7495491094738</v>
+        <v>342.6424759458558</v>
       </c>
       <c r="G22" t="n">
         <v>728</v>
       </c>
       <c r="H22" t="n">
-        <v>1886.353885232843</v>
+        <v>5463.137100335663</v>
       </c>
       <c r="I22" t="n">
         <v>8199.060608255417</v>
       </c>
       <c r="J22" t="n">
-        <v>1158.353885232844</v>
+        <v>1209.894211276835</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>56</v>
+      </c>
+      <c r="M22" t="n">
         <v>728</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>5162.175936</v>
       </c>
-      <c r="N22" t="n">
-        <v>552.6431717877055</v>
-      </c>
       <c r="O22" t="n">
-        <v>0.769930486507988</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>91</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4091.533460054144</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3336874355051144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
         <v>810</v>
@@ -1521,42 +1659,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F23" t="n">
-        <v>382.0720159149242</v>
+        <v>455.515084025728</v>
       </c>
       <c r="G23" t="n">
         <v>728</v>
       </c>
       <c r="H23" t="n">
-        <v>1910.328979112231</v>
+        <v>5451.678653482517</v>
       </c>
       <c r="I23" t="n">
         <v>8374.598467199998</v>
       </c>
       <c r="J23" t="n">
-        <v>1182.328979112231</v>
+        <v>1243.542786053108</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>56</v>
+      </c>
+      <c r="M23" t="n">
         <v>728</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>5142.811135999999</v>
       </c>
-      <c r="N23" t="n">
-        <v>491.3894457147894</v>
-      </c>
       <c r="O23" t="n">
-        <v>0.7718900808684456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>91</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3959.296051974271</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3490220844814717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
         <v>1012</v>
@@ -1568,42 +1712,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F24" t="n">
-        <v>459.6980103525279</v>
+        <v>569.2488730371167</v>
       </c>
       <c r="G24" t="n">
         <v>728</v>
       </c>
       <c r="H24" t="n">
-        <v>1933.256906646352</v>
+        <v>5460.774923076922</v>
       </c>
       <c r="I24" t="n">
         <v>8823.739697743056</v>
       </c>
       <c r="J24" t="n">
-        <v>1205.256906646352</v>
+        <v>1277.025604303389</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>56</v>
+      </c>
+      <c r="M24" t="n">
         <v>728</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>5144.04</v>
       </c>
-      <c r="N24" t="n">
-        <v>428.8239732169011</v>
-      </c>
       <c r="O24" t="n">
-        <v>0.7809027721952357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>91</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3846.791126962883</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3811269246220303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" t="n">
         <v>1202</v>
@@ -1615,42 +1765,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F25" t="n">
-        <v>532.9869318517584</v>
+        <v>676.3414010646322</v>
       </c>
       <c r="G25" t="n">
         <v>728</v>
       </c>
       <c r="H25" t="n">
-        <v>1954.893407436965</v>
+        <v>5469.828974041959</v>
       </c>
       <c r="I25" t="n">
         <v>9109.555000201251</v>
       </c>
       <c r="J25" t="n">
-        <v>1226.893407436965</v>
+        <v>1308.519344241772</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>56</v>
+      </c>
+      <c r="M25" t="n">
         <v>728</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>5145.694016</v>
       </c>
-      <c r="N25" t="n">
-        <v>369.7715175432485</v>
-      </c>
       <c r="O25" t="n">
-        <v>0.7854018766675457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>91</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3741.352614935368</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3995503650923544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
         <v>1328</v>
@@ -1662,42 +1818,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F26" t="n">
-        <v>581.8166386698416</v>
+        <v>747.6295787138172</v>
       </c>
       <c r="G26" t="n">
         <v>728</v>
       </c>
       <c r="H26" t="n">
-        <v>1969.233021128467</v>
+        <v>5477.42122965035</v>
       </c>
       <c r="I26" t="n">
         <v>9440.403980077779</v>
       </c>
       <c r="J26" t="n">
-        <v>1241.233021128467</v>
+        <v>1329.4046665167</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>56</v>
+      </c>
+      <c r="M26" t="n">
         <v>728</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>5148.37888</v>
       </c>
-      <c r="N26" t="n">
-        <v>330.3740328082761</v>
-      </c>
       <c r="O26" t="n">
-        <v>0.7914037338567113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>91</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3672.749301286183</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.4197895300657227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C27" t="n">
         <v>607</v>
@@ -1709,42 +1871,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F27" t="n">
-        <v>4451.436363799825</v>
+        <v>3948.853532987129</v>
       </c>
       <c r="G27" t="n">
         <v>7064</v>
       </c>
       <c r="H27" t="n">
-        <v>11816.39752813549</v>
+        <v>11313.81469732279</v>
       </c>
       <c r="I27" t="n">
         <v>12809.52009704008</v>
       </c>
       <c r="J27" t="n">
-        <v>14518.38904248683</v>
+        <v>13887.00672447237</v>
       </c>
       <c r="K27" t="n">
         <v>5824</v>
       </c>
       <c r="L27" t="n">
+        <v>6433.572864000001</v>
+      </c>
+      <c r="M27" t="n">
         <v>1240</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>9513.036480000001</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>0.07753003714277118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>155</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.1167651393952615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C28" t="n">
         <v>810</v>
@@ -1756,42 +1924,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F28" t="n">
-        <v>5933.358259696446</v>
+        <v>4935.732479777712</v>
       </c>
       <c r="G28" t="n">
         <v>7064</v>
       </c>
       <c r="H28" t="n">
-        <v>13306.22577717896</v>
+        <v>12308.59999726023</v>
       </c>
       <c r="I28" t="n">
         <v>13086.51245035312</v>
       </c>
       <c r="J28" t="n">
-        <v>14922.27561177444</v>
+        <v>14156.27871946129</v>
       </c>
       <c r="K28" t="n">
         <v>5824</v>
       </c>
       <c r="L28" t="n">
+        <v>6426.237952</v>
+      </c>
+      <c r="M28" t="n">
         <v>1240</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>9502.10464</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
-        <v>0.01678929567059035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>155</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.05944383242243444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C29" t="n">
         <v>1012</v>
@@ -1803,42 +1977,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F29" t="n">
-        <v>7408.025417818578</v>
+        <v>5918.22893687723</v>
       </c>
       <c r="G29" t="n">
         <v>7064</v>
       </c>
       <c r="H29" t="n">
-        <v>14788.7603408955</v>
+        <v>13298.96385995415</v>
       </c>
       <c r="I29" t="n">
         <v>13295.83115213719</v>
       </c>
       <c r="J29" t="n">
-        <v>15324.11669736856</v>
+        <v>14424.1868079314</v>
       </c>
       <c r="K29" t="n">
         <v>5824</v>
       </c>
       <c r="L29" t="n">
+        <v>6421.871616</v>
+      </c>
+      <c r="M29" t="n">
         <v>1240</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>9495.59712</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" t="n">
-        <v>0.1122855105239764</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>155</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0002356157942381404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C30" t="n">
         <v>1202</v>
@@ -1850,42 +2030,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F30" t="n">
-        <v>8808.317844727862</v>
+        <v>6852.862861952523</v>
       </c>
       <c r="G30" t="n">
         <v>7064</v>
       </c>
       <c r="H30" t="n">
-        <v>16196.45280276982</v>
+        <v>14240.99781999448</v>
       </c>
       <c r="I30" t="n">
         <v>13582.26005411625</v>
       </c>
       <c r="J30" t="n">
-        <v>15702.06921340641</v>
+        <v>14676.17236771972</v>
       </c>
       <c r="K30" t="n">
         <v>5824</v>
       </c>
       <c r="L30" t="n">
+        <v>6428.667391999999</v>
+      </c>
+      <c r="M30" t="n">
         <v>1240</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>9505.72544</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
-        <v>0.1924711158700949</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>155</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.04849986403246594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C31" t="n">
         <v>1328</v>
@@ -1897,42 +2083,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F31" t="n">
-        <v>9743.822921713005</v>
+        <v>7477.770575331083</v>
       </c>
       <c r="G31" t="n">
         <v>7064</v>
       </c>
       <c r="H31" t="n">
-        <v>17136.86527136336</v>
+        <v>14870.81292498143</v>
       </c>
       <c r="I31" t="n">
         <v>14040.16194329</v>
       </c>
       <c r="J31" t="n">
-        <v>15952.75441553533</v>
+        <v>14843.29976680815</v>
       </c>
       <c r="K31" t="n">
         <v>5824</v>
       </c>
       <c r="L31" t="n">
+        <v>6436.548096</v>
+      </c>
+      <c r="M31" t="n">
         <v>1240</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>9517.470719999999</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>0.2205603710684632</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>155</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0591624929289662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C32" t="n">
         <v>607</v>
@@ -1944,42 +2136,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F32" t="n">
-        <v>111267.293276853</v>
+        <v>92966.18549613301</v>
       </c>
       <c r="G32" t="n">
         <v>544762.3777777777</v>
       </c>
       <c r="H32" t="n">
-        <v>656330.6322189664</v>
+        <v>260225.6513280689</v>
       </c>
       <c r="I32" t="n">
         <v>205035.1489161174</v>
       </c>
       <c r="J32" t="n">
-        <v>882631.2703954654</v>
+        <v>826710.6506112914</v>
       </c>
       <c r="K32" t="n">
         <v>577204.5222222222</v>
       </c>
       <c r="L32" t="n">
+        <v>259924.6901637333</v>
+      </c>
+      <c r="M32" t="n">
         <v>-32442.14444444445</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>-102234.5861338667</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" t="n">
-        <v>2.201063991654816</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>-4055.268055555556</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-377803.8731101775</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.2691758106047015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" t="n">
         <v>810</v>
@@ -1991,42 +2189,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F33" t="n">
-        <v>149979.4302002751</v>
+        <v>113250.2664213546</v>
       </c>
       <c r="G33" t="n">
         <v>544762.3777777777</v>
       </c>
       <c r="H33" t="n">
-        <v>695050.6754955354</v>
+        <v>262860.3330040603</v>
       </c>
       <c r="I33" t="n">
         <v>251951.5972108799</v>
       </c>
       <c r="J33" t="n">
-        <v>907178.2795678093</v>
+        <v>839349.7201387245</v>
       </c>
       <c r="K33" t="n">
         <v>577204.5222222222</v>
       </c>
       <c r="L33" t="n">
+        <v>262551.4654865778</v>
+      </c>
+      <c r="M33" t="n">
         <v>-32442.14444444445</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>-103268.0630872889</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
       <c r="O33" t="n">
-        <v>1.758667471013442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>-4055.268055555556</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-395461.1787125546</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.04329695034260835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34" t="n">
         <v>1012</v>
@@ -2038,42 +2242,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F34" t="n">
-        <v>188149.7428706684</v>
+        <v>133035.9225487524</v>
       </c>
       <c r="G34" t="n">
         <v>544762.3777777777</v>
       </c>
       <c r="H34" t="n">
-        <v>733228.8555715231</v>
+        <v>263944.1096390769</v>
       </c>
       <c r="I34" t="n">
         <v>270233.52708352</v>
       </c>
       <c r="J34" t="n">
-        <v>931604.3675127033</v>
+        <v>851913.1905603562</v>
       </c>
       <c r="K34" t="n">
         <v>577204.5222222222</v>
       </c>
       <c r="L34" t="n">
+        <v>263627.374716</v>
+      </c>
+      <c r="M34" t="n">
         <v>-32442.14444444445</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>-103691.368188</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
-        <v>1.713315640308787</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>-4055.268055555556</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-414170.9256105301</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.02327400864104938</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C35" t="n">
         <v>1202</v>
@@ -2085,42 +2295,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F35" t="n">
-        <v>223768.495335158</v>
+        <v>151412.9020180316</v>
       </c>
       <c r="G35" t="n">
         <v>544762.3777777777</v>
       </c>
       <c r="H35" t="n">
-        <v>768855.0080709778</v>
+        <v>264298.4920496863</v>
       </c>
       <c r="I35" t="n">
         <v>277836.4204399716</v>
       </c>
       <c r="J35" t="n">
-        <v>954579.4007281978</v>
+        <v>863737.1276143363</v>
       </c>
       <c r="K35" t="n">
         <v>577204.5222222222</v>
       </c>
       <c r="L35" t="n">
+        <v>263974.3570916444</v>
+      </c>
+      <c r="M35" t="n">
         <v>-32442.14444444445</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>-103827.8847318222</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.767293815740381</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>-4055.268055555556</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-432200.922704165</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.04872625543061338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36" t="n">
         <v>1328</v>
@@ -2132,42 +2348,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F36" t="n">
-        <v>247275.1459614959</v>
+        <v>163516.5560553364</v>
       </c>
       <c r="G36" t="n">
         <v>544762.3777777777</v>
       </c>
       <c r="H36" t="n">
-        <v>792366.566088924</v>
+        <v>264356.8320884948</v>
       </c>
       <c r="I36" t="n">
         <v>291706.7582981689</v>
       </c>
       <c r="J36" t="n">
-        <v>969815.4753868941</v>
+        <v>871577.8622380343</v>
       </c>
       <c r="K36" t="n">
         <v>577204.5222222222</v>
       </c>
       <c r="L36" t="n">
+        <v>264027.7897388444</v>
+      </c>
+      <c r="M36" t="n">
         <v>-32442.14444444445</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>-103848.9072414222</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
       <c r="O36" t="n">
-        <v>1.716311993289522</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>-4055.268055555556</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-444251.1440942697</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.09375828784096354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
         <v>607</v>
@@ -2179,42 +2401,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F37" t="n">
-        <v>1232.817759189229</v>
+        <v>1170.655612712145</v>
       </c>
       <c r="G37" t="n">
         <v>1841.538345268079</v>
       </c>
       <c r="H37" t="n">
-        <v>3375.317268792973</v>
+        <v>7102.938553149806</v>
       </c>
       <c r="I37" t="n">
         <v>5424.934418016305</v>
       </c>
       <c r="J37" t="n">
-        <v>6816.694622113641</v>
+        <v>6703.27987290742</v>
       </c>
       <c r="K37" t="n">
         <v>554.3243243243244</v>
       </c>
       <c r="L37" t="n">
+        <v>473.9643416216217</v>
+      </c>
+      <c r="M37" t="n">
         <v>1287.214020943755</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>6801.977388814142</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
-        <v>0.3778141800970933</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>160.9017526179693</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3789.783430833917</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.3093132572369574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
         <v>810</v>
@@ -2226,42 +2454,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F38" t="n">
-        <v>1420.708433120376</v>
+        <v>1297.738913234267</v>
       </c>
       <c r="G38" t="n">
         <v>1841.538345268079</v>
       </c>
       <c r="H38" t="n">
-        <v>3571.114295870972</v>
+        <v>7085.996526836361</v>
       </c>
       <c r="I38" t="n">
         <v>5439.471474002279</v>
       </c>
       <c r="J38" t="n">
-        <v>6892.674112670247</v>
+        <v>6755.204369561881</v>
       </c>
       <c r="K38" t="n">
         <v>554.3243243243244</v>
       </c>
       <c r="L38" t="n">
+        <v>472.4356735135136</v>
+      </c>
+      <c r="M38" t="n">
         <v>1287.214020943755</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>6777.129009353844</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
-        <v>0.3434813817961984</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>160.9017526179693</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3637.851750851498</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.3026994553981169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
         <v>1012</v>
@@ -2273,42 +2507,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F39" t="n">
-        <v>1608.392368686297</v>
+        <v>1424.6386476382</v>
       </c>
       <c r="G39" t="n">
         <v>1841.538345268079</v>
       </c>
       <c r="H39" t="n">
-        <v>3766.665637031299</v>
+        <v>7070.251278430575</v>
       </c>
       <c r="I39" t="n">
         <v>5428.363294976188</v>
       </c>
       <c r="J39" t="n">
-        <v>6969.970564334285</v>
+        <v>6807.906029853778</v>
       </c>
       <c r="K39" t="n">
         <v>554.3243243243244</v>
       </c>
       <c r="L39" t="n">
+        <v>470.983027027027</v>
+      </c>
+      <c r="M39" t="n">
         <v>1287.214020943755</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>6753.516355353651</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
-        <v>0.3061139366782521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>160.9017526179693</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3487.339362447372</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.3024646461989588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
         <v>1202</v>
@@ -2320,42 +2560,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F40" t="n">
-        <v>1786.890095509485</v>
+        <v>1546.515408051809</v>
       </c>
       <c r="G40" t="n">
         <v>1841.538345268079</v>
       </c>
       <c r="H40" t="n">
-        <v>3952.563398819521</v>
+        <v>7078.629596051527</v>
       </c>
       <c r="I40" t="n">
         <v>5514.805978880934</v>
       </c>
       <c r="J40" t="n">
-        <v>7040.005559528111</v>
+        <v>6855.709897644007</v>
       </c>
       <c r="K40" t="n">
         <v>554.3243243243244</v>
       </c>
       <c r="L40" t="n">
+        <v>471.0432108108108</v>
+      </c>
+      <c r="M40" t="n">
         <v>1287.214020943755</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>6754.494638009569</v>
       </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
-        <v>0.2832815127212188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>160.9017526179693</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3366.440884689681</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.2835682022466953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
         <v>1328</v>
@@ -2367,42 +2613,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F41" t="n">
-        <v>1908.635155767197</v>
+        <v>1629.789639001459</v>
       </c>
       <c r="G41" t="n">
         <v>1841.538345268079</v>
       </c>
       <c r="H41" t="n">
-        <v>4079.215850685625</v>
+        <v>7085.658316366435</v>
       </c>
       <c r="I41" t="n">
         <v>5497.008621099009</v>
       </c>
       <c r="J41" t="n">
-        <v>7088.69986707957</v>
+        <v>6889.001740987103</v>
       </c>
       <c r="K41" t="n">
         <v>554.3243243243244</v>
       </c>
       <c r="L41" t="n">
+        <v>471.1737145945946</v>
+      </c>
+      <c r="M41" t="n">
         <v>1287.214020943755</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>6756.615966716085</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
-        <v>0.2579207834914996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>160.9017526179693</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3285.287982446546</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2890025839089568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C42" t="n">
         <v>607</v>
@@ -2414,42 +2666,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F42" t="n">
-        <v>720917.3445176702</v>
+        <v>708856.232541029</v>
       </c>
       <c r="G42" t="n">
         <v>43264</v>
       </c>
       <c r="H42" t="n">
-        <v>721218.3056820059</v>
+        <v>709157.1937053647</v>
       </c>
       <c r="I42" t="n">
         <v>490568.0445081719</v>
       </c>
       <c r="J42" t="n">
-        <v>3250759.862154081</v>
+        <v>3234616.546565298</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>56</v>
+      </c>
+      <c r="M42" t="n">
         <v>43264</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>311278.63552</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
+        <v>5408</v>
+      </c>
+      <c r="P42" t="n">
         <v>-43264</v>
       </c>
-      <c r="O42" t="n">
-        <v>0.4701697629022631</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="Q42" t="n">
+        <v>0.4455837506014959</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C43" t="n">
         <v>810</v>
@@ -2461,42 +2719,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F43" t="n">
-        <v>737627.7241298999</v>
+        <v>712626.356115949</v>
       </c>
       <c r="G43" t="n">
         <v>43264</v>
       </c>
       <c r="H43" t="n">
-        <v>737936.5916473824</v>
+        <v>712935.2236334315</v>
       </c>
       <c r="I43" t="n">
         <v>504856.676961</v>
       </c>
       <c r="J43" t="n">
-        <v>3255399.014932471</v>
+        <v>3235038.556669784</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>56</v>
+      </c>
+      <c r="M43" t="n">
         <v>43264</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>312324.239872</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
+        <v>5408</v>
+      </c>
+      <c r="P43" t="n">
         <v>-43264</v>
       </c>
-      <c r="O43" t="n">
-        <v>0.4616754126922001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="Q43" t="n">
+        <v>0.412153698600099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C44" t="n">
         <v>1012</v>
@@ -2508,42 +2772,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F44" t="n">
-        <v>753385.0948822881</v>
+        <v>714791.3846507602</v>
       </c>
       <c r="G44" t="n">
         <v>43264</v>
       </c>
       <c r="H44" t="n">
-        <v>753701.8298053651</v>
+        <v>715108.1195738371</v>
       </c>
       <c r="I44" t="n">
         <v>517149.9367322749</v>
       </c>
       <c r="J44" t="n">
-        <v>3260138.951940318</v>
+        <v>3235455.821459094</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
+        <v>56</v>
+      </c>
+      <c r="M44" t="n">
         <v>43264</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>312658.584064</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
+        <v>5408</v>
+      </c>
+      <c r="P44" t="n">
         <v>-43264</v>
       </c>
-      <c r="O44" t="n">
-        <v>0.4574145257907117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="Q44" t="n">
+        <v>0.3827868259878446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C45" t="n">
         <v>1202</v>
@@ -2555,42 +2825,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F45" t="n">
-        <v>767021.0007021733</v>
+        <v>716745.9036156143</v>
       </c>
       <c r="G45" t="n">
         <v>43264</v>
       </c>
       <c r="H45" t="n">
-        <v>767345.1356602153</v>
+        <v>717070.0385736562</v>
       </c>
       <c r="I45" t="n">
         <v>523447.3785871094</v>
       </c>
       <c r="J45" t="n">
-        <v>3263748.945936993</v>
+        <v>3235819.376931471</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>56</v>
+      </c>
+      <c r="M45" t="n">
         <v>43264</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>312953.8176</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
+        <v>5408</v>
+      </c>
+      <c r="P45" t="n">
         <v>-43264</v>
       </c>
-      <c r="O45" t="n">
-        <v>0.4659451303996123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="Q45" t="n">
+        <v>0.369898996359813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46" t="n">
         <v>1328</v>
@@ -2602,42 +2878,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F46" t="n">
-        <v>779714.0655930175</v>
+        <v>721318.3135583187</v>
       </c>
       <c r="G46" t="n">
         <v>43264</v>
       </c>
       <c r="H46" t="n">
-        <v>780043.1079426678</v>
+        <v>721647.3559079689</v>
       </c>
       <c r="I46" t="n">
         <v>538893.1100175</v>
       </c>
       <c r="J46" t="n">
-        <v>3266224.404157619</v>
+        <v>3236068.431983847</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>56</v>
+      </c>
+      <c r="M46" t="n">
         <v>43264</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>314571.8912</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
+        <v>5408</v>
+      </c>
+      <c r="P46" t="n">
         <v>-43264</v>
       </c>
-      <c r="O46" t="n">
-        <v>0.4474913363010647</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="Q46" t="n">
+        <v>0.3391289339077543</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" t="n">
         <v>607</v>
@@ -2649,42 +2931,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F47" t="n">
-        <v>35660.70181903321</v>
+        <v>34084.57277085417</v>
       </c>
       <c r="G47" t="n">
         <v>96592</v>
       </c>
       <c r="H47" t="n">
-        <v>132553.6629833689</v>
+        <v>130977.5339351898</v>
       </c>
       <c r="I47" t="n">
         <v>136146.9394648125</v>
       </c>
       <c r="J47" t="n">
-        <v>139587.3767647431</v>
+        <v>137658.9702291366</v>
       </c>
       <c r="K47" t="n">
         <v>89600</v>
       </c>
       <c r="L47" t="n">
+        <v>100800.192</v>
+      </c>
+      <c r="M47" t="n">
         <v>6992</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>55039.51488</v>
       </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
       <c r="O47" t="n">
-        <v>0.02639263501308693</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>874</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.0379693113186634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C48" t="n">
         <v>810</v>
@@ -2696,42 +2984,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F48" t="n">
-        <v>38677.26007012988</v>
+        <v>35592.26975624388</v>
       </c>
       <c r="G48" t="n">
         <v>96592</v>
       </c>
       <c r="H48" t="n">
-        <v>135578.1275876124</v>
+        <v>132493.1372737264</v>
       </c>
       <c r="I48" t="n">
         <v>138269.962656</v>
       </c>
       <c r="J48" t="n">
-        <v>140344.5681094284</v>
+        <v>138039.0826623184</v>
       </c>
       <c r="K48" t="n">
         <v>89600</v>
       </c>
       <c r="L48" t="n">
+        <v>100747.5584</v>
+      </c>
+      <c r="M48" t="n">
         <v>6992</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>55010.763776</v>
       </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
       <c r="O48" t="n">
-        <v>0.01946796698777284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>874</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.04177932264757801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C49" t="n">
         <v>1012</v>
@@ -2743,42 +3037,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F49" t="n">
-        <v>41704.96504724468</v>
+        <v>37112.88306188111</v>
       </c>
       <c r="G49" t="n">
         <v>96592</v>
       </c>
       <c r="H49" t="n">
-        <v>138613.6999703216</v>
+        <v>134021.6179849581</v>
       </c>
       <c r="I49" t="n">
         <v>138200.613705</v>
       </c>
       <c r="J49" t="n">
-        <v>141134.9703823543</v>
+        <v>138436.6466196997</v>
       </c>
       <c r="K49" t="n">
         <v>89600</v>
       </c>
       <c r="L49" t="n">
+        <v>100735.68</v>
+      </c>
+      <c r="M49" t="n">
         <v>6992</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>55004.2752</v>
       </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
       <c r="O49" t="n">
-        <v>0.002989033508949404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>874</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.030238619120479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C50" t="n">
         <v>1202</v>
@@ -2790,42 +3090,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F50" t="n">
-        <v>43975.59090647745</v>
+        <v>38289.76655243262</v>
       </c>
       <c r="G50" t="n">
         <v>96592</v>
       </c>
       <c r="H50" t="n">
-        <v>140891.7258645194</v>
+        <v>135205.9015104746</v>
       </c>
       <c r="I50" t="n">
         <v>138040.247967825</v>
       </c>
       <c r="J50" t="n">
-        <v>141531.1748796178</v>
+        <v>138633.5245244522</v>
       </c>
       <c r="K50" t="n">
         <v>89600</v>
       </c>
       <c r="L50" t="n">
+        <v>100983.8976</v>
+      </c>
+      <c r="M50" t="n">
         <v>6992</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>55139.86406399999</v>
       </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
       <c r="O50" t="n">
-        <v>0.02065685869645118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>874</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.0205327540270071</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C51" t="n">
         <v>1328</v>
@@ -2837,42 +3143,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F51" t="n">
-        <v>45878.04648580649</v>
+        <v>39174.92870500597</v>
       </c>
       <c r="G51" t="n">
         <v>96592</v>
       </c>
       <c r="H51" t="n">
-        <v>142799.0888354568</v>
+        <v>136095.9710546563</v>
       </c>
       <c r="I51" t="n">
         <v>138648.522236805</v>
       </c>
       <c r="J51" t="n">
-        <v>142146.6603175614</v>
+        <v>138941.3542268694</v>
       </c>
       <c r="K51" t="n">
         <v>89600</v>
       </c>
       <c r="L51" t="n">
+        <v>100561.9072</v>
+      </c>
+      <c r="M51" t="n">
         <v>6992</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>54909.351808</v>
       </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
       <c r="O51" t="n">
-        <v>0.02993588775192891</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>874</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.01841022998996759</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" t="n">
         <v>607</v>
@@ -2884,42 +3196,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F52" t="n">
-        <v>2388.513669021743</v>
+        <v>2136.980151573031</v>
       </c>
       <c r="G52" t="n">
         <v>2892.706516046875</v>
       </c>
       <c r="H52" t="n">
-        <v>5582.181349404282</v>
+        <v>6856.051106949092</v>
       </c>
       <c r="I52" t="n">
         <v>7488.043027237502</v>
       </c>
       <c r="J52" t="n">
-        <v>8434.105756753022</v>
+        <v>8101.497918837023</v>
       </c>
       <c r="K52" t="n">
         <v>1993.689208984375</v>
       </c>
       <c r="L52" t="n">
+        <v>2130.147669953125</v>
+      </c>
+      <c r="M52" t="n">
         <v>899.0173070624999</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>6555.089942613428</v>
       </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
       <c r="O52" t="n">
-        <v>0.2545206632628462</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>112.3771633828125</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1525.403274993522</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.08440014540375372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C53" t="n">
         <v>810</v>
@@ -2931,42 +3249,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F53" t="n">
-        <v>3106.362398469672</v>
+        <v>2607.791172565129</v>
       </c>
       <c r="G53" t="n">
         <v>2892.706516046875</v>
       </c>
       <c r="H53" t="n">
-        <v>6307.936431999064</v>
+        <v>6846.02745892389</v>
       </c>
       <c r="I53" t="n">
         <v>7560.950686832814</v>
       </c>
       <c r="J53" t="n">
-        <v>8641.557511652469</v>
+        <v>8237.977518487149</v>
       </c>
       <c r="K53" t="n">
         <v>1993.689208984375</v>
       </c>
       <c r="L53" t="n">
+        <v>2124.467364583984</v>
+      </c>
+      <c r="M53" t="n">
         <v>899.0173070624999</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>6537.159941441373</v>
       </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
       <c r="O53" t="n">
-        <v>0.1657217864171287</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>112.3771633828125</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1036.662252829369</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.09455467407742028</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
         <v>1012</v>
@@ -2978,42 +3302,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F54" t="n">
-        <v>3818.220640789797</v>
+        <v>3074.86250295928</v>
       </c>
       <c r="G54" t="n">
         <v>2892.706516046875</v>
       </c>
       <c r="H54" t="n">
-        <v>7027.662079913594</v>
+        <v>6838.999945774885</v>
       </c>
       <c r="I54" t="n">
         <v>7585.4924291685</v>
       </c>
       <c r="J54" t="n">
-        <v>8847.779876112252</v>
+        <v>8373.628504617764</v>
       </c>
       <c r="K54" t="n">
         <v>1993.689208984375</v>
       </c>
       <c r="L54" t="n">
+        <v>2119.748587039062</v>
+      </c>
+      <c r="M54" t="n">
         <v>899.0173070624999</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>6522.265022697961</v>
       </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
       <c r="O54" t="n">
-        <v>0.07353910829966427</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>112.3771633828125</v>
+      </c>
+      <c r="P54" t="n">
+        <v>554.6960036918063</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.09841055018697632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C55" t="n">
         <v>1202</v>
@@ -3025,42 +3355,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F55" t="n">
-        <v>4495.137303540722</v>
+        <v>3520.116363882793</v>
       </c>
       <c r="G55" t="n">
         <v>2892.706516046875</v>
       </c>
       <c r="H55" t="n">
-        <v>7711.978777629555</v>
+        <v>6846.960967539527</v>
       </c>
       <c r="I55" t="n">
         <v>7632.456954886312</v>
       </c>
       <c r="J55" t="n">
-        <v>9041.938385079882</v>
+        <v>8501.267515105546</v>
       </c>
       <c r="K55" t="n">
         <v>1993.689208984375</v>
       </c>
       <c r="L55" t="n">
+        <v>2119.926310191406</v>
+      </c>
+      <c r="M55" t="n">
         <v>899.0173070624999</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>6522.826009497569</v>
       </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
       <c r="O55" t="n">
-        <v>0.01041890222418265</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>112.3771633828125</v>
+      </c>
+      <c r="P55" t="n">
+        <v>110.0031295679009</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.1029152200909445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C56" t="n">
         <v>1328</v>
@@ -3072,42 +3408,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F56" t="n">
-        <v>4948.198183181916</v>
+        <v>3818.610020258795</v>
       </c>
       <c r="G56" t="n">
         <v>2892.706516046875</v>
       </c>
       <c r="H56" t="n">
-        <v>8169.94704887914</v>
+        <v>6857.600493497748</v>
       </c>
       <c r="I56" t="n">
         <v>7742.931682118501</v>
       </c>
       <c r="J56" t="n">
-        <v>9170.69758435945</v>
+        <v>8585.937540529711</v>
       </c>
       <c r="K56" t="n">
         <v>1993.689208984375</v>
       </c>
       <c r="L56" t="n">
+        <v>2121.742276248047</v>
+      </c>
+      <c r="M56" t="n">
         <v>899.0173070624999</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>6528.558143847398</v>
       </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
       <c r="O56" t="n">
-        <v>0.05514905520176381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>112.3771633828125</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-182.7583924582714</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.114340565688489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C57" t="n">
         <v>607</v>
@@ -3119,42 +3461,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F57" t="n">
-        <v>401.1976472805106</v>
+        <v>401.0726711527066</v>
       </c>
       <c r="G57" t="n">
         <v>167.6964259047619</v>
       </c>
       <c r="H57" t="n">
-        <v>869.8552375209368</v>
+        <v>869.7302613931328</v>
       </c>
       <c r="I57" t="n">
         <v>1848.133102333333</v>
       </c>
       <c r="J57" t="n">
-        <v>5231.467831449634</v>
+        <v>5230.990207455715</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
+        <v>56</v>
+      </c>
+      <c r="M57" t="n">
         <v>167.6964259047619</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>430.5534045663757</v>
       </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
       <c r="O57" t="n">
-        <v>0.5293330137192425</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>20.96205323809524</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.5294006366234837</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C58" t="n">
         <v>810</v>
@@ -3166,42 +3514,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F58" t="n">
-        <v>410.351667599344</v>
+        <v>410.0775857971439</v>
       </c>
       <c r="G58" t="n">
         <v>167.6964259047619</v>
       </c>
       <c r="H58" t="n">
-        <v>886.9156109866234</v>
+        <v>886.6415291844233</v>
       </c>
       <c r="I58" t="n">
         <v>2080.11691008</v>
       </c>
       <c r="J58" t="n">
-        <v>5231.843704247228</v>
+        <v>5231.217941819836</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
+        <v>56</v>
+      </c>
+      <c r="M58" t="n">
         <v>167.6964259047619</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>439.8035394192823</v>
       </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
       <c r="O58" t="n">
-        <v>0.5736222292657035</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>20.96205323809524</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.5737539919569601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C59" t="n">
         <v>1012</v>
@@ -3213,42 +3567,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F59" t="n">
-        <v>407.2939676746786</v>
+        <v>406.7828273020742</v>
       </c>
       <c r="G59" t="n">
         <v>167.6964259047619</v>
       </c>
       <c r="H59" t="n">
-        <v>891.7253166563636</v>
+        <v>891.2141762837592</v>
       </c>
       <c r="I59" t="n">
         <v>2131.452173781333</v>
       </c>
       <c r="J59" t="n">
-        <v>5232.60484910042</v>
+        <v>5231.679105384359</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
+        <v>56</v>
+      </c>
+      <c r="M59" t="n">
         <v>167.6964259047619</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>435.9465216234728</v>
       </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
       <c r="O59" t="n">
-        <v>0.5816348461272834</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>20.96205323809524</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.5818746546385379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C60" t="n">
         <v>1202</v>
@@ -3260,42 +3620,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F60" t="n">
-        <v>407.3458167942528</v>
+        <v>406.6569295875678</v>
       </c>
       <c r="G60" t="n">
         <v>167.6964259047619</v>
       </c>
       <c r="H60" t="n">
-        <v>899.1772007409728</v>
+        <v>898.4883135342877</v>
       </c>
       <c r="I60" t="n">
         <v>2145.06516</v>
       </c>
       <c r="J60" t="n">
-        <v>5233.011835444147</v>
+        <v>5231.926000195027</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
+        <v>56</v>
+      </c>
+      <c r="M60" t="n">
         <v>167.6964259047619</v>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>435.5252682016001</v>
       </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
       <c r="O60" t="n">
-        <v>0.5808159036339144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>20.96205323809524</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.5811370534150637</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C61" t="n">
         <v>1328</v>
@@ -3307,42 +3673,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F61" t="n">
-        <v>407.9100488118098</v>
+        <v>407.1121842627503</v>
       </c>
       <c r="G61" t="n">
         <v>167.6964259047619</v>
       </c>
       <c r="H61" t="n">
-        <v>904.6488243669213</v>
+        <v>903.8509598178618</v>
       </c>
       <c r="I61" t="n">
         <v>2155.900021205334</v>
       </c>
       <c r="J61" t="n">
-        <v>5233.236214256969</v>
+        <v>5232.061972345255</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
+        <v>56</v>
+      </c>
+      <c r="M61" t="n">
         <v>167.6964259047619</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>435.8284633396359</v>
       </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
       <c r="O61" t="n">
-        <v>0.5803846117775235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>20.96205323809524</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.5807546959842176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C62" t="n">
         <v>607</v>
@@ -3354,42 +3726,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F62" t="n">
-        <v>9028.873250543058</v>
+        <v>9030.590113809867</v>
       </c>
       <c r="G62" t="n">
         <v>35792</v>
       </c>
       <c r="H62" t="n">
-        <v>113204.3223451411</v>
+        <v>104716.2295163357</v>
       </c>
       <c r="I62" t="n">
         <v>88600.52463135999</v>
       </c>
       <c r="J62" t="n">
-        <v>77412.32234514107</v>
+        <v>77417.99005764075</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
+        <v>56</v>
+      </c>
+      <c r="M62" t="n">
         <v>35792</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>104415.268352</v>
       </c>
-      <c r="N62" t="n">
-        <v>68082.48793026234</v>
-      </c>
       <c r="O62" t="n">
-        <v>0.2776935894697016</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>4474</v>
+      </c>
+      <c r="P62" t="n">
+        <v>59592.67823819013</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.1818917546146397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C63" t="n">
         <v>810</v>
@@ -3401,42 +3779,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F63" t="n">
-        <v>12160.26789697808</v>
+        <v>12163.60250606736</v>
       </c>
       <c r="G63" t="n">
         <v>35792</v>
       </c>
       <c r="H63" t="n">
-        <v>115347.735474326</v>
+        <v>105754.0864614825</v>
       </c>
       <c r="I63" t="n">
         <v>89819.66965859999</v>
       </c>
       <c r="J63" t="n">
-        <v>79555.73547432601</v>
+        <v>79562.39017655457</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
+        <v>56</v>
+      </c>
+      <c r="M63" t="n">
         <v>35792</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>105445.218944</v>
       </c>
-      <c r="N63" t="n">
-        <v>67086.60005986541</v>
-      </c>
       <c r="O63" t="n">
-        <v>0.2842146482252373</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>4474</v>
+      </c>
+      <c r="P63" t="n">
+        <v>57489.61643793264</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.1774045358154671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C64" t="n">
         <v>1012</v>
@@ -3448,42 +3832,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F64" t="n">
-        <v>14997.69709931878</v>
+        <v>15002.77762030513</v>
       </c>
       <c r="G64" t="n">
         <v>35792</v>
       </c>
       <c r="H64" t="n">
-        <v>117480.93426224</v>
+        <v>104452.5393390769</v>
       </c>
       <c r="I64" t="n">
         <v>88550.48813482666</v>
       </c>
       <c r="J64" t="n">
-        <v>81688.93426224003</v>
+        <v>81697.00556776155</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
+        <v>56</v>
+      </c>
+      <c r="M64" t="n">
         <v>35792</v>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>104135.804416</v>
       </c>
-      <c r="N64" t="n">
-        <v>66374.50223984433</v>
-      </c>
       <c r="O64" t="n">
-        <v>0.3267113116684797</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>4474</v>
+      </c>
+      <c r="P64" t="n">
+        <v>53341.02679569487</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.1795817452755072</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C65" t="n">
         <v>1202</v>
@@ -3495,42 +3885,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F65" t="n">
-        <v>17897.69190233006</v>
+        <v>17904.44548912403</v>
       </c>
       <c r="G65" t="n">
         <v>35792</v>
       </c>
       <c r="H65" t="n">
-        <v>119483.785064385</v>
+        <v>105000.828078042</v>
       </c>
       <c r="I65" t="n">
         <v>90461.33463768335</v>
       </c>
       <c r="J65" t="n">
-        <v>83691.78506438497</v>
+        <v>83701.06526679116</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
+        <v>56</v>
+      </c>
+      <c r="M65" t="n">
         <v>35792</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>104676.69312</v>
       </c>
-      <c r="N65" t="n">
-        <v>65469.95820401295</v>
-      </c>
       <c r="O65" t="n">
-        <v>0.3208271306513731</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>4474</v>
+      </c>
+      <c r="P65" t="n">
+        <v>50980.24763087597</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.1607260549337718</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
         <v>1328</v>
@@ -3542,42 +3938,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F66" t="n">
-        <v>19618.51497200442</v>
+        <v>19625.95722438425</v>
       </c>
       <c r="G66" t="n">
         <v>35792</v>
       </c>
       <c r="H66" t="n">
-        <v>120811.7151114585</v>
+        <v>104212.2984136504</v>
       </c>
       <c r="I66" t="n">
         <v>90320.44837073066</v>
       </c>
       <c r="J66" t="n">
-        <v>85019.71511145854</v>
+        <v>85029.34347610762</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
+        <v>56</v>
+      </c>
+      <c r="M66" t="n">
         <v>35792</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>103883.256064</v>
       </c>
-      <c r="N66" t="n">
-        <v>65072.15778980377</v>
-      </c>
       <c r="O66" t="n">
-        <v>0.3375898513653627</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>4474</v>
+      </c>
+      <c r="P66" t="n">
+        <v>48465.29883961575</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.1538062564293192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C67" t="n">
         <v>607</v>
@@ -3589,7 +3991,7 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F67" t="n">
-        <v>133.9808106200566</v>
+        <v>111.793705427409</v>
       </c>
       <c r="G67" t="n">
         <v>790.0543823242188</v>
@@ -3601,30 +4003,36 @@
         <v>945.0319198135156</v>
       </c>
       <c r="J67" t="n">
-        <v>827.843427938208</v>
+        <v>775.0367243653934</v>
       </c>
       <c r="K67" t="n">
         <v>106.1079559326172</v>
       </c>
       <c r="L67" t="n">
+        <v>117.3307623277588</v>
+      </c>
+      <c r="M67" t="n">
         <v>683.9464263916016</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>2775.263655894653</v>
       </c>
-      <c r="N67" t="n">
-        <v>-133.9808106200566</v>
-      </c>
       <c r="O67" t="n">
+        <v>85.4933032989502</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-111.793705427409</v>
+      </c>
+      <c r="Q67" t="n">
         <v>0.1544748106235126</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:17">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C68" t="n">
         <v>810</v>
@@ -3636,7 +4044,7 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F68" t="n">
-        <v>178.6284455717146</v>
+        <v>134.5785836395009</v>
       </c>
       <c r="G68" t="n">
         <v>790.0543823242188</v>
@@ -3648,30 +4056,36 @@
         <v>941.6635477101562</v>
       </c>
       <c r="J68" t="n">
-        <v>850.8667230564049</v>
+        <v>786.8053740208676</v>
       </c>
       <c r="K68" t="n">
         <v>106.1079559326172</v>
       </c>
       <c r="L68" t="n">
+        <v>117.2759499893799</v>
+      </c>
+      <c r="M68" t="n">
         <v>683.9464263916016</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>2772.790505616821</v>
       </c>
-      <c r="N68" t="n">
-        <v>-178.6284455717146</v>
-      </c>
       <c r="O68" t="n">
-        <v>0.1670005730592262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>85.4933032989502</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-134.5785836395009</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.167000573059226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C69" t="n">
         <v>1012</v>
@@ -3683,7 +4097,7 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F69" t="n">
-        <v>222.350698297553</v>
+        <v>156.7721578924059</v>
       </c>
       <c r="G69" t="n">
         <v>790.0543823242188</v>
@@ -3695,30 +4109,36 @@
         <v>938.981714650547</v>
       </c>
       <c r="J69" t="n">
-        <v>873.7766029277142</v>
+        <v>798.5198461753938</v>
       </c>
       <c r="K69" t="n">
         <v>106.1079559326172</v>
       </c>
       <c r="L69" t="n">
+        <v>117.0495459279785</v>
+      </c>
+      <c r="M69" t="n">
         <v>683.9464263916016</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>2762.575081792237</v>
       </c>
-      <c r="N69" t="n">
-        <v>-222.350698297553</v>
-      </c>
       <c r="O69" t="n">
+        <v>85.4933032989502</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-156.7721578924059</v>
+      </c>
+      <c r="Q69" t="n">
         <v>0.1787123094436895</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:17">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C70" t="n">
         <v>1202</v>
@@ -3730,7 +4150,7 @@
         <v>324.134958041958</v>
       </c>
       <c r="F70" t="n">
-        <v>263.9930385537369</v>
+        <v>178.0368577063773</v>
       </c>
       <c r="G70" t="n">
         <v>790.0543823242188</v>
@@ -3742,30 +4162,36 @@
         <v>936.2044916761522</v>
       </c>
       <c r="J70" t="n">
-        <v>895.3254998363715</v>
+        <v>809.5292397474204</v>
       </c>
       <c r="K70" t="n">
         <v>106.1079559326172</v>
       </c>
       <c r="L70" t="n">
+        <v>117.0256564796142</v>
+      </c>
+      <c r="M70" t="n">
         <v>683.9464263916016</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>2761.497182224243</v>
       </c>
-      <c r="N70" t="n">
-        <v>-263.9930385537369</v>
-      </c>
       <c r="O70" t="n">
-        <v>0.1901132180762839</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>85.4933032989502</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-178.0368577063773</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.1901132180762836</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C71" t="n">
         <v>1328</v>
@@ -3777,7 +4203,7 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F71" t="n">
-        <v>291.6731406520179</v>
+        <v>192.1868803187698</v>
       </c>
       <c r="G71" t="n">
         <v>790.0543823242188</v>
@@ -3789,30 +4215,36 @@
         <v>944.0466862837501</v>
       </c>
       <c r="J71" t="n">
-        <v>909.6158209442178</v>
+        <v>816.8336617078775</v>
       </c>
       <c r="K71" t="n">
         <v>106.1079559326172</v>
       </c>
       <c r="L71" t="n">
+        <v>117.0271116744385</v>
+      </c>
+      <c r="M71" t="n">
         <v>683.9464263916016</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>2761.562841081176</v>
       </c>
-      <c r="N71" t="n">
-        <v>-291.6731406520179</v>
-      </c>
       <c r="O71" t="n">
+        <v>85.4933032989502</v>
+      </c>
+      <c r="P71" t="n">
+        <v>-192.1868803187698</v>
+      </c>
+      <c r="Q71" t="n">
         <v>0.1854252000818991</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:17">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
         <v>607</v>
@@ -3824,42 +4256,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F72" t="n">
-        <v>14026.88771448294</v>
+        <v>12216.9795697446</v>
       </c>
       <c r="G72" t="n">
         <v>3208</v>
       </c>
       <c r="H72" t="n">
-        <v>17535.84887881861</v>
+        <v>15725.94073408026</v>
       </c>
       <c r="I72" t="n">
         <v>18741.771898717</v>
       </c>
       <c r="J72" t="n">
-        <v>154942.0774316397</v>
+        <v>147241.0725347086</v>
       </c>
       <c r="K72" t="n">
         <v>1974</v>
       </c>
       <c r="L72" t="n">
+        <v>694.226912</v>
+      </c>
+      <c r="M72" t="n">
         <v>1234</v>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>2800.808544</v>
       </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
       <c r="O72" t="n">
-        <v>0.06434413066253054</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>154.25</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.1609149434180869</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
         <v>810</v>
@@ -3871,42 +4309,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F73" t="n">
-        <v>18761.7232059485</v>
+        <v>15142.92027923502</v>
       </c>
       <c r="G73" t="n">
         <v>3208</v>
       </c>
       <c r="H73" t="n">
-        <v>22278.59072343101</v>
+        <v>18659.78779671754</v>
       </c>
       <c r="I73" t="n">
         <v>21139.45800623999</v>
       </c>
       <c r="J73" t="n">
-        <v>159251.1980389261</v>
+        <v>149873.083662404</v>
       </c>
       <c r="K73" t="n">
         <v>1974</v>
       </c>
       <c r="L73" t="n">
+        <v>695.720384</v>
+      </c>
+      <c r="M73" t="n">
         <v>1234</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>2807.343808</v>
       </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
       <c r="O73" t="n">
-        <v>0.05388656212731527</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>154.25</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.1173005575067485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
         <v>1012</v>
@@ -3918,42 +4362,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F74" t="n">
-        <v>23512.07717334463</v>
+        <v>18103.53685632617</v>
       </c>
       <c r="G74" t="n">
         <v>3208</v>
       </c>
       <c r="H74" t="n">
-        <v>27036.81209642155</v>
+        <v>21628.27177940309</v>
       </c>
       <c r="I74" t="n">
         <v>23660.912407748</v>
       </c>
       <c r="J74" t="n">
-        <v>163539.0914511027</v>
+        <v>152553.27112851</v>
       </c>
       <c r="K74" t="n">
         <v>1974</v>
       </c>
       <c r="L74" t="n">
+        <v>697.671824</v>
+      </c>
+      <c r="M74" t="n">
         <v>1234</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>2815.883088</v>
       </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
       <c r="O74" t="n">
-        <v>0.1426783393005622</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>154.25</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.08590711099033098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
         <v>1202</v>
@@ -3965,42 +4415,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F75" t="n">
-        <v>27974.510162476</v>
+        <v>20871.16245857659</v>
       </c>
       <c r="G75" t="n">
         <v>3208</v>
       </c>
       <c r="H75" t="n">
-        <v>31506.64512051795</v>
+        <v>24403.29741661855</v>
       </c>
       <c r="I75" t="n">
         <v>26029.975323828</v>
       </c>
       <c r="J75" t="n">
-        <v>167572.258521962</v>
+        <v>155049.3423613347</v>
       </c>
       <c r="K75" t="n">
         <v>1974</v>
       </c>
       <c r="L75" t="n">
+        <v>698.7772639999999</v>
+      </c>
+      <c r="M75" t="n">
         <v>1234</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>2820.720368</v>
       </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
       <c r="O75" t="n">
-        <v>0.2103985781222227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>154.25</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.06249248748693111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C76" t="n">
         <v>1328</v>
@@ -4012,42 +4468,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F76" t="n">
-        <v>30910.52605235609</v>
+        <v>22684.40707954689</v>
       </c>
       <c r="G76" t="n">
         <v>3208</v>
       </c>
       <c r="H76" t="n">
-        <v>34447.56840200644</v>
+        <v>26221.44942919724</v>
       </c>
       <c r="I76" t="n">
         <v>27804.323617728</v>
       </c>
       <c r="J76" t="n">
-        <v>170246.8851057949</v>
+        <v>156697.8750058605</v>
       </c>
       <c r="K76" t="n">
         <v>1974</v>
       </c>
       <c r="L76" t="n">
+        <v>698.8517119999999</v>
+      </c>
+      <c r="M76" t="n">
         <v>1234</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>2821.046144</v>
       </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
       <c r="O76" t="n">
-        <v>0.2389284801750301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>154.25</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.05692906651113481</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C77" t="n">
         <v>607</v>
@@ -4059,42 +4521,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F77" t="n">
-        <v>2875.254189788075</v>
+        <v>2875.322190093932</v>
       </c>
       <c r="G77" t="n">
         <v>2016</v>
       </c>
       <c r="H77" t="n">
-        <v>4891.254189788075</v>
+        <v>4891.322190093933</v>
       </c>
       <c r="I77" t="n">
         <v>5561.980353911154</v>
       </c>
       <c r="J77" t="n">
-        <v>9678.296048401722</v>
+        <v>9678.384205016619</v>
       </c>
       <c r="K77" t="n">
         <v>1512</v>
       </c>
       <c r="L77" t="n">
+        <v>1660.451456</v>
+      </c>
+      <c r="M77" t="n">
         <v>504</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>3751.720064</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
         <v>-300.9611643356643</v>
       </c>
-      <c r="O77" t="n">
-        <v>0.1205912501383484</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="Q77" t="n">
+        <v>0.1205790242221222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C78" t="n">
         <v>810</v>
@@ -4106,42 +4574,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F78" t="n">
-        <v>3820.164605836769</v>
+        <v>3820.303625219125</v>
       </c>
       <c r="G78" t="n">
         <v>2016</v>
       </c>
       <c r="H78" t="n">
-        <v>5836.164605836769</v>
+        <v>5836.303625219125</v>
       </c>
       <c r="I78" t="n">
         <v>5586.401611592307</v>
       </c>
       <c r="J78" t="n">
-        <v>9946.044753804917</v>
+        <v>9946.155201324496</v>
       </c>
       <c r="K78" t="n">
         <v>1512</v>
       </c>
       <c r="L78" t="n">
+        <v>1654.323968</v>
+      </c>
+      <c r="M78" t="n">
         <v>504</v>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>3737.422592</v>
       </c>
-      <c r="N78" t="n">
+      <c r="O78" t="n">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
         <v>-308.8675174825175</v>
       </c>
-      <c r="O78" t="n">
-        <v>0.04470910106537637</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="Q78" t="n">
+        <v>0.04473398638369431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C79" t="n">
         <v>1012</v>
@@ -4153,42 +4627,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F79" t="n">
-        <v>4741.507735723346</v>
+        <v>4741.714027911882</v>
       </c>
       <c r="G79" t="n">
         <v>2016</v>
       </c>
       <c r="H79" t="n">
-        <v>6757.507735723346</v>
+        <v>6757.714027911882</v>
       </c>
       <c r="I79" t="n">
         <v>6435.542017993846</v>
       </c>
       <c r="J79" t="n">
-        <v>10211.03259398863</v>
+        <v>10211.16216987004</v>
       </c>
       <c r="K79" t="n">
         <v>1512</v>
       </c>
       <c r="L79" t="n">
+        <v>1645.383296</v>
+      </c>
+      <c r="M79" t="n">
         <v>504</v>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>3716.561024</v>
       </c>
-      <c r="N79" t="n">
+      <c r="O79" t="n">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
         <v>-316.7349230769231</v>
       </c>
-      <c r="O79" t="n">
-        <v>0.05002930861600789</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="Q79" t="n">
+        <v>0.05006136375417022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C80" t="n">
         <v>1202</v>
@@ -4200,42 +4680,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F80" t="n">
-        <v>5646.714263591181</v>
+        <v>5646.983250085508</v>
       </c>
       <c r="G80" t="n">
         <v>2016</v>
       </c>
       <c r="H80" t="n">
-        <v>7662.714263591181</v>
+        <v>7662.983250085508</v>
       </c>
       <c r="I80" t="n">
         <v>7643.368883809616</v>
       </c>
       <c r="J80" t="n">
-        <v>10460.97125248809</v>
+        <v>10461.11767024838</v>
       </c>
       <c r="K80" t="n">
         <v>1512</v>
       </c>
       <c r="L80" t="n">
+        <v>1650.57248</v>
+      </c>
+      <c r="M80" t="n">
         <v>504</v>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>3728.66912</v>
       </c>
-      <c r="N80" t="n">
+      <c r="O80" t="n">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
         <v>-324.134958041958</v>
       </c>
-      <c r="O80" t="n">
-        <v>0.002531001718698071</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="Q80" t="n">
+        <v>0.002566193856931326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C81" t="n">
         <v>1328</v>
@@ -4247,42 +4733,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F81" t="n">
-        <v>6251.498677902815</v>
+        <v>6251.810659996368</v>
       </c>
       <c r="G81" t="n">
         <v>2016</v>
       </c>
       <c r="H81" t="n">
-        <v>8267.498677902815</v>
+        <v>8267.810659996368</v>
       </c>
       <c r="I81" t="n">
         <v>8460.397322763078</v>
       </c>
       <c r="J81" t="n">
-        <v>10627.18375434346</v>
+        <v>10627.34207274158</v>
       </c>
       <c r="K81" t="n">
         <v>1512</v>
       </c>
       <c r="L81" t="n">
+        <v>1654.182272</v>
+      </c>
+      <c r="M81" t="n">
         <v>504</v>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>3737.091968</v>
       </c>
-      <c r="N81" t="n">
+      <c r="O81" t="n">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
         <v>-329.0423496503496</v>
       </c>
-      <c r="O81" t="n">
-        <v>0.02280018744997475</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="Q81" t="n">
+        <v>0.02276331186580873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C82" t="n">
         <v>607</v>
@@ -4294,42 +4786,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F82" t="n">
-        <v>280337.0015811787</v>
+        <v>280308.1549741081</v>
       </c>
       <c r="G82" t="n">
         <v>288480</v>
       </c>
       <c r="H82" t="n">
-        <v>568817.0015811787</v>
+        <v>568788.1549741081</v>
       </c>
       <c r="I82" t="n">
         <v>581227.4558619648</v>
       </c>
       <c r="J82" t="n">
-        <v>1891274.447607425</v>
+        <v>1891199.508790808</v>
       </c>
       <c r="K82" t="n">
         <v>87864</v>
       </c>
       <c r="L82" t="n">
+        <v>46584.356096</v>
+      </c>
+      <c r="M82" t="n">
         <v>200616</v>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>743661.018368</v>
       </c>
-      <c r="N82" t="n">
+      <c r="O82" t="n">
+        <v>25077</v>
+      </c>
+      <c r="P82" t="n">
         <v>-300.9611643356643</v>
       </c>
-      <c r="O82" t="n">
-        <v>0.02135214734889166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="Q82" t="n">
+        <v>0.02140177784514527</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C83" t="n">
         <v>810</v>
@@ -4341,42 +4839,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F83" t="n">
-        <v>401275.4958986468</v>
+        <v>401214.36620923</v>
       </c>
       <c r="G83" t="n">
         <v>288480</v>
       </c>
       <c r="H83" t="n">
-        <v>689755.4958986468</v>
+        <v>689694.3662092299</v>
       </c>
       <c r="I83" t="n">
         <v>714574.1974081534</v>
       </c>
       <c r="J83" t="n">
-        <v>1943780.385450367</v>
+        <v>1943690.032212679</v>
       </c>
       <c r="K83" t="n">
         <v>87864</v>
       </c>
       <c r="L83" t="n">
+        <v>49980.425216</v>
+      </c>
+      <c r="M83" t="n">
         <v>200616</v>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>797939.683328</v>
       </c>
-      <c r="N83" t="n">
+      <c r="O83" t="n">
+        <v>25077</v>
+      </c>
+      <c r="P83" t="n">
         <v>-308.8675174825175</v>
       </c>
-      <c r="O83" t="n">
-        <v>0.03473215461673132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="Q83" t="n">
+        <v>0.034817701631497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C84" t="n">
         <v>1012</v>
@@ -4388,42 +4892,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F84" t="n">
-        <v>535785.0146695885</v>
+        <v>535686.8055629759</v>
       </c>
       <c r="G84" t="n">
         <v>288480</v>
       </c>
       <c r="H84" t="n">
-        <v>824265.0146695885</v>
+        <v>824166.8055629759</v>
       </c>
       <c r="I84" t="n">
         <v>896104.7968739326</v>
       </c>
       <c r="J84" t="n">
-        <v>1996071.496103341</v>
+        <v>1995964.722308634</v>
       </c>
       <c r="K84" t="n">
         <v>87864</v>
       </c>
       <c r="L84" t="n">
+        <v>53416.05823999999</v>
+      </c>
+      <c r="M84" t="n">
         <v>200616</v>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>852850.6899199999</v>
       </c>
-      <c r="N84" t="n">
+      <c r="O84" t="n">
+        <v>25077</v>
+      </c>
+      <c r="P84" t="n">
         <v>-316.7349230769231</v>
       </c>
-      <c r="O84" t="n">
-        <v>0.08016895172858979</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="Q84" t="n">
+        <v>0.08027854728812166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C85" t="n">
         <v>1202</v>
@@ -4435,42 +4945,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F85" t="n">
-        <v>648382.9503001678</v>
+        <v>648251.497916215</v>
       </c>
       <c r="G85" t="n">
         <v>288480</v>
       </c>
       <c r="H85" t="n">
-        <v>936862.9503001678</v>
+        <v>936731.497916215</v>
       </c>
       <c r="I85" t="n">
         <v>1042128.551097446</v>
       </c>
       <c r="J85" t="n">
-        <v>2045252.84569682</v>
+        <v>2045130.898361414</v>
       </c>
       <c r="K85" t="n">
         <v>87864</v>
       </c>
       <c r="L85" t="n">
+        <v>54426.44403200001</v>
+      </c>
+      <c r="M85" t="n">
         <v>200616</v>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>868999.4754560001</v>
       </c>
-      <c r="N85" t="n">
+      <c r="O85" t="n">
+        <v>25077</v>
+      </c>
+      <c r="P85" t="n">
         <v>-324.134958041958</v>
       </c>
-      <c r="O85" t="n">
-        <v>0.1010101879335572</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="Q85" t="n">
+        <v>0.101136326291262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
         <v>1328</v>
@@ -4482,42 +4998,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F86" t="n">
-        <v>721210.1603972191</v>
+        <v>721057.2119878692</v>
       </c>
       <c r="G86" t="n">
         <v>288480</v>
       </c>
       <c r="H86" t="n">
-        <v>1009690.160397219</v>
+        <v>1009537.211987869</v>
       </c>
       <c r="I86" t="n">
         <v>1138350.603208089</v>
       </c>
       <c r="J86" t="n">
-        <v>2077956.176042609</v>
+        <v>2077824.477503155</v>
       </c>
       <c r="K86" t="n">
         <v>87864</v>
       </c>
       <c r="L86" t="n">
+        <v>54789.24703999999</v>
+      </c>
+      <c r="M86" t="n">
         <v>200616</v>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>874798.0803199998</v>
       </c>
-      <c r="N86" t="n">
+      <c r="O86" t="n">
+        <v>25077</v>
+      </c>
+      <c r="P86" t="n">
         <v>-329.0423496503496</v>
       </c>
-      <c r="O86" t="n">
-        <v>0.1130235644873211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="Q86" t="n">
+        <v>0.1131579241555278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C87" t="n">
         <v>607</v>
@@ -4529,42 +5051,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F87" t="n">
-        <v>3782.507978424957</v>
+        <v>3357.47223258957</v>
       </c>
       <c r="G87" t="n">
         <v>80</v>
       </c>
       <c r="H87" t="n">
-        <v>4083.469142760621</v>
+        <v>3658.433396925234</v>
       </c>
       <c r="I87" t="n">
         <v>3758.065788422969</v>
       </c>
       <c r="J87" t="n">
-        <v>14506.30988691598</v>
+        <v>13879.27536271719</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
+        <v>56</v>
+      </c>
+      <c r="M87" t="n">
         <v>80</v>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>530.2048</v>
       </c>
-      <c r="N87" t="n">
+      <c r="O87" t="n">
+        <v>10</v>
+      </c>
+      <c r="P87" t="n">
         <v>-80</v>
       </c>
-      <c r="O87" t="n">
-        <v>0.08658798771966261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="Q87" t="n">
+        <v>0.0265116145131522</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C88" t="n">
         <v>810</v>
@@ -4576,42 +5104,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F88" t="n">
-        <v>5089.147903843364</v>
+        <v>4236.820585791376</v>
       </c>
       <c r="G88" t="n">
         <v>80</v>
       </c>
       <c r="H88" t="n">
-        <v>5398.015421325882</v>
+        <v>4545.688103273894</v>
       </c>
       <c r="I88" t="n">
         <v>4961.782856854687</v>
       </c>
       <c r="J88" t="n">
-        <v>14906.53862929447</v>
+        <v>14146.18002238625</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
+        <v>56</v>
+      </c>
+      <c r="M88" t="n">
         <v>80</v>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>535.19296</v>
       </c>
-      <c r="N88" t="n">
+      <c r="O88" t="n">
+        <v>10</v>
+      </c>
+      <c r="P88" t="n">
         <v>-80</v>
       </c>
-      <c r="O88" t="n">
-        <v>0.08791851176408105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="Q88" t="n">
+        <v>0.08385992809136338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C89" t="n">
         <v>1012</v>
@@ -4623,42 +5157,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F89" t="n">
-        <v>6390.558921188826</v>
+        <v>5110.018348211576</v>
       </c>
       <c r="G89" t="n">
         <v>80</v>
       </c>
       <c r="H89" t="n">
-        <v>6707.29384426575</v>
+        <v>5426.753271288499</v>
       </c>
       <c r="I89" t="n">
         <v>6148.167790379999</v>
       </c>
       <c r="J89" t="n">
-        <v>15303.15088456057</v>
+        <v>14410.66951136553</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
+        <v>56</v>
+      </c>
+      <c r="M89" t="n">
         <v>80</v>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>538.5184</v>
       </c>
-      <c r="N89" t="n">
+      <c r="O89" t="n">
+        <v>10</v>
+      </c>
+      <c r="P89" t="n">
         <v>-80</v>
       </c>
-      <c r="O89" t="n">
-        <v>0.09094189894436708</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="Q89" t="n">
+        <v>0.1173381312429847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C90" t="n">
         <v>1202</v>
@@ -4670,42 +5210,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F90" t="n">
-        <v>7634.386181986792</v>
+        <v>5945.216355015911</v>
       </c>
       <c r="G90" t="n">
         <v>80</v>
       </c>
       <c r="H90" t="n">
-        <v>7958.52114002875</v>
+        <v>6269.351313057869</v>
       </c>
       <c r="I90" t="n">
         <v>7298.0763273425</v>
       </c>
       <c r="J90" t="n">
-        <v>15676.13099317738</v>
+        <v>14659.40600097381</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
       <c r="L90" t="n">
+        <v>56</v>
+      </c>
+      <c r="M90" t="n">
         <v>80</v>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>542.08896</v>
       </c>
-      <c r="N90" t="n">
+      <c r="O90" t="n">
+        <v>10</v>
+      </c>
+      <c r="P90" t="n">
         <v>-80</v>
       </c>
-      <c r="O90" t="n">
-        <v>0.09049573929665138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="Q90" t="n">
+        <v>0.1409583797350099</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C91" t="n">
         <v>1328</v>
@@ -4717,42 +5263,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F91" t="n">
-        <v>8467.24957087845</v>
+        <v>6504.10840827875</v>
       </c>
       <c r="G91" t="n">
         <v>80</v>
       </c>
       <c r="H91" t="n">
-        <v>8796.2919205288</v>
+        <v>6833.1507579291</v>
       </c>
       <c r="I91" t="n">
         <v>8074.286357907001</v>
       </c>
       <c r="J91" t="n">
-        <v>15924.91532816374</v>
+        <v>14825.31117303481</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
+        <v>56</v>
+      </c>
+      <c r="M91" t="n">
         <v>80</v>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>544.26496</v>
       </c>
-      <c r="N91" t="n">
+      <c r="O91" t="n">
+        <v>10</v>
+      </c>
+      <c r="P91" t="n">
         <v>-80</v>
       </c>
-      <c r="O91" t="n">
-        <v>0.08942035625411678</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="Q91" t="n">
+        <v>0.1537145878858358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C92" t="n">
         <v>607</v>
@@ -4764,42 +5316,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F92" t="n">
-        <v>975.8671929158821</v>
+        <v>865.7741329849904</v>
       </c>
       <c r="G92" t="n">
         <v>600</v>
       </c>
       <c r="H92" t="n">
-        <v>975.8671929158822</v>
+        <v>1166.735297320655</v>
       </c>
       <c r="I92" t="n">
         <v>1442.678748561914</v>
       </c>
       <c r="J92" t="n">
-        <v>3629.682633830505</v>
+        <v>3471.950314504181</v>
       </c>
       <c r="K92" t="n">
         <v>504</v>
       </c>
       <c r="L92" t="n">
+        <v>539.936768</v>
+      </c>
+      <c r="M92" t="n">
         <v>96</v>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>653.249024</v>
       </c>
-      <c r="N92" t="n">
-        <v>-900.9611643356643</v>
-      </c>
       <c r="O92" t="n">
-        <v>0.3235727677498246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P92" t="n">
+        <v>-600</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.1912715852481533</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C93" t="n">
         <v>810</v>
@@ -4811,42 +5369,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F93" t="n">
-        <v>1312.549243454157</v>
+        <v>1092.048779166449</v>
       </c>
       <c r="G93" t="n">
         <v>600</v>
       </c>
       <c r="H93" t="n">
-        <v>1312.549243454157</v>
+        <v>1400.916296648966</v>
       </c>
       <c r="I93" t="n">
         <v>1528.722657292237</v>
       </c>
       <c r="J93" t="n">
-        <v>3730.628358159323</v>
+        <v>3539.283631441712</v>
       </c>
       <c r="K93" t="n">
         <v>504</v>
       </c>
       <c r="L93" t="n">
+        <v>543.772352</v>
+      </c>
+      <c r="M93" t="n">
         <v>96</v>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>658.3631359999999</v>
       </c>
-      <c r="N93" t="n">
-        <v>-908.8675174825175</v>
-      </c>
       <c r="O93" t="n">
-        <v>0.1414078693783339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P93" t="n">
+        <v>-600</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.08360336653193086</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C94" t="n">
         <v>1012</v>
@@ -4858,42 +5422,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F94" t="n">
-        <v>1658.534469054396</v>
+        <v>1325.287744318777</v>
       </c>
       <c r="G94" t="n">
         <v>600</v>
       </c>
       <c r="H94" t="n">
-        <v>1658.534469054395</v>
+        <v>1642.0226673957</v>
       </c>
       <c r="I94" t="n">
         <v>1657.216165232031</v>
       </c>
       <c r="J94" t="n">
-        <v>3831.076812910166</v>
+        <v>3606.283138788138</v>
       </c>
       <c r="K94" t="n">
         <v>504</v>
       </c>
       <c r="L94" t="n">
+        <v>549.3221120000001</v>
+      </c>
+      <c r="M94" t="n">
         <v>96</v>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>665.762816</v>
       </c>
-      <c r="N94" t="n">
-        <v>-916.734923076923</v>
-      </c>
       <c r="O94" t="n">
-        <v>0.0007954929779359276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P94" t="n">
+        <v>-600</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.009168084499226315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C95" t="n">
         <v>1202</v>
@@ -4905,42 +5475,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F95" t="n">
-        <v>2017.429568883868</v>
+        <v>1569.962966404167</v>
       </c>
       <c r="G95" t="n">
         <v>600</v>
       </c>
       <c r="H95" t="n">
-        <v>2017.429568883869</v>
+        <v>1894.097924446125</v>
       </c>
       <c r="I95" t="n">
         <v>1862.49493157041</v>
       </c>
       <c r="J95" t="n">
-        <v>3925.558032725316</v>
+        <v>3669.306534225795</v>
       </c>
       <c r="K95" t="n">
         <v>504</v>
       </c>
       <c r="L95" t="n">
+        <v>561.2199680000001</v>
+      </c>
+      <c r="M95" t="n">
         <v>96</v>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>681.626624</v>
       </c>
-      <c r="N95" t="n">
-        <v>-924.134958041958</v>
-      </c>
       <c r="O95" t="n">
-        <v>0.08318660882626992</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P95" t="n">
+        <v>-600</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.01696809604151096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C96" t="n">
         <v>1328</v>
@@ -4952,42 +5528,48 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F96" t="n">
-        <v>2258.405128952491</v>
+        <v>1733.674586109067</v>
       </c>
       <c r="G96" t="n">
         <v>600</v>
       </c>
       <c r="H96" t="n">
-        <v>2258.405128952491</v>
+        <v>2062.716935759417</v>
       </c>
       <c r="I96" t="n">
         <v>2036.959644841407</v>
       </c>
       <c r="J96" t="n">
-        <v>3988.2139995501</v>
+        <v>3711.103649031</v>
       </c>
       <c r="K96" t="n">
         <v>504</v>
       </c>
       <c r="L96" t="n">
+        <v>567.906176</v>
+      </c>
+      <c r="M96" t="n">
         <v>96</v>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>690.541568</v>
       </c>
-      <c r="N96" t="n">
-        <v>-929.0423496503497</v>
-      </c>
       <c r="O96" t="n">
-        <v>0.1087137316008664</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-600</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.01264496868322371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C97" t="n">
         <v>607</v>
@@ -4999,42 +5581,48 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F97" t="n">
-        <v>1531.554264193795</v>
+        <v>1324.155685767703</v>
       </c>
       <c r="G97" t="n">
         <v>8</v>
       </c>
       <c r="H97" t="n">
-        <v>1531.554264193795</v>
+        <v>1324.155685767703</v>
       </c>
       <c r="I97" t="n">
         <v>1368.795769014625</v>
       </c>
       <c r="J97" t="n">
-        <v>6049.121816390148</v>
+        <v>5733.615174145511</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="n">
+        <v>56</v>
+      </c>
+      <c r="M97" t="n">
         <v>8</v>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>58.641216</v>
       </c>
-      <c r="N97" t="n">
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="n">
         <v>-308.9611643356643</v>
       </c>
-      <c r="O97" t="n">
-        <v>0.1189063400570975</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="Q97" t="n">
+        <v>0.03261266892946187</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C98" t="n">
         <v>810</v>
@@ -5046,42 +5634,48 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F98" t="n">
-        <v>2108.611534221589</v>
+        <v>1683.364831063477</v>
       </c>
       <c r="G98" t="n">
         <v>8</v>
       </c>
       <c r="H98" t="n">
-        <v>2108.611534221589</v>
+        <v>1683.364831063477</v>
       </c>
       <c r="I98" t="n">
         <v>1831.456492405312</v>
       </c>
       <c r="J98" t="n">
-        <v>6217.713930265538</v>
+        <v>5834.875327236188</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
+        <v>56</v>
+      </c>
+      <c r="M98" t="n">
         <v>8</v>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>60.240448</v>
       </c>
-      <c r="N98" t="n">
+      <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="n">
         <v>-316.8675174825175</v>
       </c>
-      <c r="O98" t="n">
-        <v>0.1513303990379156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="Q98" t="n">
+        <v>0.08086004879501227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C99" t="n">
         <v>1012</v>
@@ -5093,42 +5687,48 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F99" t="n">
-        <v>2693.438764085981</v>
+        <v>2044.218030207757</v>
       </c>
       <c r="G99" t="n">
         <v>8</v>
       </c>
       <c r="H99" t="n">
-        <v>2693.438764085981</v>
+        <v>2044.218030207757</v>
       </c>
       <c r="I99" t="n">
         <v>2317.060235682499</v>
       </c>
       <c r="J99" t="n">
-        <v>6385.128021516944</v>
+        <v>5935.682846527714</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
+        <v>56</v>
+      </c>
+      <c r="M99" t="n">
         <v>8</v>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>61.40991999999999</v>
       </c>
-      <c r="N99" t="n">
+      <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="n">
         <v>-324.7349230769231</v>
       </c>
-      <c r="O99" t="n">
-        <v>0.162437955909514</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="Q99" t="n">
+        <v>0.117753609195393</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C100" t="n">
         <v>1202</v>
@@ -5140,42 +5740,48 @@
         <v>324.134958041958</v>
       </c>
       <c r="F100" t="n">
-        <v>3252.397276914154</v>
+        <v>2386.87097379887</v>
       </c>
       <c r="G100" t="n">
         <v>8</v>
       </c>
       <c r="H100" t="n">
-        <v>3252.397276914154</v>
+        <v>2386.870973798869</v>
       </c>
       <c r="I100" t="n">
         <v>2777.163681916313</v>
       </c>
       <c r="J100" t="n">
-        <v>6542.596721208861</v>
+        <v>6030.172558131901</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
       <c r="L100" t="n">
+        <v>56</v>
+      </c>
+      <c r="M100" t="n">
         <v>8</v>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>62.299328</v>
       </c>
-      <c r="N100" t="n">
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="n">
         <v>-332.134958041958</v>
       </c>
-      <c r="O100" t="n">
-        <v>0.171121924894941</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="Q100" t="n">
+        <v>0.1405364439477804</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C101" t="n">
         <v>1328</v>
@@ -5187,34 +5793,40 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F101" t="n">
-        <v>3623.740120066353</v>
+        <v>2613.696120705498</v>
       </c>
       <c r="G101" t="n">
         <v>8</v>
       </c>
       <c r="H101" t="n">
-        <v>3623.740120066353</v>
+        <v>2613.696120705498</v>
       </c>
       <c r="I101" t="n">
         <v>3083.18602765075</v>
       </c>
       <c r="J101" t="n">
-        <v>6647.0233325835</v>
+        <v>6092.971681363248</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
+        <v>56</v>
+      </c>
+      <c r="M101" t="n">
         <v>8</v>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>62.758848</v>
       </c>
-      <c r="N101" t="n">
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="n">
         <v>-337.0423496503496</v>
       </c>
-      <c r="O101" t="n">
-        <v>0.1753232168178579</v>
+      <c r="Q101" t="n">
+        <v>0.1522742717224178</v>
       </c>
     </row>
   </sheetData>

--- a/p100-cycles.xlsx
+++ b/p100-cycles.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>appName</t>
   </si>
@@ -29,10 +29,7 @@
     <t>cold_miss</t>
   </si>
   <si>
-    <t>mem_op</t>
-  </si>
-  <si>
-    <t>sm_op</t>
+    <t>c_to_m</t>
   </si>
   <si>
     <t>modelled_cycle</t>
@@ -41,34 +38,43 @@
     <t>real_cycle</t>
   </si>
   <si>
-    <t>lat_op</t>
+    <t>mem_del</t>
   </si>
   <si>
-    <t>shm_op</t>
+    <t>mem_lat</t>
   </si>
   <si>
     <t>shm_del</t>
   </si>
   <si>
-    <t>compute_lat</t>
+    <t>shm_lat</t>
   </si>
   <si>
     <t>compute_del</t>
   </si>
   <si>
-    <t>insts</t>
+    <t>compute_lat</t>
   </si>
   <si>
-    <t>offset</t>
+    <t>sm_del</t>
+  </si>
+  <si>
+    <t>sm_lat</t>
+  </si>
+  <si>
+    <t>insts</t>
   </si>
   <si>
     <t>abe</t>
   </si>
   <si>
-    <t>backprop</t>
+    <t>BlackScholes</t>
   </si>
   <si>
-    <t>BlackScholes</t>
+    <t>SobolQRNG</t>
+  </si>
+  <si>
+    <t>backprop</t>
   </si>
   <si>
     <t>conjugateGradient</t>
@@ -111,9 +117,6 @@
   </si>
   <si>
     <t>scan</t>
-  </si>
-  <si>
-    <t>SobolQRNG</t>
   </si>
   <si>
     <t>sortingNetworks</t>
@@ -471,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +482,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,13 +531,16 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>607</v>
@@ -546,48 +552,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F2" t="n">
-        <v>1315.630947362018</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G2" t="n">
-        <v>1915</v>
+        <v>6594.699404335664</v>
       </c>
       <c r="H2" t="n">
-        <v>6870.115387374106</v>
+        <v>7747.508052900001</v>
       </c>
       <c r="I2" t="n">
-        <v>7494.867112442502</v>
+        <v>3606.424639109026</v>
       </c>
       <c r="J2" t="n">
-        <v>4955.115387374106</v>
+        <v>12098.94211276835</v>
       </c>
       <c r="K2" t="n">
-        <v>707</v>
+        <v>56</v>
       </c>
       <c r="L2" t="n">
-        <v>808.354656</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1208</v>
+        <v>6237.73824</v>
       </c>
       <c r="N2" t="n">
-        <v>9006.459648</v>
+        <v>1672</v>
       </c>
       <c r="O2" t="n">
-        <v>151</v>
+        <v>6293.73824</v>
       </c>
       <c r="P2" t="n">
-        <v>3338.523275676424</v>
+        <v>1672</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08335727848079158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>209</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1487973475720137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>810</v>
@@ -599,48 +608,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F3" t="n">
-        <v>1579.547946881986</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G3" t="n">
-        <v>1915</v>
+        <v>6522.744349482517</v>
       </c>
       <c r="H3" t="n">
-        <v>6945.059003563385</v>
+        <v>7764.875390327344</v>
       </c>
       <c r="I3" t="n">
-        <v>7514.333775584999</v>
+        <v>4750.424781685663</v>
       </c>
       <c r="J3" t="n">
-        <v>5030.059003563385</v>
+        <v>12435.10124758031</v>
       </c>
       <c r="K3" t="n">
-        <v>707</v>
+        <v>56</v>
       </c>
       <c r="L3" t="n">
-        <v>805.943584</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1208</v>
+        <v>6157.876832</v>
       </c>
       <c r="N3" t="n">
-        <v>8977.622272000001</v>
+        <v>1672</v>
       </c>
       <c r="O3" t="n">
-        <v>151</v>
+        <v>6213.876832</v>
       </c>
       <c r="P3" t="n">
-        <v>3141.643539198881</v>
+        <v>1672</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07575851552818404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>209</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1599679297355037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>1012</v>
@@ -652,48 +664,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F4" t="n">
-        <v>1842.53273781702</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G4" t="n">
-        <v>1915</v>
+        <v>6360.114571076922</v>
       </c>
       <c r="H4" t="n">
-        <v>7019.637480342621</v>
+        <v>7804.952850213752</v>
       </c>
       <c r="I4" t="n">
-        <v>7522.7375648425</v>
+        <v>5769.559226391902</v>
       </c>
       <c r="J4" t="n">
-        <v>5104.637480342621</v>
+        <v>12769.29119631133</v>
       </c>
       <c r="K4" t="n">
-        <v>707</v>
+        <v>56</v>
       </c>
       <c r="L4" t="n">
-        <v>804.44232</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1208</v>
+        <v>5987.379647999999</v>
       </c>
       <c r="N4" t="n">
-        <v>8959.66656</v>
+        <v>1672</v>
       </c>
       <c r="O4" t="n">
-        <v>151</v>
+        <v>6043.379647999999</v>
       </c>
       <c r="P4" t="n">
-        <v>2945.369819448677</v>
+        <v>1672</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06687726112514107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>209</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.18511813035453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>1202</v>
@@ -705,48 +720,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F5" t="n">
-        <v>2093.300440967063</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G5" t="n">
-        <v>1915</v>
+        <v>7009.146329523958</v>
       </c>
       <c r="H5" t="n">
-        <v>7089.803205560642</v>
+        <v>9027.140070033749</v>
       </c>
       <c r="I5" t="n">
-        <v>7574.006255484374</v>
+        <v>6685.011371482</v>
       </c>
       <c r="J5" t="n">
-        <v>5174.803205560642</v>
+        <v>13083.29017503586</v>
       </c>
       <c r="K5" t="n">
-        <v>707</v>
+        <v>56</v>
       </c>
       <c r="L5" t="n">
-        <v>804.612</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1208</v>
+        <v>5842.370432</v>
       </c>
       <c r="N5" t="n">
-        <v>8961.696</v>
+        <v>1672</v>
       </c>
       <c r="O5" t="n">
-        <v>151</v>
+        <v>5898.370432</v>
       </c>
       <c r="P5" t="n">
-        <v>2757.367806551621</v>
+        <v>1672</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06392958146464678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>209</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2235474053635955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>1328</v>
@@ -758,48 +776,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F6" t="n">
-        <v>2259.525650671127</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G6" t="n">
-        <v>1915</v>
+        <v>7736.072609601472</v>
       </c>
       <c r="H6" t="n">
-        <v>7136.451966304592</v>
+        <v>9953.246165292498</v>
       </c>
       <c r="I6" t="n">
-        <v>7615.937015858499</v>
+        <v>7407.030259951122</v>
       </c>
       <c r="J6" t="n">
-        <v>5221.451966304591</v>
+        <v>13291.30165591657</v>
       </c>
       <c r="K6" t="n">
-        <v>707</v>
+        <v>56</v>
       </c>
       <c r="L6" t="n">
-        <v>804.610384</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1208</v>
+        <v>5860.314335999999</v>
       </c>
       <c r="N6" t="n">
-        <v>8961.676672</v>
+        <v>1672</v>
       </c>
       <c r="O6" t="n">
-        <v>151</v>
+        <v>5916.314335999999</v>
       </c>
       <c r="P6" t="n">
-        <v>2632.883965983115</v>
+        <v>1672</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06295811645441467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>209</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2227588385608736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
         <v>607</v>
@@ -811,48 +832,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F7" t="n">
-        <v>3606.424639109026</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G7" t="n">
-        <v>1672</v>
+        <v>418719.8264443357</v>
       </c>
       <c r="H7" t="n">
-        <v>5579.385803444691</v>
+        <v>581227.4558619648</v>
       </c>
       <c r="I7" t="n">
-        <v>7747.508052900001</v>
+        <v>280308.1549741081</v>
       </c>
       <c r="J7" t="n">
-        <v>12098.94211276835</v>
+        <v>1891199.508790808</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>46584.356096</v>
       </c>
       <c r="L7" t="n">
-        <v>56</v>
+        <v>87864</v>
       </c>
       <c r="M7" t="n">
-        <v>1672</v>
+        <v>371834.509184</v>
       </c>
       <c r="N7" t="n">
-        <v>12467.47648</v>
+        <v>200616</v>
       </c>
       <c r="O7" t="n">
-        <v>209</v>
+        <v>418418.86528</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>288480</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.279847692271033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25077</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2795938625724916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>810</v>
@@ -864,48 +888,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F8" t="n">
-        <v>4750.424781685663</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G8" t="n">
-        <v>1672</v>
+        <v>449263.1343974825</v>
       </c>
       <c r="H8" t="n">
-        <v>6731.292299168181</v>
+        <v>714574.1974081534</v>
       </c>
       <c r="I8" t="n">
-        <v>7764.875390327344</v>
+        <v>401214.36620923</v>
       </c>
       <c r="J8" t="n">
-        <v>12435.10124758031</v>
+        <v>1943690.032212679</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>49980.425216</v>
       </c>
       <c r="L8" t="n">
-        <v>56</v>
+        <v>87864</v>
       </c>
       <c r="M8" t="n">
-        <v>1672</v>
+        <v>398973.841664</v>
       </c>
       <c r="N8" t="n">
-        <v>12307.753664</v>
+        <v>200616</v>
       </c>
       <c r="O8" t="n">
-        <v>209</v>
+        <v>448954.26688</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>288480</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1331100679924228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>25077</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.3712855347604015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>1012</v>
@@ -917,48 +944,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F9" t="n">
-        <v>5769.559226391902</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G9" t="n">
-        <v>1672</v>
+        <v>536003.5404860529</v>
       </c>
       <c r="H9" t="n">
-        <v>7758.294149468825</v>
+        <v>896104.7968739326</v>
       </c>
       <c r="I9" t="n">
-        <v>7804.952850213752</v>
+        <v>535686.8055629759</v>
       </c>
       <c r="J9" t="n">
-        <v>12769.29119631133</v>
+        <v>1995964.722308634</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>53416.05823999999</v>
       </c>
       <c r="L9" t="n">
-        <v>56</v>
+        <v>87864</v>
       </c>
       <c r="M9" t="n">
-        <v>1672</v>
+        <v>426429.34496</v>
       </c>
       <c r="N9" t="n">
-        <v>11966.759296</v>
+        <v>200616</v>
       </c>
       <c r="O9" t="n">
-        <v>209</v>
+        <v>479845.4031999999</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>288480</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.005978088739338024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>25077</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.401851722749499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
         <v>1202</v>
@@ -970,48 +1000,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F10" t="n">
-        <v>6685.011371482</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G10" t="n">
-        <v>1672</v>
+        <v>648575.6328742569</v>
       </c>
       <c r="H10" t="n">
-        <v>8681.146329523959</v>
+        <v>1042128.551097446</v>
       </c>
       <c r="I10" t="n">
-        <v>9027.140070033749</v>
+        <v>648251.497916215</v>
       </c>
       <c r="J10" t="n">
-        <v>13083.29017503586</v>
+        <v>2045130.898361414</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>54426.44403200001</v>
       </c>
       <c r="L10" t="n">
-        <v>56</v>
+        <v>87864</v>
       </c>
       <c r="M10" t="n">
-        <v>1672</v>
+        <v>434503.737728</v>
       </c>
       <c r="N10" t="n">
-        <v>11676.740864</v>
+        <v>200616</v>
       </c>
       <c r="O10" t="n">
-        <v>209</v>
+        <v>488930.1817600001</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>288480</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03832816792755231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>25077</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.3776433510134102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
         <v>1328</v>
@@ -1023,48 +1056,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F11" t="n">
-        <v>7407.030259951122</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G11" t="n">
-        <v>1672</v>
+        <v>721386.2543375195</v>
       </c>
       <c r="H11" t="n">
-        <v>9408.072609601473</v>
+        <v>1138350.603208089</v>
       </c>
       <c r="I11" t="n">
-        <v>9953.246165292498</v>
+        <v>721057.2119878692</v>
       </c>
       <c r="J11" t="n">
-        <v>13291.30165591657</v>
+        <v>2077824.477503155</v>
       </c>
       <c r="K11" t="n">
+        <v>54789.24703999999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>87864</v>
+      </c>
+      <c r="M11" t="n">
+        <v>437403.0401599999</v>
+      </c>
+      <c r="N11" t="n">
+        <v>200616</v>
+      </c>
+      <c r="O11" t="n">
+        <v>492192.2871999999</v>
+      </c>
+      <c r="P11" t="n">
+        <v>288480</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>25077</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.3662881608666827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
-        <v>56</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1672</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11712.628672</v>
-      </c>
-      <c r="O11" t="n">
-        <v>209</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.05477344241641222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
         <v>607</v>
@@ -1076,48 +1112,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F12" t="n">
-        <v>1539.303506391673</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G12" t="n">
-        <v>936.0001220703125</v>
+        <v>5616.545644335663</v>
       </c>
       <c r="H12" t="n">
-        <v>3812.962104840547</v>
+        <v>7494.867112442502</v>
       </c>
       <c r="I12" t="n">
-        <v>3819.610539795313</v>
+        <v>1315.630947362018</v>
       </c>
       <c r="J12" t="n">
-        <v>6155.568149149965</v>
+        <v>4955.115387374106</v>
       </c>
       <c r="K12" t="n">
-        <v>448</v>
+        <v>808.354656</v>
       </c>
       <c r="L12" t="n">
-        <v>515.540992</v>
+        <v>707</v>
       </c>
       <c r="M12" t="n">
-        <v>488.0001220703125</v>
+        <v>4507.229824</v>
       </c>
       <c r="N12" t="n">
-        <v>3512.000940504883</v>
+        <v>1208</v>
       </c>
       <c r="O12" t="n">
-        <v>61.00001525878906</v>
+        <v>5315.58448</v>
       </c>
       <c r="P12" t="n">
-        <v>1036.697312042898</v>
+        <v>1915</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001740605458461667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>151</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.2506143791380328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
         <v>810</v>
@@ -1129,48 +1168,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F13" t="n">
-        <v>1795.350271480972</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G13" t="n">
-        <v>936.0001220703125</v>
+        <v>5607.622237482517</v>
       </c>
       <c r="H13" t="n">
-        <v>3790.058082280369</v>
+        <v>7514.333775584999</v>
       </c>
       <c r="I13" t="n">
-        <v>3790.720019903906</v>
+        <v>1579.547946881986</v>
       </c>
       <c r="J13" t="n">
-        <v>6234.290163470213</v>
+        <v>5030.059003563385</v>
       </c>
       <c r="K13" t="n">
-        <v>448</v>
+        <v>805.943584</v>
       </c>
       <c r="L13" t="n">
-        <v>511.500288</v>
+        <v>707</v>
       </c>
       <c r="M13" t="n">
-        <v>488.0001220703125</v>
+        <v>4492.811136</v>
       </c>
       <c r="N13" t="n">
-        <v>3481.190564797851</v>
+        <v>1208</v>
       </c>
       <c r="O13" t="n">
-        <v>61.00001525878906</v>
+        <v>5298.75472</v>
       </c>
       <c r="P13" t="n">
-        <v>749.840171246567</v>
+        <v>1915</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0001746205523122405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>151</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.2537432585570824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
         <v>1012</v>
@@ -1182,48 +1224,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F14" t="n">
-        <v>2067.624000668053</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G14" t="n">
-        <v>936.0001220703125</v>
+        <v>5605.010523076923</v>
       </c>
       <c r="H14" t="n">
-        <v>3804.577905538838</v>
+        <v>7522.7375648425</v>
       </c>
       <c r="I14" t="n">
-        <v>3812.778891820937</v>
+        <v>1842.53273781702</v>
       </c>
       <c r="J14" t="n">
-        <v>6312.683837623645</v>
+        <v>5104.637480342621</v>
       </c>
       <c r="K14" t="n">
-        <v>448</v>
+        <v>804.44232</v>
       </c>
       <c r="L14" t="n">
-        <v>512.372736</v>
+        <v>707</v>
       </c>
       <c r="M14" t="n">
-        <v>488.0001220703125</v>
+        <v>4483.83328</v>
       </c>
       <c r="N14" t="n">
-        <v>3487.842982461914</v>
+        <v>1208</v>
       </c>
       <c r="O14" t="n">
-        <v>61.00001525878906</v>
+        <v>5288.2756</v>
       </c>
       <c r="P14" t="n">
-        <v>484.2188597235486</v>
+        <v>1915</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.002150921025001512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>151</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.2549240918263679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>1202</v>
@@ -1235,48 +1280,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F15" t="n">
-        <v>2299.189397286125</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G15" t="n">
-        <v>936.0001220703125</v>
+        <v>5613.594958041958</v>
       </c>
       <c r="H15" t="n">
-        <v>3780.054924518521</v>
+        <v>7574.006255484374</v>
       </c>
       <c r="I15" t="n">
-        <v>3874.5921933075</v>
+        <v>2093.300440967063</v>
       </c>
       <c r="J15" t="n">
-        <v>6386.406390773077</v>
+        <v>5174.803205560642</v>
       </c>
       <c r="K15" t="n">
-        <v>448</v>
+        <v>804.612</v>
       </c>
       <c r="L15" t="n">
-        <v>508.186112</v>
+        <v>707</v>
       </c>
       <c r="M15" t="n">
-        <v>488.0001220703125</v>
+        <v>4484.848</v>
       </c>
       <c r="N15" t="n">
-        <v>3455.919966476563</v>
+        <v>1208</v>
       </c>
       <c r="O15" t="n">
-        <v>61.00001525878906</v>
+        <v>5289.46</v>
       </c>
       <c r="P15" t="n">
-        <v>220.7304471201251</v>
+        <v>1915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02439928231731606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>151</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.258834127054341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
         <v>1328</v>
@@ -1288,48 +1336,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F16" t="n">
-        <v>2484.811888284628</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G16" t="n">
-        <v>936.0001220703125</v>
+        <v>5618.491069650349</v>
       </c>
       <c r="H16" t="n">
-        <v>3812.184914936482</v>
+        <v>7615.937015858499</v>
       </c>
       <c r="I16" t="n">
-        <v>4014.5831168625</v>
+        <v>2259.525650671127</v>
       </c>
       <c r="J16" t="n">
-        <v>6435.302845436029</v>
+        <v>5221.451966304591</v>
       </c>
       <c r="K16" t="n">
-        <v>448</v>
+        <v>804.610384</v>
       </c>
       <c r="L16" t="n">
-        <v>511.756288</v>
+        <v>707</v>
       </c>
       <c r="M16" t="n">
-        <v>488.0001220703125</v>
+        <v>4484.838336</v>
       </c>
       <c r="N16" t="n">
-        <v>3483.142565286133</v>
+        <v>1208</v>
       </c>
       <c r="O16" t="n">
-        <v>61.00001525878906</v>
+        <v>5289.448719999999</v>
       </c>
       <c r="P16" t="n">
-        <v>62.33055493119173</v>
+        <v>1915</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05041574580331463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>151</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.2622718572972585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
         <v>607</v>
@@ -1341,48 +1392,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F17" t="n">
-        <v>6838.099963887983</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G17" t="n">
-        <v>15068.66666933333</v>
+        <v>2576.502626588106</v>
       </c>
       <c r="H17" t="n">
-        <v>15369.627833669</v>
+        <v>3819.610539795313</v>
       </c>
       <c r="I17" t="n">
-        <v>13794.09504921</v>
+        <v>1539.303506391673</v>
       </c>
       <c r="J17" t="n">
-        <v>31815.36260538557</v>
+        <v>6155.568149149965</v>
       </c>
       <c r="K17" t="n">
-        <v>15568</v>
+        <v>515.540992</v>
       </c>
       <c r="L17" t="n">
-        <v>13235.815424</v>
+        <v>448</v>
       </c>
       <c r="M17" t="n">
-        <v>-499.3333306666664</v>
+        <v>1760.000470252442</v>
       </c>
       <c r="N17" t="n">
-        <v>-2951.137200196862</v>
+        <v>488.0001220703125</v>
       </c>
       <c r="O17" t="n">
-        <v>-62.4166663333333</v>
+        <v>2275.541462252441</v>
       </c>
       <c r="P17" t="n">
-        <v>-6838.099963887983</v>
+        <v>936.0001220703125</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1142179156253697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>61.00001525878906</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.325454100687926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
         <v>810</v>
@@ -1394,48 +1448,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F18" t="n">
-        <v>8363.779243195553</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G18" t="n">
-        <v>15068.66666933333</v>
+        <v>2564.963087881443</v>
       </c>
       <c r="H18" t="n">
-        <v>15377.53418681585</v>
+        <v>3790.720019903906</v>
       </c>
       <c r="I18" t="n">
-        <v>13886.7920226</v>
+        <v>1795.350271480972</v>
       </c>
       <c r="J18" t="n">
-        <v>32355.86910605621</v>
+        <v>6234.290163470213</v>
       </c>
       <c r="K18" t="n">
-        <v>15568</v>
+        <v>511.500288</v>
       </c>
       <c r="L18" t="n">
-        <v>13213.112832</v>
+        <v>448</v>
       </c>
       <c r="M18" t="n">
-        <v>-499.3333306666664</v>
+        <v>1744.595282398926</v>
       </c>
       <c r="N18" t="n">
-        <v>-2946.040005557417</v>
+        <v>488.0001220703125</v>
       </c>
       <c r="O18" t="n">
-        <v>-62.4166663333333</v>
+        <v>2256.095570398926</v>
       </c>
       <c r="P18" t="n">
-        <v>-8363.779243195553</v>
+        <v>936.0001220703125</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1073496428685436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>61.00001525878906</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.323357284522832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
         <v>1012</v>
@@ -1447,48 +1504,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F19" t="n">
-        <v>9877.040798081698</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G19" t="n">
-        <v>15068.66666933333</v>
+        <v>2577.029150307881</v>
       </c>
       <c r="H19" t="n">
-        <v>15385.40159241026</v>
+        <v>3812.778891820937</v>
       </c>
       <c r="I19" t="n">
-        <v>13915.56657944444</v>
+        <v>2067.624000668053</v>
       </c>
       <c r="J19" t="n">
-        <v>32894.38961793695</v>
+        <v>6312.683837623645</v>
       </c>
       <c r="K19" t="n">
-        <v>15568</v>
+        <v>512.372736</v>
       </c>
       <c r="L19" t="n">
-        <v>13189.6096</v>
+        <v>448</v>
       </c>
       <c r="M19" t="n">
-        <v>-499.3333306666664</v>
+        <v>1747.921491230957</v>
       </c>
       <c r="N19" t="n">
-        <v>-2940.763050918932</v>
+        <v>488.0001220703125</v>
       </c>
       <c r="O19" t="n">
-        <v>-62.4166663333333</v>
+        <v>2260.294227230957</v>
       </c>
       <c r="P19" t="n">
-        <v>-9877.040798081698</v>
+        <v>936.0001220703125</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1056252366423224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>61.00001525878906</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3241073706539739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
         <v>1202</v>
@@ -1500,48 +1560,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F20" t="n">
-        <v>11300.72385356632</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G20" t="n">
-        <v>15068.66666933333</v>
+        <v>2623.324355328084</v>
       </c>
       <c r="H20" t="n">
-        <v>15392.80162737529</v>
+        <v>3874.5921933075</v>
       </c>
       <c r="I20" t="n">
-        <v>13897.34353355639</v>
+        <v>2299.189397286125</v>
       </c>
       <c r="J20" t="n">
-        <v>33406.00485992723</v>
+        <v>6386.406390773077</v>
       </c>
       <c r="K20" t="n">
-        <v>15568</v>
+        <v>508.186112</v>
       </c>
       <c r="L20" t="n">
-        <v>13164.594048</v>
+        <v>448</v>
       </c>
       <c r="M20" t="n">
-        <v>-499.3333306666664</v>
+        <v>1731.959983238281</v>
       </c>
       <c r="N20" t="n">
-        <v>-2935.146549615593</v>
+        <v>488.0001220703125</v>
       </c>
       <c r="O20" t="n">
-        <v>-62.4166663333333</v>
+        <v>2240.146095238281</v>
       </c>
       <c r="P20" t="n">
-        <v>-11300.72385356632</v>
+        <v>936.0001220703125</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.107607478379446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>61.00001525878906</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.3229418156937146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
         <v>1328</v>
@@ -1553,48 +1616,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F21" t="n">
-        <v>12187.17944797472</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G21" t="n">
-        <v>15068.66666933333</v>
+        <v>2813.854237934978</v>
       </c>
       <c r="H21" t="n">
-        <v>15397.70901898369</v>
+        <v>4014.5831168625</v>
       </c>
       <c r="I21" t="n">
-        <v>14026.95403349334</v>
+        <v>2484.811888284628</v>
       </c>
       <c r="J21" t="n">
-        <v>33776.93396979151</v>
+        <v>6435.302845436029</v>
       </c>
       <c r="K21" t="n">
-        <v>15568</v>
+        <v>511.756288</v>
       </c>
       <c r="L21" t="n">
-        <v>13035.904512</v>
+        <v>448</v>
       </c>
       <c r="M21" t="n">
-        <v>-499.3333306666664</v>
+        <v>1745.571282643066</v>
       </c>
       <c r="N21" t="n">
-        <v>-2906.253125769897</v>
+        <v>488.0001220703125</v>
       </c>
       <c r="O21" t="n">
-        <v>-62.4166663333333</v>
+        <v>2257.327570643066</v>
       </c>
       <c r="P21" t="n">
-        <v>-12187.17944797472</v>
+        <v>936.0001220703125</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09772292560575042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>61.00001525878906</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.2990917970745423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
         <v>607</v>
@@ -1606,48 +1672,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F22" t="n">
-        <v>342.6424759458558</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G22" t="n">
-        <v>728</v>
+        <v>12065.20798823723</v>
       </c>
       <c r="H22" t="n">
-        <v>5463.137100335663</v>
+        <v>13794.09504921</v>
       </c>
       <c r="I22" t="n">
-        <v>8199.060608255417</v>
+        <v>6838.099963887983</v>
       </c>
       <c r="J22" t="n">
-        <v>1209.894211276835</v>
+        <v>31815.36260538557</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>13235.815424</v>
       </c>
       <c r="L22" t="n">
-        <v>56</v>
+        <v>15568</v>
       </c>
       <c r="M22" t="n">
-        <v>728</v>
+        <v>-1471.568600098431</v>
       </c>
       <c r="N22" t="n">
-        <v>5162.175936</v>
+        <v>-499.3333306666664</v>
       </c>
       <c r="O22" t="n">
-        <v>91</v>
+        <v>11764.24682390157</v>
       </c>
       <c r="P22" t="n">
-        <v>4091.533460054144</v>
+        <v>15068.66666933333</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3336874355051144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>-62.4166663333333</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.1253353014318821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
       </c>
       <c r="C23" t="n">
         <v>810</v>
@@ -1659,48 +1728,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F23" t="n">
-        <v>455.515084025728</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G23" t="n">
-        <v>728</v>
+        <v>12052.96034670381</v>
       </c>
       <c r="H23" t="n">
-        <v>5451.678653482517</v>
+        <v>13886.7920226</v>
       </c>
       <c r="I23" t="n">
-        <v>8374.598467199998</v>
+        <v>8363.779243195553</v>
       </c>
       <c r="J23" t="n">
-        <v>1243.542786053108</v>
+        <v>32355.86910605621</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>13213.112832</v>
       </c>
       <c r="L23" t="n">
-        <v>56</v>
+        <v>15568</v>
       </c>
       <c r="M23" t="n">
-        <v>728</v>
+        <v>-1469.020002778708</v>
       </c>
       <c r="N23" t="n">
-        <v>5142.811135999999</v>
+        <v>-499.3333306666664</v>
       </c>
       <c r="O23" t="n">
-        <v>91</v>
+        <v>11744.09282922129</v>
       </c>
       <c r="P23" t="n">
-        <v>3959.296051974271</v>
+        <v>15068.66666933333</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3490220844814717</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>-62.4166663333333</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.132055817708779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
         <v>1012</v>
@@ -1712,48 +1784,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F24" t="n">
-        <v>569.2488730371167</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G24" t="n">
-        <v>728</v>
+        <v>12039.96299761746</v>
       </c>
       <c r="H24" t="n">
-        <v>5460.774923076922</v>
+        <v>13915.56657944444</v>
       </c>
       <c r="I24" t="n">
-        <v>8823.739697743056</v>
+        <v>9877.040798081698</v>
       </c>
       <c r="J24" t="n">
-        <v>1277.025604303389</v>
+        <v>32894.38961793695</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>13189.6096</v>
       </c>
       <c r="L24" t="n">
-        <v>56</v>
+        <v>15568</v>
       </c>
       <c r="M24" t="n">
-        <v>728</v>
+        <v>-1466.381525459466</v>
       </c>
       <c r="N24" t="n">
-        <v>5144.04</v>
+        <v>-499.3333306666664</v>
       </c>
       <c r="O24" t="n">
-        <v>91</v>
+        <v>11723.22807454053</v>
       </c>
       <c r="P24" t="n">
-        <v>3846.791126962883</v>
+        <v>15068.66666933333</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3811269246220303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>-62.4166663333333</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1347845645464094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="n">
         <v>1202</v>
@@ -1765,48 +1840,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F25" t="n">
-        <v>676.3414010646322</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G25" t="n">
-        <v>728</v>
+        <v>12025.15573123416</v>
       </c>
       <c r="H25" t="n">
-        <v>5469.828974041959</v>
+        <v>13897.34353355639</v>
       </c>
       <c r="I25" t="n">
-        <v>9109.555000201251</v>
+        <v>11300.72385356632</v>
       </c>
       <c r="J25" t="n">
-        <v>1308.519344241772</v>
+        <v>33406.00485992723</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>13164.594048</v>
       </c>
       <c r="L25" t="n">
-        <v>56</v>
+        <v>15568</v>
       </c>
       <c r="M25" t="n">
-        <v>728</v>
+        <v>-1463.573274807796</v>
       </c>
       <c r="N25" t="n">
-        <v>5145.694016</v>
+        <v>-499.3333306666664</v>
       </c>
       <c r="O25" t="n">
-        <v>91</v>
+        <v>11701.0207731922</v>
       </c>
       <c r="P25" t="n">
-        <v>3741.352614935368</v>
+        <v>15068.66666933333</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3995503650923544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>-62.4166663333333</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1347155157963578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
         <v>1328</v>
@@ -1818,48 +1896,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F26" t="n">
-        <v>747.6295787138172</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G26" t="n">
-        <v>728</v>
+        <v>12516.22179762507</v>
       </c>
       <c r="H26" t="n">
-        <v>5477.42122965035</v>
+        <v>14026.95403349334</v>
       </c>
       <c r="I26" t="n">
-        <v>9440.403980077779</v>
+        <v>12187.17944797472</v>
       </c>
       <c r="J26" t="n">
-        <v>1329.4046665167</v>
+        <v>33776.93396979151</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>13035.904512</v>
       </c>
       <c r="L26" t="n">
-        <v>56</v>
+        <v>15568</v>
       </c>
       <c r="M26" t="n">
-        <v>728</v>
+        <v>-1449.126562884948</v>
       </c>
       <c r="N26" t="n">
-        <v>5148.37888</v>
+        <v>-499.3333306666664</v>
       </c>
       <c r="O26" t="n">
-        <v>91</v>
+        <v>11586.77794911505</v>
       </c>
       <c r="P26" t="n">
-        <v>3672.749301286183</v>
+        <v>15068.66666933333</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4197895300657227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>-62.4166663333333</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1077020878703217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
         <v>607</v>
@@ -1871,48 +1952,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F27" t="n">
-        <v>3948.853532987129</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G27" t="n">
-        <v>7064</v>
+        <v>2942.049132335664</v>
       </c>
       <c r="H27" t="n">
-        <v>11313.81469732279</v>
+        <v>8199.060608255417</v>
       </c>
       <c r="I27" t="n">
-        <v>12809.52009704008</v>
+        <v>342.6424759458558</v>
       </c>
       <c r="J27" t="n">
-        <v>13887.00672447237</v>
+        <v>1209.894211276835</v>
       </c>
       <c r="K27" t="n">
-        <v>5824</v>
+        <v>56</v>
       </c>
       <c r="L27" t="n">
-        <v>6433.572864000001</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1240</v>
+        <v>2585.087968</v>
       </c>
       <c r="N27" t="n">
-        <v>9513.036480000001</v>
+        <v>728</v>
       </c>
       <c r="O27" t="n">
-        <v>155</v>
+        <v>2641.087968</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1167651393952615</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>91</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.6411724131696999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" t="n">
         <v>810</v>
@@ -1924,48 +2008,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F28" t="n">
-        <v>4935.732479777712</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G28" t="n">
-        <v>7064</v>
+        <v>2940.273085482517</v>
       </c>
       <c r="H28" t="n">
-        <v>12308.59999726023</v>
+        <v>8374.598467199998</v>
       </c>
       <c r="I28" t="n">
-        <v>13086.51245035312</v>
+        <v>455.515084025728</v>
       </c>
       <c r="J28" t="n">
-        <v>14156.27871946129</v>
+        <v>1243.542786053108</v>
       </c>
       <c r="K28" t="n">
-        <v>5824</v>
+        <v>56</v>
       </c>
       <c r="L28" t="n">
-        <v>6426.237952</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1240</v>
+        <v>2575.405568</v>
       </c>
       <c r="N28" t="n">
-        <v>9502.10464</v>
+        <v>728</v>
       </c>
       <c r="O28" t="n">
-        <v>155</v>
+        <v>2631.405568</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05944383242243444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>91</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.6489057837222396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" t="n">
         <v>1012</v>
@@ -1977,48 +2064,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F29" t="n">
-        <v>5918.22893687723</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G29" t="n">
-        <v>7064</v>
+        <v>2948.754923076923</v>
       </c>
       <c r="H29" t="n">
-        <v>13298.96385995415</v>
+        <v>8823.739697743056</v>
       </c>
       <c r="I29" t="n">
-        <v>13295.83115213719</v>
+        <v>569.2488730371167</v>
       </c>
       <c r="J29" t="n">
-        <v>14424.1868079314</v>
+        <v>1277.025604303389</v>
       </c>
       <c r="K29" t="n">
-        <v>5824</v>
+        <v>56</v>
       </c>
       <c r="L29" t="n">
-        <v>6421.871616</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1240</v>
+        <v>2576.02</v>
       </c>
       <c r="N29" t="n">
-        <v>9495.59712</v>
+        <v>728</v>
       </c>
       <c r="O29" t="n">
-        <v>155</v>
+        <v>2632.02</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0002356157942381404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>91</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.6658157398012139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" t="n">
         <v>1202</v>
@@ -2030,48 +2120,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F30" t="n">
-        <v>6852.862861952523</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G30" t="n">
-        <v>7064</v>
+        <v>2956.981966041958</v>
       </c>
       <c r="H30" t="n">
-        <v>14240.99781999448</v>
+        <v>9109.555000201251</v>
       </c>
       <c r="I30" t="n">
-        <v>13582.26005411625</v>
+        <v>676.3414010646322</v>
       </c>
       <c r="J30" t="n">
-        <v>14676.17236771972</v>
+        <v>1308.519344241772</v>
       </c>
       <c r="K30" t="n">
-        <v>5824</v>
+        <v>56</v>
       </c>
       <c r="L30" t="n">
-        <v>6428.667391999999</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1240</v>
+        <v>2576.847008</v>
       </c>
       <c r="N30" t="n">
-        <v>9505.72544</v>
+        <v>728</v>
       </c>
       <c r="O30" t="n">
-        <v>155</v>
+        <v>2632.847008</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.04849986403246594</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>91</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6753977591686278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" t="n">
         <v>1328</v>
@@ -2083,48 +2176,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F31" t="n">
-        <v>7477.770575331083</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G31" t="n">
-        <v>7064</v>
+        <v>2963.23178965035</v>
       </c>
       <c r="H31" t="n">
-        <v>14870.81292498143</v>
+        <v>9440.403980077779</v>
       </c>
       <c r="I31" t="n">
-        <v>14040.16194329</v>
+        <v>747.6295787138172</v>
       </c>
       <c r="J31" t="n">
-        <v>14843.29976680815</v>
+        <v>1329.4046665167</v>
       </c>
       <c r="K31" t="n">
-        <v>5824</v>
+        <v>56</v>
       </c>
       <c r="L31" t="n">
-        <v>6436.548096</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1240</v>
+        <v>2578.18944</v>
       </c>
       <c r="N31" t="n">
-        <v>9517.470719999999</v>
+        <v>728</v>
       </c>
       <c r="O31" t="n">
-        <v>155</v>
+        <v>2634.18944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0591624929289662</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>91</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.686111760057758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
         <v>607</v>
@@ -2136,48 +2232,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F32" t="n">
-        <v>92966.18549613301</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G32" t="n">
-        <v>544762.3777777777</v>
+        <v>11495.05226833566</v>
       </c>
       <c r="H32" t="n">
-        <v>260225.6513280689</v>
+        <v>12809.52009704008</v>
       </c>
       <c r="I32" t="n">
-        <v>205035.1489161174</v>
+        <v>3948.853532987129</v>
       </c>
       <c r="J32" t="n">
-        <v>826710.6506112914</v>
+        <v>13887.00672447237</v>
       </c>
       <c r="K32" t="n">
-        <v>577204.5222222222</v>
+        <v>6433.572864000001</v>
       </c>
       <c r="L32" t="n">
-        <v>259924.6901637333</v>
+        <v>5824</v>
       </c>
       <c r="M32" t="n">
-        <v>-32442.14444444445</v>
+        <v>4760.51824</v>
       </c>
       <c r="N32" t="n">
-        <v>-102234.5861338667</v>
+        <v>1240</v>
       </c>
       <c r="O32" t="n">
-        <v>-4055.268055555556</v>
+        <v>11194.091104</v>
       </c>
       <c r="P32" t="n">
-        <v>-377803.8731101775</v>
+        <v>7064</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.2691758106047015</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>155</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1026164773345531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
         <v>810</v>
@@ -2189,48 +2288,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F33" t="n">
-        <v>113250.2664213546</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G33" t="n">
-        <v>544762.3777777777</v>
+        <v>11490.15778948252</v>
       </c>
       <c r="H33" t="n">
-        <v>262860.3330040603</v>
+        <v>13086.51245035312</v>
       </c>
       <c r="I33" t="n">
-        <v>251951.5972108799</v>
+        <v>4935.732479777712</v>
       </c>
       <c r="J33" t="n">
-        <v>839349.7201387245</v>
+        <v>14156.27871946129</v>
       </c>
       <c r="K33" t="n">
-        <v>577204.5222222222</v>
+        <v>6426.237952</v>
       </c>
       <c r="L33" t="n">
-        <v>262551.4654865778</v>
+        <v>5824</v>
       </c>
       <c r="M33" t="n">
-        <v>-32442.14444444445</v>
+        <v>4755.05232</v>
       </c>
       <c r="N33" t="n">
-        <v>-103268.0630872889</v>
+        <v>1240</v>
       </c>
       <c r="O33" t="n">
-        <v>-4055.268055555556</v>
+        <v>11181.290272</v>
       </c>
       <c r="P33" t="n">
-        <v>-395461.1787125546</v>
+        <v>7064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.04329695034260835</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>155</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.1219847279347165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n">
         <v>1012</v>
@@ -2242,48 +2344,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F34" t="n">
-        <v>133035.9225487524</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G34" t="n">
-        <v>544762.3777777777</v>
+        <v>11490.40509907692</v>
       </c>
       <c r="H34" t="n">
-        <v>263944.1096390769</v>
+        <v>13295.83115213719</v>
       </c>
       <c r="I34" t="n">
-        <v>270233.52708352</v>
+        <v>5918.22893687723</v>
       </c>
       <c r="J34" t="n">
-        <v>851913.1905603562</v>
+        <v>14424.1868079314</v>
       </c>
       <c r="K34" t="n">
-        <v>577204.5222222222</v>
+        <v>6421.871616</v>
       </c>
       <c r="L34" t="n">
-        <v>263627.374716</v>
+        <v>5824</v>
       </c>
       <c r="M34" t="n">
-        <v>-32442.14444444445</v>
+        <v>4751.79856</v>
       </c>
       <c r="N34" t="n">
-        <v>-103691.368188</v>
+        <v>1240</v>
       </c>
       <c r="O34" t="n">
-        <v>-4055.268055555556</v>
+        <v>11173.670176</v>
       </c>
       <c r="P34" t="n">
-        <v>-414170.9256105301</v>
+        <v>7064</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.02327400864104938</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>155</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1357888824250042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" t="n">
         <v>1202</v>
@@ -2295,48 +2400,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F35" t="n">
-        <v>151412.9020180316</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G35" t="n">
-        <v>544762.3777777777</v>
+        <v>11509.66507004196</v>
       </c>
       <c r="H35" t="n">
-        <v>264298.4920496863</v>
+        <v>13582.26005411625</v>
       </c>
       <c r="I35" t="n">
-        <v>277836.4204399716</v>
+        <v>6852.862861952523</v>
       </c>
       <c r="J35" t="n">
-        <v>863737.1276143363</v>
+        <v>14676.17236771972</v>
       </c>
       <c r="K35" t="n">
-        <v>577204.5222222222</v>
+        <v>6428.667391999999</v>
       </c>
       <c r="L35" t="n">
-        <v>263974.3570916444</v>
+        <v>5824</v>
       </c>
       <c r="M35" t="n">
-        <v>-32442.14444444445</v>
+        <v>4756.86272</v>
       </c>
       <c r="N35" t="n">
-        <v>-103827.8847318222</v>
+        <v>1240</v>
       </c>
       <c r="O35" t="n">
-        <v>-4055.268055555556</v>
+        <v>11185.530112</v>
       </c>
       <c r="P35" t="n">
-        <v>-432200.922704165</v>
+        <v>7064</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.04872625543061338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>155</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1525957370729454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" t="n">
         <v>1328</v>
@@ -2348,48 +2456,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F36" t="n">
-        <v>163516.5560553364</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G36" t="n">
-        <v>544762.3777777777</v>
+        <v>11528.32580565035</v>
       </c>
       <c r="H36" t="n">
-        <v>264356.8320884948</v>
+        <v>14040.16194329</v>
       </c>
       <c r="I36" t="n">
-        <v>291706.7582981689</v>
+        <v>7477.770575331083</v>
       </c>
       <c r="J36" t="n">
-        <v>871577.8622380343</v>
+        <v>14843.29976680815</v>
       </c>
       <c r="K36" t="n">
-        <v>577204.5222222222</v>
+        <v>6436.548096</v>
       </c>
       <c r="L36" t="n">
-        <v>264027.7897388444</v>
+        <v>5824</v>
       </c>
       <c r="M36" t="n">
-        <v>-32442.14444444445</v>
+        <v>4762.73536</v>
       </c>
       <c r="N36" t="n">
-        <v>-103848.9072414222</v>
+        <v>1240</v>
       </c>
       <c r="O36" t="n">
-        <v>-4055.268055555556</v>
+        <v>11199.283456</v>
       </c>
       <c r="P36" t="n">
-        <v>-444251.1440942697</v>
+        <v>7064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.09375828784096354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>155</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1789036442588963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37" t="n">
         <v>607</v>
@@ -2401,48 +2512,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F37" t="n">
-        <v>1170.655612712145</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G37" t="n">
-        <v>1841.538345268079</v>
+        <v>209112.3582611356</v>
       </c>
       <c r="H37" t="n">
-        <v>7102.938553149806</v>
+        <v>205035.1489161174</v>
       </c>
       <c r="I37" t="n">
-        <v>5424.934418016305</v>
+        <v>92966.18549613301</v>
       </c>
       <c r="J37" t="n">
-        <v>6703.27987290742</v>
+        <v>826710.6506112914</v>
       </c>
       <c r="K37" t="n">
-        <v>554.3243243243244</v>
+        <v>259924.6901637333</v>
       </c>
       <c r="L37" t="n">
-        <v>473.9643416216217</v>
+        <v>577204.5222222222</v>
       </c>
       <c r="M37" t="n">
-        <v>1287.214020943755</v>
+        <v>-51113.29306693334</v>
       </c>
       <c r="N37" t="n">
-        <v>6801.977388814142</v>
+        <v>-32442.14444444445</v>
       </c>
       <c r="O37" t="n">
-        <v>160.9017526179693</v>
+        <v>208811.3970968</v>
       </c>
       <c r="P37" t="n">
-        <v>3789.783430833917</v>
+        <v>544762.3777777777</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3093132572369574</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>-4055.268055555556</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.01988541655697448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" t="n">
         <v>810</v>
@@ -2454,48 +2568,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F38" t="n">
-        <v>1297.738913234267</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G38" t="n">
-        <v>1841.538345268079</v>
+        <v>211230.3014604159</v>
       </c>
       <c r="H38" t="n">
-        <v>7085.996526836361</v>
+        <v>251951.5972108799</v>
       </c>
       <c r="I38" t="n">
-        <v>5439.471474002279</v>
+        <v>113250.2664213546</v>
       </c>
       <c r="J38" t="n">
-        <v>6755.204369561881</v>
+        <v>839349.7201387245</v>
       </c>
       <c r="K38" t="n">
-        <v>554.3243243243244</v>
+        <v>262551.4654865778</v>
       </c>
       <c r="L38" t="n">
-        <v>472.4356735135136</v>
+        <v>577204.5222222222</v>
       </c>
       <c r="M38" t="n">
-        <v>1287.214020943755</v>
+        <v>-51630.03154364445</v>
       </c>
       <c r="N38" t="n">
-        <v>6777.129009353844</v>
+        <v>-32442.14444444445</v>
       </c>
       <c r="O38" t="n">
-        <v>160.9017526179693</v>
+        <v>210921.4339429333</v>
       </c>
       <c r="P38" t="n">
-        <v>3637.851750851498</v>
+        <v>544762.3777777777</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3026994553981169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>-4055.268055555556</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.161623487214415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39" t="n">
         <v>1012</v>
@@ -2507,48 +2624,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F39" t="n">
-        <v>1424.6386476382</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G39" t="n">
-        <v>1841.538345268079</v>
+        <v>212102.4255450769</v>
       </c>
       <c r="H39" t="n">
-        <v>7070.251278430575</v>
+        <v>270233.52708352</v>
       </c>
       <c r="I39" t="n">
-        <v>5428.363294976188</v>
+        <v>133035.9225487524</v>
       </c>
       <c r="J39" t="n">
-        <v>6807.906029853778</v>
+        <v>851913.1905603562</v>
       </c>
       <c r="K39" t="n">
-        <v>554.3243243243244</v>
+        <v>263627.374716</v>
       </c>
       <c r="L39" t="n">
-        <v>470.983027027027</v>
+        <v>577204.5222222222</v>
       </c>
       <c r="M39" t="n">
-        <v>1287.214020943755</v>
+        <v>-51841.684094</v>
       </c>
       <c r="N39" t="n">
-        <v>6753.516355353651</v>
+        <v>-32442.14444444445</v>
       </c>
       <c r="O39" t="n">
-        <v>160.9017526179693</v>
+        <v>211785.690622</v>
       </c>
       <c r="P39" t="n">
-        <v>3487.339362447372</v>
+        <v>544762.3777777777</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.3024646461989588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>-4055.268055555556</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.2151143204391391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
         <v>1202</v>
@@ -2560,48 +2680,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F40" t="n">
-        <v>1546.515408051809</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G40" t="n">
-        <v>1841.538345268079</v>
+        <v>212388.5496837753</v>
       </c>
       <c r="H40" t="n">
-        <v>7078.629596051527</v>
+        <v>277836.4204399716</v>
       </c>
       <c r="I40" t="n">
-        <v>5514.805978880934</v>
+        <v>151412.9020180316</v>
       </c>
       <c r="J40" t="n">
-        <v>6855.709897644007</v>
+        <v>863737.1276143363</v>
       </c>
       <c r="K40" t="n">
-        <v>554.3243243243244</v>
+        <v>263974.3570916444</v>
       </c>
       <c r="L40" t="n">
-        <v>471.0432108108108</v>
+        <v>577204.5222222222</v>
       </c>
       <c r="M40" t="n">
-        <v>1287.214020943755</v>
+        <v>-51909.94236591112</v>
       </c>
       <c r="N40" t="n">
-        <v>6754.494638009569</v>
+        <v>-32442.14444444445</v>
       </c>
       <c r="O40" t="n">
-        <v>160.9017526179693</v>
+        <v>212064.4147257333</v>
       </c>
       <c r="P40" t="n">
-        <v>3366.440884689681</v>
+        <v>544762.3777777777</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2835682022466953</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>-4055.268055555556</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.2355626042566899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41" t="n">
         <v>1328</v>
@@ -2613,48 +2736,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F41" t="n">
-        <v>1629.789639001459</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G41" t="n">
-        <v>1841.538345268079</v>
+        <v>212436.3784677836</v>
       </c>
       <c r="H41" t="n">
-        <v>7085.658316366435</v>
+        <v>291706.7582981689</v>
       </c>
       <c r="I41" t="n">
-        <v>5497.008621099009</v>
+        <v>163516.5560553364</v>
       </c>
       <c r="J41" t="n">
-        <v>6889.001740987103</v>
+        <v>871577.8622380343</v>
       </c>
       <c r="K41" t="n">
-        <v>554.3243243243244</v>
+        <v>264027.7897388444</v>
       </c>
       <c r="L41" t="n">
-        <v>471.1737145945946</v>
+        <v>577204.5222222222</v>
       </c>
       <c r="M41" t="n">
-        <v>1287.214020943755</v>
+        <v>-51920.45362071112</v>
       </c>
       <c r="N41" t="n">
-        <v>6756.615966716085</v>
+        <v>-32442.14444444445</v>
       </c>
       <c r="O41" t="n">
-        <v>160.9017526179693</v>
+        <v>212107.3361181333</v>
       </c>
       <c r="P41" t="n">
-        <v>3285.287982446546</v>
+        <v>544762.3777777777</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.2890025839089568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>-4055.268055555556</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2717468059117054</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" t="n">
         <v>607</v>
@@ -2666,48 +2792,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F42" t="n">
-        <v>708856.232541029</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G42" t="n">
-        <v>43264</v>
+        <v>4179.914200364357</v>
       </c>
       <c r="H42" t="n">
-        <v>709157.1937053647</v>
+        <v>5424.934418016305</v>
       </c>
       <c r="I42" t="n">
-        <v>490568.0445081719</v>
+        <v>1170.655612712145</v>
       </c>
       <c r="J42" t="n">
-        <v>3234616.546565298</v>
+        <v>6703.27987290742</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>473.9643416216217</v>
       </c>
       <c r="L42" t="n">
-        <v>56</v>
+        <v>554.3243243243244</v>
       </c>
       <c r="M42" t="n">
-        <v>43264</v>
+        <v>3404.988694407071</v>
       </c>
       <c r="N42" t="n">
-        <v>311278.63552</v>
+        <v>1287.214020943755</v>
       </c>
       <c r="O42" t="n">
-        <v>5408</v>
+        <v>3878.953036028693</v>
       </c>
       <c r="P42" t="n">
-        <v>-43264</v>
+        <v>1841.538345268079</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4455837506014959</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>160.9017526179693</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.2294995886986602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
         <v>810</v>
@@ -2719,48 +2848,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F43" t="n">
-        <v>712626.356115949</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G43" t="n">
-        <v>43264</v>
+        <v>4173.867695672952</v>
       </c>
       <c r="H43" t="n">
-        <v>712935.2236334315</v>
+        <v>5439.471474002279</v>
       </c>
       <c r="I43" t="n">
-        <v>504856.676961</v>
+        <v>1297.738913234267</v>
       </c>
       <c r="J43" t="n">
-        <v>3235038.556669784</v>
+        <v>6755.204369561881</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>472.4356735135136</v>
       </c>
       <c r="L43" t="n">
-        <v>56</v>
+        <v>554.3243243243244</v>
       </c>
       <c r="M43" t="n">
-        <v>43264</v>
+        <v>3392.564504676922</v>
       </c>
       <c r="N43" t="n">
-        <v>312324.239872</v>
+        <v>1287.214020943755</v>
       </c>
       <c r="O43" t="n">
-        <v>5408</v>
+        <v>3865.000178190435</v>
       </c>
       <c r="P43" t="n">
-        <v>-43264</v>
+        <v>1841.538345268079</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.412153698600099</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>160.9017526179693</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2326703585777085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
         <v>1012</v>
@@ -2772,48 +2904,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F44" t="n">
-        <v>714791.3846507602</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G44" t="n">
-        <v>43264</v>
+        <v>4168.476127780776</v>
       </c>
       <c r="H44" t="n">
-        <v>715108.1195738371</v>
+        <v>5428.363294976188</v>
       </c>
       <c r="I44" t="n">
-        <v>517149.9367322749</v>
+        <v>1424.6386476382</v>
       </c>
       <c r="J44" t="n">
-        <v>3235455.821459094</v>
+        <v>6807.906029853778</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>470.983027027027</v>
       </c>
       <c r="L44" t="n">
-        <v>56</v>
+        <v>554.3243243243244</v>
       </c>
       <c r="M44" t="n">
-        <v>43264</v>
+        <v>3380.758177676826</v>
       </c>
       <c r="N44" t="n">
-        <v>312658.584064</v>
+        <v>1287.214020943755</v>
       </c>
       <c r="O44" t="n">
-        <v>5408</v>
+        <v>3851.741204703853</v>
       </c>
       <c r="P44" t="n">
-        <v>-43264</v>
+        <v>1841.538345268079</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3827868259878446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>160.9017526179693</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.2320933767202732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" t="n">
         <v>1202</v>
@@ -2825,48 +2960,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F45" t="n">
-        <v>716745.9036156143</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G45" t="n">
-        <v>43264</v>
+        <v>4176.425487857553</v>
       </c>
       <c r="H45" t="n">
-        <v>717070.0385736562</v>
+        <v>5514.805978880934</v>
       </c>
       <c r="I45" t="n">
-        <v>523447.3785871094</v>
+        <v>1546.515408051809</v>
       </c>
       <c r="J45" t="n">
-        <v>3235819.376931471</v>
+        <v>6855.709897644007</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>471.0432108108108</v>
       </c>
       <c r="L45" t="n">
-        <v>56</v>
+        <v>554.3243243243244</v>
       </c>
       <c r="M45" t="n">
-        <v>43264</v>
+        <v>3381.247319004784</v>
       </c>
       <c r="N45" t="n">
-        <v>312953.8176</v>
+        <v>1287.214020943755</v>
       </c>
       <c r="O45" t="n">
-        <v>5408</v>
+        <v>3852.290529815595</v>
       </c>
       <c r="P45" t="n">
-        <v>-43264</v>
+        <v>1841.538345268079</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.369898996359813</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>160.9017526179693</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.242688590704503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C46" t="n">
         <v>1328</v>
@@ -2878,48 +3016,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F46" t="n">
-        <v>721318.3135583187</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G46" t="n">
-        <v>43264</v>
+        <v>4182.524047602987</v>
       </c>
       <c r="H46" t="n">
-        <v>721647.3559079689</v>
+        <v>5497.008621099009</v>
       </c>
       <c r="I46" t="n">
-        <v>538893.1100175</v>
+        <v>1629.789639001459</v>
       </c>
       <c r="J46" t="n">
-        <v>3236068.431983847</v>
+        <v>6889.001740987103</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>471.1737145945946</v>
       </c>
       <c r="L46" t="n">
-        <v>56</v>
+        <v>554.3243243243244</v>
       </c>
       <c r="M46" t="n">
-        <v>43264</v>
+        <v>3382.307983358042</v>
       </c>
       <c r="N46" t="n">
-        <v>314571.8912</v>
+        <v>1287.214020943755</v>
       </c>
       <c r="O46" t="n">
-        <v>5408</v>
+        <v>3853.481697952637</v>
       </c>
       <c r="P46" t="n">
-        <v>-43264</v>
+        <v>1841.538345268079</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3391289339077543</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>160.9017526179693</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.2391272534030008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
         <v>607</v>
@@ -2931,48 +3072,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F47" t="n">
-        <v>34084.57277085417</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G47" t="n">
-        <v>96592</v>
+        <v>709157.1937053647</v>
       </c>
       <c r="H47" t="n">
-        <v>130977.5339351898</v>
+        <v>490568.0445081719</v>
       </c>
       <c r="I47" t="n">
-        <v>136146.9394648125</v>
+        <v>708856.232541029</v>
       </c>
       <c r="J47" t="n">
-        <v>137658.9702291366</v>
+        <v>3234616.546565298</v>
       </c>
       <c r="K47" t="n">
-        <v>89600</v>
+        <v>56</v>
       </c>
       <c r="L47" t="n">
-        <v>100800.192</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>6992</v>
+        <v>155643.31776</v>
       </c>
       <c r="N47" t="n">
-        <v>55039.51488</v>
+        <v>43264</v>
       </c>
       <c r="O47" t="n">
-        <v>874</v>
+        <v>155699.31776</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>43264</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0379693113186634</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>5408</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.4455837506014959</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C48" t="n">
         <v>810</v>
@@ -2984,48 +3128,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F48" t="n">
-        <v>35592.26975624388</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G48" t="n">
-        <v>96592</v>
+        <v>712935.2236334315</v>
       </c>
       <c r="H48" t="n">
-        <v>132493.1372737264</v>
+        <v>504856.676961</v>
       </c>
       <c r="I48" t="n">
-        <v>138269.962656</v>
+        <v>712626.356115949</v>
       </c>
       <c r="J48" t="n">
-        <v>138039.0826623184</v>
+        <v>3235038.556669784</v>
       </c>
       <c r="K48" t="n">
-        <v>89600</v>
+        <v>56</v>
       </c>
       <c r="L48" t="n">
-        <v>100747.5584</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>6992</v>
+        <v>156166.119936</v>
       </c>
       <c r="N48" t="n">
-        <v>55010.763776</v>
+        <v>43264</v>
       </c>
       <c r="O48" t="n">
-        <v>874</v>
+        <v>156222.119936</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>43264</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.04177932264757801</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>5408</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.412153698600099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C49" t="n">
         <v>1012</v>
@@ -3037,48 +3184,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F49" t="n">
-        <v>37112.88306188111</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G49" t="n">
-        <v>96592</v>
+        <v>715108.1195738371</v>
       </c>
       <c r="H49" t="n">
-        <v>134021.6179849581</v>
+        <v>517149.9367322749</v>
       </c>
       <c r="I49" t="n">
-        <v>138200.613705</v>
+        <v>714791.3846507602</v>
       </c>
       <c r="J49" t="n">
-        <v>138436.6466196997</v>
+        <v>3235455.821459094</v>
       </c>
       <c r="K49" t="n">
-        <v>89600</v>
+        <v>56</v>
       </c>
       <c r="L49" t="n">
-        <v>100735.68</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>6992</v>
+        <v>156333.292032</v>
       </c>
       <c r="N49" t="n">
-        <v>55004.2752</v>
+        <v>43264</v>
       </c>
       <c r="O49" t="n">
-        <v>874</v>
+        <v>156389.292032</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>43264</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.030238619120479</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>5408</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.3827868259878446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C50" t="n">
         <v>1202</v>
@@ -3090,48 +3240,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F50" t="n">
-        <v>38289.76655243262</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G50" t="n">
-        <v>96592</v>
+        <v>717070.0385736562</v>
       </c>
       <c r="H50" t="n">
-        <v>135205.9015104746</v>
+        <v>523447.3785871094</v>
       </c>
       <c r="I50" t="n">
-        <v>138040.247967825</v>
+        <v>716745.9036156143</v>
       </c>
       <c r="J50" t="n">
-        <v>138633.5245244522</v>
+        <v>3235819.376931471</v>
       </c>
       <c r="K50" t="n">
-        <v>89600</v>
+        <v>56</v>
       </c>
       <c r="L50" t="n">
-        <v>100983.8976</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>6992</v>
+        <v>156480.9088</v>
       </c>
       <c r="N50" t="n">
-        <v>55139.86406399999</v>
+        <v>43264</v>
       </c>
       <c r="O50" t="n">
-        <v>874</v>
+        <v>156536.9088</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>43264</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0205327540270071</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>5408</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.369898996359813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51" t="n">
         <v>1328</v>
@@ -3143,48 +3296,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F51" t="n">
-        <v>39174.92870500597</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G51" t="n">
-        <v>96592</v>
+        <v>721647.3559079689</v>
       </c>
       <c r="H51" t="n">
-        <v>136095.9710546563</v>
+        <v>538893.1100175</v>
       </c>
       <c r="I51" t="n">
-        <v>138648.522236805</v>
+        <v>721318.3135583187</v>
       </c>
       <c r="J51" t="n">
-        <v>138941.3542268694</v>
+        <v>3236068.431983847</v>
       </c>
       <c r="K51" t="n">
-        <v>89600</v>
+        <v>56</v>
       </c>
       <c r="L51" t="n">
-        <v>100561.9072</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>6992</v>
+        <v>157289.9456</v>
       </c>
       <c r="N51" t="n">
-        <v>54909.351808</v>
+        <v>43264</v>
       </c>
       <c r="O51" t="n">
-        <v>874</v>
+        <v>157345.9456</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>43264</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01841022998996759</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+        <v>5408</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.3391289339077543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" t="n">
         <v>607</v>
@@ -3196,48 +3352,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F52" t="n">
-        <v>2136.980151573031</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G52" t="n">
-        <v>2892.706516046875</v>
+        <v>128624.9106043357</v>
       </c>
       <c r="H52" t="n">
-        <v>6856.051106949092</v>
+        <v>136146.9394648125</v>
       </c>
       <c r="I52" t="n">
-        <v>7488.043027237502</v>
+        <v>34084.57277085417</v>
       </c>
       <c r="J52" t="n">
-        <v>8101.497918837023</v>
+        <v>137658.9702291366</v>
       </c>
       <c r="K52" t="n">
-        <v>1993.689208984375</v>
+        <v>100800.192</v>
       </c>
       <c r="L52" t="n">
-        <v>2130.147669953125</v>
+        <v>89600</v>
       </c>
       <c r="M52" t="n">
-        <v>899.0173070624999</v>
+        <v>27523.75744</v>
       </c>
       <c r="N52" t="n">
-        <v>6555.089942613428</v>
+        <v>6992</v>
       </c>
       <c r="O52" t="n">
-        <v>112.3771633828125</v>
+        <v>128323.94944</v>
       </c>
       <c r="P52" t="n">
-        <v>1525.403274993522</v>
+        <v>96592</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.08440014540375372</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+        <v>874</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.05524934229183274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C53" t="n">
         <v>810</v>
@@ -3249,48 +3408,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F53" t="n">
-        <v>2607.791172565129</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G53" t="n">
-        <v>2892.706516046875</v>
+        <v>128565.8078054825</v>
       </c>
       <c r="H53" t="n">
-        <v>6846.02745892389</v>
+        <v>138269.962656</v>
       </c>
       <c r="I53" t="n">
-        <v>7560.950686832814</v>
+        <v>35592.26975624388</v>
       </c>
       <c r="J53" t="n">
-        <v>8237.977518487149</v>
+        <v>138039.0826623184</v>
       </c>
       <c r="K53" t="n">
-        <v>1993.689208984375</v>
+        <v>100747.5584</v>
       </c>
       <c r="L53" t="n">
-        <v>2124.467364583984</v>
+        <v>89600</v>
       </c>
       <c r="M53" t="n">
-        <v>899.0173070624999</v>
+        <v>27509.381888</v>
       </c>
       <c r="N53" t="n">
-        <v>6537.159941441373</v>
+        <v>6992</v>
       </c>
       <c r="O53" t="n">
-        <v>112.3771633828125</v>
+        <v>128256.940288</v>
       </c>
       <c r="P53" t="n">
-        <v>1036.662252829369</v>
+        <v>96592</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.09455467407742028</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>874</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.07018266776176335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" t="n">
         <v>1012</v>
@@ -3302,48 +3464,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F54" t="n">
-        <v>3074.86250295928</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G54" t="n">
-        <v>2892.706516046875</v>
+        <v>128558.5525230769</v>
       </c>
       <c r="H54" t="n">
-        <v>6838.999945774885</v>
+        <v>138200.613705</v>
       </c>
       <c r="I54" t="n">
-        <v>7585.4924291685</v>
+        <v>37112.88306188111</v>
       </c>
       <c r="J54" t="n">
-        <v>8373.628504617764</v>
+        <v>138436.6466196997</v>
       </c>
       <c r="K54" t="n">
-        <v>1993.689208984375</v>
+        <v>100735.68</v>
       </c>
       <c r="L54" t="n">
-        <v>2119.748587039062</v>
+        <v>89600</v>
       </c>
       <c r="M54" t="n">
-        <v>899.0173070624999</v>
+        <v>27506.1376</v>
       </c>
       <c r="N54" t="n">
-        <v>6522.265022697961</v>
+        <v>6992</v>
       </c>
       <c r="O54" t="n">
-        <v>112.3771633828125</v>
+        <v>128241.8176</v>
       </c>
       <c r="P54" t="n">
-        <v>554.6960036918063</v>
+        <v>96592</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.09841055018697632</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>874</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.06976858440371919</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55" t="n">
         <v>1202</v>
@@ -3355,48 +3520,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F55" t="n">
-        <v>3520.116363882793</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G55" t="n">
-        <v>2892.706516046875</v>
+        <v>128881.964590042</v>
       </c>
       <c r="H55" t="n">
-        <v>6846.960967539527</v>
+        <v>138040.247967825</v>
       </c>
       <c r="I55" t="n">
-        <v>7632.456954886312</v>
+        <v>38289.76655243262</v>
       </c>
       <c r="J55" t="n">
-        <v>8501.267515105546</v>
+        <v>138633.5245244522</v>
       </c>
       <c r="K55" t="n">
-        <v>1993.689208984375</v>
+        <v>100983.8976</v>
       </c>
       <c r="L55" t="n">
-        <v>2119.926310191406</v>
+        <v>89600</v>
       </c>
       <c r="M55" t="n">
-        <v>899.0173070624999</v>
+        <v>27573.932032</v>
       </c>
       <c r="N55" t="n">
-        <v>6522.826009497569</v>
+        <v>6992</v>
       </c>
       <c r="O55" t="n">
-        <v>112.3771633828125</v>
+        <v>128557.829632</v>
       </c>
       <c r="P55" t="n">
-        <v>110.0031295679009</v>
+        <v>96592</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.1029152200909445</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>874</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.06634502264816039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56" t="n">
         <v>1328</v>
@@ -3408,48 +3576,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F56" t="n">
-        <v>3818.610020258795</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G56" t="n">
-        <v>2892.706516046875</v>
+        <v>128349.6254536504</v>
       </c>
       <c r="H56" t="n">
-        <v>6857.600493497748</v>
+        <v>138648.522236805</v>
       </c>
       <c r="I56" t="n">
-        <v>7742.931682118501</v>
+        <v>39174.92870500597</v>
       </c>
       <c r="J56" t="n">
-        <v>8585.937540529711</v>
+        <v>138941.3542268694</v>
       </c>
       <c r="K56" t="n">
-        <v>1993.689208984375</v>
+        <v>100561.9072</v>
       </c>
       <c r="L56" t="n">
-        <v>2121.742276248047</v>
+        <v>89600</v>
       </c>
       <c r="M56" t="n">
-        <v>899.0173070624999</v>
+        <v>27458.675904</v>
       </c>
       <c r="N56" t="n">
-        <v>6528.558143847398</v>
+        <v>6992</v>
       </c>
       <c r="O56" t="n">
-        <v>112.3771633828125</v>
+        <v>128020.583104</v>
       </c>
       <c r="P56" t="n">
-        <v>-182.7583924582714</v>
+        <v>96592</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.114340565688489</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+        <v>874</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.0742806098255029</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57" t="n">
         <v>607</v>
@@ -3461,48 +3632,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F57" t="n">
-        <v>401.0726711527066</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G57" t="n">
-        <v>167.6964259047619</v>
+        <v>5712.653805595504</v>
       </c>
       <c r="H57" t="n">
-        <v>869.7302613931328</v>
+        <v>7488.043027237502</v>
       </c>
       <c r="I57" t="n">
-        <v>1848.133102333333</v>
+        <v>2136.980151573031</v>
       </c>
       <c r="J57" t="n">
-        <v>5230.990207455715</v>
+        <v>8101.497918837023</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>2130.147669953125</v>
       </c>
       <c r="L57" t="n">
-        <v>56</v>
+        <v>1993.689208984375</v>
       </c>
       <c r="M57" t="n">
-        <v>167.6964259047619</v>
+        <v>3281.544971306714</v>
       </c>
       <c r="N57" t="n">
-        <v>430.5534045663757</v>
+        <v>899.0173070624999</v>
       </c>
       <c r="O57" t="n">
-        <v>20.96205323809524</v>
+        <v>5411.69264125984</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>2892.706516046875</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.5294006366234837</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>112.3771633828125</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.2370965571624094</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58" t="n">
         <v>810</v>
@@ -3514,48 +3688,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F58" t="n">
-        <v>410.0775857971439</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G58" t="n">
-        <v>167.6964259047619</v>
+        <v>5705.914852787188</v>
       </c>
       <c r="H58" t="n">
-        <v>886.6415291844233</v>
+        <v>7560.950686832814</v>
       </c>
       <c r="I58" t="n">
-        <v>2080.11691008</v>
+        <v>2607.791172565129</v>
       </c>
       <c r="J58" t="n">
-        <v>5231.217941819836</v>
+        <v>8237.977518487149</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2124.467364583984</v>
       </c>
       <c r="L58" t="n">
-        <v>56</v>
+        <v>1993.689208984375</v>
       </c>
       <c r="M58" t="n">
-        <v>167.6964259047619</v>
+        <v>3272.579970720687</v>
       </c>
       <c r="N58" t="n">
-        <v>439.8035394192823</v>
+        <v>899.0173070624999</v>
       </c>
       <c r="O58" t="n">
-        <v>20.96205323809524</v>
+        <v>5397.047335304671</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>2892.706516046875</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.5737539919569601</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>112.3771633828125</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.2453442577368106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59" t="n">
         <v>1012</v>
@@ -3567,48 +3744,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F59" t="n">
-        <v>406.7828273020742</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G59" t="n">
-        <v>167.6964259047619</v>
+        <v>5701.616021464966</v>
       </c>
       <c r="H59" t="n">
-        <v>891.2141762837592</v>
+        <v>7585.4924291685</v>
       </c>
       <c r="I59" t="n">
-        <v>2131.452173781333</v>
+        <v>3074.86250295928</v>
       </c>
       <c r="J59" t="n">
-        <v>5231.679105384359</v>
+        <v>8373.628504617764</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>2119.748587039062</v>
       </c>
       <c r="L59" t="n">
-        <v>56</v>
+        <v>1993.689208984375</v>
       </c>
       <c r="M59" t="n">
-        <v>167.6964259047619</v>
+        <v>3265.132511348981</v>
       </c>
       <c r="N59" t="n">
-        <v>435.9465216234728</v>
+        <v>899.0173070624999</v>
       </c>
       <c r="O59" t="n">
-        <v>20.96205323809524</v>
+        <v>5384.881098388043</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>2892.706516046875</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.5818746546385379</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+        <v>112.3771633828125</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.2483525526252538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60" t="n">
         <v>1202</v>
@@ -3620,48 +3800,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F60" t="n">
-        <v>406.6569295875678</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G60" t="n">
-        <v>167.6964259047619</v>
+        <v>5709.474272982149</v>
       </c>
       <c r="H60" t="n">
-        <v>898.4883135342877</v>
+        <v>7632.456954886312</v>
       </c>
       <c r="I60" t="n">
-        <v>2145.06516</v>
+        <v>3520.116363882793</v>
       </c>
       <c r="J60" t="n">
-        <v>5231.926000195027</v>
+        <v>8501.267515105546</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>2119.926310191406</v>
       </c>
       <c r="L60" t="n">
-        <v>56</v>
+        <v>1993.689208984375</v>
       </c>
       <c r="M60" t="n">
-        <v>167.6964259047619</v>
+        <v>3265.413004748784</v>
       </c>
       <c r="N60" t="n">
-        <v>435.5252682016001</v>
+        <v>899.0173070624999</v>
       </c>
       <c r="O60" t="n">
-        <v>20.96205323809524</v>
+        <v>5385.339314940191</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>2892.706516046875</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.5811370534150637</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>112.3771633828125</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.2519480546396093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" t="n">
         <v>1328</v>
@@ -3673,48 +3856,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F61" t="n">
-        <v>407.1121842627503</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G61" t="n">
-        <v>167.6964259047619</v>
+        <v>5719.063697822095</v>
       </c>
       <c r="H61" t="n">
-        <v>903.8509598178618</v>
+        <v>7742.931682118501</v>
       </c>
       <c r="I61" t="n">
-        <v>2155.900021205334</v>
+        <v>3818.610020258795</v>
       </c>
       <c r="J61" t="n">
-        <v>5232.061972345255</v>
+        <v>8585.937540529711</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>2121.742276248047</v>
       </c>
       <c r="L61" t="n">
-        <v>56</v>
+        <v>1993.689208984375</v>
       </c>
       <c r="M61" t="n">
-        <v>167.6964259047619</v>
+        <v>3268.279071923699</v>
       </c>
       <c r="N61" t="n">
-        <v>435.8284633396359</v>
+        <v>899.0173070624999</v>
       </c>
       <c r="O61" t="n">
-        <v>20.96205323809524</v>
+        <v>5390.021348171746</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>2892.706516046875</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.5807546959842176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>112.3771633828125</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.261382647734103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62" t="n">
         <v>607</v>
@@ -3726,48 +3912,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F62" t="n">
-        <v>9030.590113809867</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G62" t="n">
-        <v>35792</v>
+        <v>702.0338354883709</v>
       </c>
       <c r="H62" t="n">
-        <v>104716.2295163357</v>
+        <v>1848.133102333333</v>
       </c>
       <c r="I62" t="n">
-        <v>88600.52463135999</v>
+        <v>401.0726711527066</v>
       </c>
       <c r="J62" t="n">
-        <v>77417.99005764075</v>
+        <v>5230.990207455715</v>
       </c>
       <c r="K62" t="n">
+        <v>56</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
+        <v>219.2767022831878</v>
+      </c>
+      <c r="N62" t="n">
+        <v>167.6964259047619</v>
+      </c>
+      <c r="O62" t="n">
+        <v>275.2767022831878</v>
+      </c>
+      <c r="P62" t="n">
+        <v>167.6964259047619</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>20.96205323809524</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.6201389204045811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="M62" t="n">
-        <v>35792</v>
-      </c>
-      <c r="N62" t="n">
-        <v>104415.268352</v>
-      </c>
-      <c r="O62" t="n">
-        <v>4474</v>
-      </c>
-      <c r="P62" t="n">
-        <v>59592.67823819013</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.1818917546146397</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63" t="n">
         <v>810</v>
@@ -3779,48 +3968,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F63" t="n">
-        <v>12163.60250606736</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G63" t="n">
-        <v>35792</v>
+        <v>718.9451032796615</v>
       </c>
       <c r="H63" t="n">
-        <v>105754.0864614825</v>
+        <v>2080.11691008</v>
       </c>
       <c r="I63" t="n">
-        <v>89819.66965859999</v>
+        <v>410.0775857971439</v>
       </c>
       <c r="J63" t="n">
-        <v>79562.39017655457</v>
+        <v>5231.217941819836</v>
       </c>
       <c r="K63" t="n">
+        <v>56</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
-      <c r="L63" t="n">
-        <v>56</v>
-      </c>
       <c r="M63" t="n">
-        <v>35792</v>
+        <v>223.9017697096411</v>
       </c>
       <c r="N63" t="n">
-        <v>105445.218944</v>
+        <v>167.6964259047619</v>
       </c>
       <c r="O63" t="n">
-        <v>4474</v>
+        <v>279.9017697096411</v>
       </c>
       <c r="P63" t="n">
-        <v>57489.61643793264</v>
+        <v>167.6964259047619</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.1774045358154671</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+        <v>20.96205323809524</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.6543727423224441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C64" t="n">
         <v>1012</v>
@@ -3832,48 +4024,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F64" t="n">
-        <v>15002.77762030513</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G64" t="n">
-        <v>35792</v>
+        <v>723.5177503789973</v>
       </c>
       <c r="H64" t="n">
-        <v>104452.5393390769</v>
+        <v>2131.452173781333</v>
       </c>
       <c r="I64" t="n">
-        <v>88550.48813482666</v>
+        <v>406.7828273020742</v>
       </c>
       <c r="J64" t="n">
-        <v>81697.00556776155</v>
+        <v>5231.679105384359</v>
       </c>
       <c r="K64" t="n">
+        <v>56</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
-      <c r="L64" t="n">
-        <v>56</v>
-      </c>
       <c r="M64" t="n">
-        <v>35792</v>
+        <v>221.9732608117364</v>
       </c>
       <c r="N64" t="n">
-        <v>104135.804416</v>
+        <v>167.6964259047619</v>
       </c>
       <c r="O64" t="n">
-        <v>4474</v>
+        <v>277.9732608117364</v>
       </c>
       <c r="P64" t="n">
-        <v>53341.02679569487</v>
+        <v>167.6964259047619</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.1795817452755072</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+        <v>20.96205323809524</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.66055173121927</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="n">
         <v>1202</v>
@@ -3885,48 +4080,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F65" t="n">
-        <v>17904.44548912403</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G65" t="n">
-        <v>35792</v>
+        <v>730.7918876295258</v>
       </c>
       <c r="H65" t="n">
-        <v>105000.828078042</v>
+        <v>2145.06516</v>
       </c>
       <c r="I65" t="n">
-        <v>90461.33463768335</v>
+        <v>406.6569295875678</v>
       </c>
       <c r="J65" t="n">
-        <v>83701.06526679116</v>
+        <v>5231.926000195027</v>
       </c>
       <c r="K65" t="n">
+        <v>56</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
-      <c r="L65" t="n">
-        <v>56</v>
-      </c>
       <c r="M65" t="n">
-        <v>35792</v>
+        <v>221.7626341008</v>
       </c>
       <c r="N65" t="n">
-        <v>104676.69312</v>
+        <v>167.6964259047619</v>
       </c>
       <c r="O65" t="n">
-        <v>4474</v>
+        <v>277.7626341008</v>
       </c>
       <c r="P65" t="n">
-        <v>50980.24763087597</v>
+        <v>167.6964259047619</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.1607260549337718</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>20.96205323809524</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.6593148304970252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="n">
         <v>1328</v>
@@ -3938,48 +4136,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F66" t="n">
-        <v>19625.95722438425</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G66" t="n">
-        <v>35792</v>
+        <v>736.1545339131</v>
       </c>
       <c r="H66" t="n">
-        <v>104212.2984136504</v>
+        <v>2155.900021205334</v>
       </c>
       <c r="I66" t="n">
-        <v>90320.44837073066</v>
+        <v>407.1121842627503</v>
       </c>
       <c r="J66" t="n">
-        <v>85029.34347610762</v>
+        <v>5232.061972345255</v>
       </c>
       <c r="K66" t="n">
+        <v>56</v>
+      </c>
+      <c r="L66" t="n">
         <v>0</v>
       </c>
-      <c r="L66" t="n">
-        <v>56</v>
-      </c>
       <c r="M66" t="n">
-        <v>35792</v>
+        <v>221.914231669818</v>
       </c>
       <c r="N66" t="n">
-        <v>103883.256064</v>
+        <v>167.6964259047619</v>
       </c>
       <c r="O66" t="n">
-        <v>4474</v>
+        <v>277.9142316698179</v>
       </c>
       <c r="P66" t="n">
-        <v>48465.29883961575</v>
+        <v>167.6964259047619</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.1538062564293192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>20.96205323809524</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.6585395766629633</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
         <v>607</v>
@@ -3991,48 +4192,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F67" t="n">
-        <v>111.793705427409</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G67" t="n">
-        <v>790.0543823242188</v>
+        <v>52568.59534033566</v>
       </c>
       <c r="H67" t="n">
-        <v>1091.015546659883</v>
+        <v>88600.52463135999</v>
       </c>
       <c r="I67" t="n">
-        <v>945.0319198135156</v>
+        <v>9030.590113809867</v>
       </c>
       <c r="J67" t="n">
-        <v>775.0367243653934</v>
+        <v>77417.99005764075</v>
       </c>
       <c r="K67" t="n">
-        <v>106.1079559326172</v>
+        <v>56</v>
       </c>
       <c r="L67" t="n">
-        <v>117.3307623277588</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>683.9464263916016</v>
+        <v>52211.634176</v>
       </c>
       <c r="N67" t="n">
-        <v>2775.263655894653</v>
+        <v>35792</v>
       </c>
       <c r="O67" t="n">
-        <v>85.4933032989502</v>
+        <v>52267.634176</v>
       </c>
       <c r="P67" t="n">
-        <v>-111.793705427409</v>
+        <v>35792</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.1544748106235126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>4474</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.4066785094212738</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="n">
         <v>810</v>
@@ -4044,48 +4248,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F68" t="n">
-        <v>134.5785836395009</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G68" t="n">
-        <v>790.0543823242188</v>
+        <v>53091.47698948251</v>
       </c>
       <c r="H68" t="n">
-        <v>1098.921899806736</v>
+        <v>89819.66965859999</v>
       </c>
       <c r="I68" t="n">
-        <v>941.6635477101562</v>
+        <v>12163.60250606736</v>
       </c>
       <c r="J68" t="n">
-        <v>786.8053740208676</v>
+        <v>79562.39017655457</v>
       </c>
       <c r="K68" t="n">
-        <v>106.1079559326172</v>
+        <v>56</v>
       </c>
       <c r="L68" t="n">
-        <v>117.2759499893799</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>683.9464263916016</v>
+        <v>52726.609472</v>
       </c>
       <c r="N68" t="n">
-        <v>2772.790505616821</v>
+        <v>35792</v>
       </c>
       <c r="O68" t="n">
-        <v>85.4933032989502</v>
+        <v>52782.609472</v>
       </c>
       <c r="P68" t="n">
-        <v>-134.5785836395009</v>
+        <v>35792</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.167000573059226</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>4474</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.4089103512484456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
         <v>1012</v>
@@ -4097,48 +4304,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F69" t="n">
-        <v>156.7721578924059</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G69" t="n">
-        <v>790.0543823242188</v>
+        <v>52444.63713107692</v>
       </c>
       <c r="H69" t="n">
-        <v>1106.789305401142</v>
+        <v>88550.48813482666</v>
       </c>
       <c r="I69" t="n">
-        <v>938.981714650547</v>
+        <v>15002.77762030513</v>
       </c>
       <c r="J69" t="n">
-        <v>798.5198461753938</v>
+        <v>81697.00556776155</v>
       </c>
       <c r="K69" t="n">
-        <v>106.1079559326172</v>
+        <v>56</v>
       </c>
       <c r="L69" t="n">
-        <v>117.0495459279785</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>683.9464263916016</v>
+        <v>52071.902208</v>
       </c>
       <c r="N69" t="n">
-        <v>2762.575081792237</v>
+        <v>35792</v>
       </c>
       <c r="O69" t="n">
-        <v>85.4933032989502</v>
+        <v>52127.902208</v>
       </c>
       <c r="P69" t="n">
-        <v>-156.7721578924059</v>
+        <v>35792</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.1787123094436895</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>4474</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.4077431052528485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
         <v>1202</v>
@@ -4150,48 +4360,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F70" t="n">
-        <v>178.0368577063773</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G70" t="n">
-        <v>790.0543823242188</v>
+        <v>52722.48151804195</v>
       </c>
       <c r="H70" t="n">
-        <v>1114.189340366177</v>
+        <v>90461.33463768335</v>
       </c>
       <c r="I70" t="n">
-        <v>936.2044916761522</v>
+        <v>17904.44548912403</v>
       </c>
       <c r="J70" t="n">
-        <v>809.5292397474204</v>
+        <v>83701.06526679116</v>
       </c>
       <c r="K70" t="n">
-        <v>106.1079559326172</v>
+        <v>56</v>
       </c>
       <c r="L70" t="n">
-        <v>117.0256564796142</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>683.9464263916016</v>
+        <v>52342.34656</v>
       </c>
       <c r="N70" t="n">
-        <v>2761.497182224243</v>
+        <v>35792</v>
       </c>
       <c r="O70" t="n">
-        <v>85.4933032989502</v>
+        <v>52398.34656</v>
       </c>
       <c r="P70" t="n">
-        <v>-178.0368577063773</v>
+        <v>35792</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.1901132180762836</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>4474</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.4171821394277835</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
         <v>1328</v>
@@ -4203,48 +4416,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F71" t="n">
-        <v>192.1868803187698</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G71" t="n">
-        <v>790.0543823242188</v>
+        <v>52330.67038165035</v>
       </c>
       <c r="H71" t="n">
-        <v>1119.096731974568</v>
+        <v>90320.44837073066</v>
       </c>
       <c r="I71" t="n">
-        <v>944.0466862837501</v>
+        <v>19625.95722438425</v>
       </c>
       <c r="J71" t="n">
-        <v>816.8336617078775</v>
+        <v>85029.34347610762</v>
       </c>
       <c r="K71" t="n">
-        <v>106.1079559326172</v>
+        <v>56</v>
       </c>
       <c r="L71" t="n">
-        <v>117.0271116744385</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>683.9464263916016</v>
+        <v>51945.628032</v>
       </c>
       <c r="N71" t="n">
-        <v>2761.562841081176</v>
+        <v>35792</v>
       </c>
       <c r="O71" t="n">
-        <v>85.4933032989502</v>
+        <v>52001.628032</v>
       </c>
       <c r="P71" t="n">
-        <v>-192.1868803187698</v>
+        <v>35792</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.1854252000818991</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+        <v>4474</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.4206110429517234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C72" t="n">
         <v>607</v>
@@ -4256,48 +4472,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F72" t="n">
-        <v>12216.9795697446</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G72" t="n">
-        <v>3208</v>
+        <v>1809.92375461075</v>
       </c>
       <c r="H72" t="n">
-        <v>15725.94073408026</v>
+        <v>945.0319198135156</v>
       </c>
       <c r="I72" t="n">
-        <v>18741.771898717</v>
+        <v>111.793705427409</v>
       </c>
       <c r="J72" t="n">
-        <v>147241.0725347086</v>
+        <v>775.0367243653934</v>
       </c>
       <c r="K72" t="n">
-        <v>1974</v>
+        <v>117.3307623277588</v>
       </c>
       <c r="L72" t="n">
-        <v>694.226912</v>
+        <v>106.1079559326172</v>
       </c>
       <c r="M72" t="n">
-        <v>1234</v>
+        <v>1391.631827947327</v>
       </c>
       <c r="N72" t="n">
-        <v>2800.808544</v>
+        <v>683.9464263916016</v>
       </c>
       <c r="O72" t="n">
-        <v>154.25</v>
+        <v>1508.962590275085</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>790.0543823242188</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.1609149434180869</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+        <v>85.4933032989502</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.91519854161953</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73" t="n">
         <v>810</v>
@@ -4309,48 +4528,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F73" t="n">
-        <v>15142.92027923502</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G73" t="n">
-        <v>3208</v>
+        <v>1816.538720280308</v>
       </c>
       <c r="H73" t="n">
-        <v>18659.78779671754</v>
+        <v>941.6635477101562</v>
       </c>
       <c r="I73" t="n">
-        <v>21139.45800623999</v>
+        <v>134.5785836395009</v>
       </c>
       <c r="J73" t="n">
-        <v>149873.083662404</v>
+        <v>786.8053740208676</v>
       </c>
       <c r="K73" t="n">
-        <v>1974</v>
+        <v>117.2759499893799</v>
       </c>
       <c r="L73" t="n">
-        <v>695.720384</v>
+        <v>106.1079559326172</v>
       </c>
       <c r="M73" t="n">
-        <v>1234</v>
+        <v>1390.395252808411</v>
       </c>
       <c r="N73" t="n">
-        <v>2807.343808</v>
+        <v>683.9464263916016</v>
       </c>
       <c r="O73" t="n">
-        <v>154.25</v>
+        <v>1507.67120279779</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>790.0543823242188</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.1173005575067485</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+        <v>85.4933032989502</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.9290740569682092</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C74" t="n">
         <v>1012</v>
@@ -4362,48 +4584,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F74" t="n">
-        <v>18103.53685632617</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G74" t="n">
-        <v>3208</v>
+        <v>1819.07200990102</v>
       </c>
       <c r="H74" t="n">
-        <v>21628.27177940309</v>
+        <v>938.981714650547</v>
       </c>
       <c r="I74" t="n">
-        <v>23660.912407748</v>
+        <v>156.7721578924059</v>
       </c>
       <c r="J74" t="n">
-        <v>152553.27112851</v>
+        <v>798.5198461753938</v>
       </c>
       <c r="K74" t="n">
-        <v>1974</v>
+        <v>117.0495459279785</v>
       </c>
       <c r="L74" t="n">
-        <v>697.671824</v>
+        <v>106.1079559326172</v>
       </c>
       <c r="M74" t="n">
-        <v>1234</v>
+        <v>1385.287540896118</v>
       </c>
       <c r="N74" t="n">
-        <v>2815.883088</v>
+        <v>683.9464263916016</v>
       </c>
       <c r="O74" t="n">
-        <v>154.25</v>
+        <v>1502.337086824097</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>790.0543823242188</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.08590711099033098</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+        <v>85.4933032989502</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.9372816121110608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C75" t="n">
         <v>1202</v>
@@ -4415,48 +4640,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F75" t="n">
-        <v>20871.16245857659</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G75" t="n">
-        <v>3208</v>
+        <v>1825.909205633694</v>
       </c>
       <c r="H75" t="n">
-        <v>24403.29741661855</v>
+        <v>936.2044916761522</v>
       </c>
       <c r="I75" t="n">
-        <v>26029.975323828</v>
+        <v>178.0368577063773</v>
       </c>
       <c r="J75" t="n">
-        <v>155049.3423613347</v>
+        <v>809.5292397474204</v>
       </c>
       <c r="K75" t="n">
-        <v>1974</v>
+        <v>117.0256564796142</v>
       </c>
       <c r="L75" t="n">
-        <v>698.7772639999999</v>
+        <v>106.1079559326172</v>
       </c>
       <c r="M75" t="n">
-        <v>1234</v>
+        <v>1384.748591112121</v>
       </c>
       <c r="N75" t="n">
-        <v>2820.720368</v>
+        <v>683.9464263916016</v>
       </c>
       <c r="O75" t="n">
-        <v>154.25</v>
+        <v>1501.774247591736</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>790.0543823242188</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.06249248748693111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+        <v>85.4933032989502</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.9503316015549564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" t="n">
         <v>1328</v>
@@ -4468,48 +4696,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F76" t="n">
-        <v>22684.40707954689</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G76" t="n">
-        <v>3208</v>
+        <v>1830.850881865376</v>
       </c>
       <c r="H76" t="n">
-        <v>26221.44942919724</v>
+        <v>944.0466862837501</v>
       </c>
       <c r="I76" t="n">
-        <v>27804.323617728</v>
+        <v>192.1868803187698</v>
       </c>
       <c r="J76" t="n">
-        <v>156697.8750058605</v>
+        <v>816.8336617078775</v>
       </c>
       <c r="K76" t="n">
-        <v>1974</v>
+        <v>117.0271116744385</v>
       </c>
       <c r="L76" t="n">
-        <v>698.8517119999999</v>
+        <v>106.1079559326172</v>
       </c>
       <c r="M76" t="n">
-        <v>1234</v>
+        <v>1384.781420540588</v>
       </c>
       <c r="N76" t="n">
-        <v>2821.046144</v>
+        <v>683.9464263916016</v>
       </c>
       <c r="O76" t="n">
-        <v>154.25</v>
+        <v>1501.808532215027</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>790.0543823242188</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.05692906651113481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+        <v>85.4933032989502</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.9393647670885223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" t="n">
         <v>607</v>
@@ -4521,48 +4752,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F77" t="n">
-        <v>2875.322190093932</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G77" t="n">
-        <v>2016</v>
+        <v>12517.94073408026</v>
       </c>
       <c r="H77" t="n">
-        <v>4891.322190093933</v>
+        <v>18741.771898717</v>
       </c>
       <c r="I77" t="n">
-        <v>5561.980353911154</v>
+        <v>12216.9795697446</v>
       </c>
       <c r="J77" t="n">
-        <v>9678.384205016619</v>
+        <v>147241.0725347086</v>
       </c>
       <c r="K77" t="n">
-        <v>1512</v>
+        <v>694.226912</v>
       </c>
       <c r="L77" t="n">
-        <v>1660.451456</v>
+        <v>1974</v>
       </c>
       <c r="M77" t="n">
-        <v>504</v>
+        <v>1404.404272</v>
       </c>
       <c r="N77" t="n">
-        <v>3751.720064</v>
+        <v>1234</v>
       </c>
       <c r="O77" t="n">
-        <v>63</v>
+        <v>2098.631184</v>
       </c>
       <c r="P77" t="n">
-        <v>-300.9611643356643</v>
+        <v>3208</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.1205790242221222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>154.25</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.3320833909553024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C78" t="n">
         <v>810</v>
@@ -4574,48 +4808,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F78" t="n">
-        <v>3820.303625219125</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G78" t="n">
-        <v>2016</v>
+        <v>15451.78779671754</v>
       </c>
       <c r="H78" t="n">
-        <v>5836.303625219125</v>
+        <v>21139.45800623999</v>
       </c>
       <c r="I78" t="n">
-        <v>5586.401611592307</v>
+        <v>15142.92027923502</v>
       </c>
       <c r="J78" t="n">
-        <v>9946.155201324496</v>
+        <v>149873.083662404</v>
       </c>
       <c r="K78" t="n">
-        <v>1512</v>
+        <v>695.720384</v>
       </c>
       <c r="L78" t="n">
-        <v>1654.323968</v>
+        <v>1974</v>
       </c>
       <c r="M78" t="n">
-        <v>504</v>
+        <v>1407.671904</v>
       </c>
       <c r="N78" t="n">
-        <v>3737.422592</v>
+        <v>1234</v>
       </c>
       <c r="O78" t="n">
-        <v>63</v>
+        <v>2103.392288</v>
       </c>
       <c r="P78" t="n">
-        <v>-308.8675174825175</v>
+        <v>3208</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.04473398638369431</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>154.25</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.2690546847437409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C79" t="n">
         <v>1012</v>
@@ -4627,48 +4864,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F79" t="n">
-        <v>4741.714027911882</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G79" t="n">
-        <v>2016</v>
+        <v>18420.27177940309</v>
       </c>
       <c r="H79" t="n">
-        <v>6757.714027911882</v>
+        <v>23660.912407748</v>
       </c>
       <c r="I79" t="n">
-        <v>6435.542017993846</v>
+        <v>18103.53685632617</v>
       </c>
       <c r="J79" t="n">
-        <v>10211.16216987004</v>
+        <v>152553.27112851</v>
       </c>
       <c r="K79" t="n">
-        <v>1512</v>
+        <v>697.671824</v>
       </c>
       <c r="L79" t="n">
-        <v>1645.383296</v>
+        <v>1974</v>
       </c>
       <c r="M79" t="n">
-        <v>504</v>
+        <v>1411.941544</v>
       </c>
       <c r="N79" t="n">
-        <v>3716.561024</v>
+        <v>1234</v>
       </c>
       <c r="O79" t="n">
-        <v>63</v>
+        <v>2109.613368</v>
       </c>
       <c r="P79" t="n">
-        <v>-316.7349230769231</v>
+        <v>3208</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.05006136375417022</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>154.25</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.22148937192417</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80" t="n">
         <v>1202</v>
@@ -4680,48 +4920,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F80" t="n">
-        <v>5646.983250085508</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G80" t="n">
-        <v>2016</v>
+        <v>21195.29741661855</v>
       </c>
       <c r="H80" t="n">
-        <v>7662.983250085508</v>
+        <v>26029.975323828</v>
       </c>
       <c r="I80" t="n">
-        <v>7643.368883809616</v>
+        <v>20871.16245857659</v>
       </c>
       <c r="J80" t="n">
-        <v>10461.11767024838</v>
+        <v>155049.3423613347</v>
       </c>
       <c r="K80" t="n">
-        <v>1512</v>
+        <v>698.7772639999999</v>
       </c>
       <c r="L80" t="n">
-        <v>1650.57248</v>
+        <v>1974</v>
       </c>
       <c r="M80" t="n">
-        <v>504</v>
+        <v>1414.360184</v>
       </c>
       <c r="N80" t="n">
-        <v>3728.66912</v>
+        <v>1234</v>
       </c>
       <c r="O80" t="n">
-        <v>63</v>
+        <v>2113.137448</v>
       </c>
       <c r="P80" t="n">
-        <v>-324.134958041958</v>
+        <v>3208</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.002566193856931326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+        <v>154.25</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.1857350169204253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C81" t="n">
         <v>1328</v>
@@ -4733,48 +4976,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F81" t="n">
-        <v>6251.810659996368</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G81" t="n">
-        <v>2016</v>
+        <v>23013.44942919724</v>
       </c>
       <c r="H81" t="n">
-        <v>8267.810659996368</v>
+        <v>27804.323617728</v>
       </c>
       <c r="I81" t="n">
-        <v>8460.397322763078</v>
+        <v>22684.40707954689</v>
       </c>
       <c r="J81" t="n">
-        <v>10627.34207274158</v>
+        <v>156697.8750058605</v>
       </c>
       <c r="K81" t="n">
-        <v>1512</v>
+        <v>698.8517119999999</v>
       </c>
       <c r="L81" t="n">
-        <v>1654.182272</v>
+        <v>1974</v>
       </c>
       <c r="M81" t="n">
-        <v>504</v>
+        <v>1414.523072</v>
       </c>
       <c r="N81" t="n">
-        <v>3737.091968</v>
+        <v>1234</v>
       </c>
       <c r="O81" t="n">
-        <v>63</v>
+        <v>2113.374784</v>
       </c>
       <c r="P81" t="n">
-        <v>-329.0423496503496</v>
+        <v>3208</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.02276331186580873</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+        <v>154.25</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.17230680574715</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C82" t="n">
         <v>607</v>
@@ -4786,48 +5032,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F82" t="n">
-        <v>280308.1549741081</v>
+        <v>0.848951048951049</v>
       </c>
       <c r="G82" t="n">
-        <v>288480</v>
+        <v>3841.272652335665</v>
       </c>
       <c r="H82" t="n">
-        <v>568788.1549741081</v>
+        <v>5561.980353911154</v>
       </c>
       <c r="I82" t="n">
-        <v>581227.4558619648</v>
+        <v>2875.322190093932</v>
       </c>
       <c r="J82" t="n">
-        <v>1891199.508790808</v>
+        <v>9678.384205016619</v>
       </c>
       <c r="K82" t="n">
-        <v>87864</v>
+        <v>1660.451456</v>
       </c>
       <c r="L82" t="n">
-        <v>46584.356096</v>
+        <v>1512</v>
       </c>
       <c r="M82" t="n">
-        <v>200616</v>
+        <v>1879.860032</v>
       </c>
       <c r="N82" t="n">
-        <v>743661.018368</v>
+        <v>504</v>
       </c>
       <c r="O82" t="n">
-        <v>25077</v>
+        <v>3540.311488</v>
       </c>
       <c r="P82" t="n">
-        <v>-300.9611643356643</v>
+        <v>2016</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.02140177784514527</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.3093696115566998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C83" t="n">
         <v>810</v>
@@ -4839,48 +5088,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F83" t="n">
-        <v>401214.36620923</v>
+        <v>1.132867132867133</v>
       </c>
       <c r="G83" t="n">
-        <v>288480</v>
+        <v>4129.171142701643</v>
       </c>
       <c r="H83" t="n">
-        <v>689694.3662092299</v>
+        <v>5586.401611592307</v>
       </c>
       <c r="I83" t="n">
-        <v>714574.1974081534</v>
+        <v>3820.303625219125</v>
       </c>
       <c r="J83" t="n">
-        <v>1943690.032212679</v>
+        <v>9946.155201324496</v>
       </c>
       <c r="K83" t="n">
-        <v>87864</v>
+        <v>1654.323968</v>
       </c>
       <c r="L83" t="n">
-        <v>49980.425216</v>
+        <v>1512</v>
       </c>
       <c r="M83" t="n">
-        <v>200616</v>
+        <v>1872.711296</v>
       </c>
       <c r="N83" t="n">
-        <v>797939.683328</v>
+        <v>504</v>
       </c>
       <c r="O83" t="n">
-        <v>25077</v>
+        <v>3527.035264</v>
       </c>
       <c r="P83" t="n">
-        <v>-308.8675174825175</v>
+        <v>2016</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.034817701631497</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.2608531520302397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C84" t="n">
         <v>1012</v>
@@ -4892,48 +5144,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F84" t="n">
-        <v>535686.8055629759</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="G84" t="n">
-        <v>288480</v>
+        <v>5058.448950988805</v>
       </c>
       <c r="H84" t="n">
-        <v>824166.8055629759</v>
+        <v>6435.542017993846</v>
       </c>
       <c r="I84" t="n">
-        <v>896104.7968739326</v>
+        <v>4741.714027911882</v>
       </c>
       <c r="J84" t="n">
-        <v>1995964.722308634</v>
+        <v>10211.16216987004</v>
       </c>
       <c r="K84" t="n">
-        <v>87864</v>
+        <v>1645.383296</v>
       </c>
       <c r="L84" t="n">
-        <v>53416.05823999999</v>
+        <v>1512</v>
       </c>
       <c r="M84" t="n">
-        <v>200616</v>
+        <v>1862.280512</v>
       </c>
       <c r="N84" t="n">
-        <v>852850.6899199999</v>
+        <v>504</v>
       </c>
       <c r="O84" t="n">
-        <v>25077</v>
+        <v>3507.663808</v>
       </c>
       <c r="P84" t="n">
-        <v>-316.7349230769231</v>
+        <v>2016</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.08027854728812166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.2139824529394219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C85" t="n">
         <v>1202</v>
@@ -4945,48 +5200,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F85" t="n">
-        <v>648251.497916215</v>
+        <v>1.681118881118881</v>
       </c>
       <c r="G85" t="n">
-        <v>288480</v>
+        <v>5971.118208127466</v>
       </c>
       <c r="H85" t="n">
-        <v>936731.497916215</v>
+        <v>7643.368883809616</v>
       </c>
       <c r="I85" t="n">
-        <v>1042128.551097446</v>
+        <v>5646.983250085508</v>
       </c>
       <c r="J85" t="n">
-        <v>2045130.898361414</v>
+        <v>10461.11767024838</v>
       </c>
       <c r="K85" t="n">
-        <v>87864</v>
+        <v>1650.57248</v>
       </c>
       <c r="L85" t="n">
-        <v>54426.44403200001</v>
+        <v>1512</v>
       </c>
       <c r="M85" t="n">
-        <v>200616</v>
+        <v>1868.33456</v>
       </c>
       <c r="N85" t="n">
-        <v>868999.4754560001</v>
+        <v>504</v>
       </c>
       <c r="O85" t="n">
-        <v>25077</v>
+        <v>3518.90704</v>
       </c>
       <c r="P85" t="n">
-        <v>-324.134958041958</v>
+        <v>2016</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.101136326291262</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.2187845047259664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C86" t="n">
         <v>1328</v>
@@ -4998,48 +5256,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F86" t="n">
-        <v>721057.2119878692</v>
+        <v>1.857342657342657</v>
       </c>
       <c r="G86" t="n">
-        <v>288480</v>
+        <v>6580.853009646718</v>
       </c>
       <c r="H86" t="n">
-        <v>1009537.211987869</v>
+        <v>8460.397322763078</v>
       </c>
       <c r="I86" t="n">
-        <v>1138350.603208089</v>
+        <v>6251.810659996368</v>
       </c>
       <c r="J86" t="n">
-        <v>2077824.477503155</v>
+        <v>10627.34207274158</v>
       </c>
       <c r="K86" t="n">
-        <v>87864</v>
+        <v>1654.182272</v>
       </c>
       <c r="L86" t="n">
-        <v>54789.24703999999</v>
+        <v>1512</v>
       </c>
       <c r="M86" t="n">
-        <v>200616</v>
+        <v>1872.545984</v>
       </c>
       <c r="N86" t="n">
-        <v>874798.0803199998</v>
+        <v>504</v>
       </c>
       <c r="O86" t="n">
-        <v>25077</v>
+        <v>3526.728256</v>
       </c>
       <c r="P86" t="n">
-        <v>-329.0423496503496</v>
+        <v>2016</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.1131579241555278</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+        <v>63</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.2221579249073045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C87" t="n">
         <v>607</v>
@@ -5051,48 +5312,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F87" t="n">
+        <v>0.848951048951049</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3658.433396925234</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3758.065788422969</v>
+      </c>
+      <c r="I87" t="n">
         <v>3357.47223258957</v>
-      </c>
-      <c r="G87" t="n">
-        <v>80</v>
-      </c>
-      <c r="H87" t="n">
-        <v>3658.433396925234</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3758.065788422969</v>
       </c>
       <c r="J87" t="n">
         <v>13879.27536271719</v>
       </c>
       <c r="K87" t="n">
+        <v>56</v>
+      </c>
+      <c r="L87" t="n">
         <v>0</v>
       </c>
-      <c r="L87" t="n">
-        <v>56</v>
-      </c>
       <c r="M87" t="n">
+        <v>269.1024</v>
+      </c>
+      <c r="N87" t="n">
         <v>80</v>
       </c>
-      <c r="N87" t="n">
-        <v>530.2048</v>
-      </c>
       <c r="O87" t="n">
+        <v>325.1024</v>
+      </c>
+      <c r="P87" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q87" t="n">
         <v>10</v>
       </c>
-      <c r="P87" t="n">
-        <v>-80</v>
-      </c>
-      <c r="Q87" t="n">
+      <c r="R87" t="n">
         <v>0.0265116145131522</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:18">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C88" t="n">
         <v>810</v>
@@ -5104,48 +5368,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F88" t="n">
+        <v>1.132867132867133</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4545.688103273894</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4961.782856854687</v>
+      </c>
+      <c r="I88" t="n">
         <v>4236.820585791376</v>
-      </c>
-      <c r="G88" t="n">
-        <v>80</v>
-      </c>
-      <c r="H88" t="n">
-        <v>4545.688103273894</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4961.782856854687</v>
       </c>
       <c r="J88" t="n">
         <v>14146.18002238625</v>
       </c>
       <c r="K88" t="n">
+        <v>56</v>
+      </c>
+      <c r="L88" t="n">
         <v>0</v>
       </c>
-      <c r="L88" t="n">
-        <v>56</v>
-      </c>
       <c r="M88" t="n">
+        <v>271.59648</v>
+      </c>
+      <c r="N88" t="n">
         <v>80</v>
       </c>
-      <c r="N88" t="n">
-        <v>535.19296</v>
-      </c>
       <c r="O88" t="n">
+        <v>327.59648</v>
+      </c>
+      <c r="P88" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q88" t="n">
         <v>10</v>
       </c>
-      <c r="P88" t="n">
-        <v>-80</v>
-      </c>
-      <c r="Q88" t="n">
+      <c r="R88" t="n">
         <v>0.08385992809136338</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:18">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C89" t="n">
         <v>1012</v>
@@ -5157,48 +5424,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F89" t="n">
+        <v>1.415384615384615</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5426.753271288499</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6148.167790379999</v>
+      </c>
+      <c r="I89" t="n">
         <v>5110.018348211576</v>
-      </c>
-      <c r="G89" t="n">
-        <v>80</v>
-      </c>
-      <c r="H89" t="n">
-        <v>5426.753271288499</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6148.167790379999</v>
       </c>
       <c r="J89" t="n">
         <v>14410.66951136553</v>
       </c>
       <c r="K89" t="n">
+        <v>56</v>
+      </c>
+      <c r="L89" t="n">
         <v>0</v>
       </c>
-      <c r="L89" t="n">
-        <v>56</v>
-      </c>
       <c r="M89" t="n">
+        <v>273.2592</v>
+      </c>
+      <c r="N89" t="n">
         <v>80</v>
       </c>
-      <c r="N89" t="n">
-        <v>538.5184</v>
-      </c>
       <c r="O89" t="n">
+        <v>329.2592</v>
+      </c>
+      <c r="P89" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q89" t="n">
         <v>10</v>
       </c>
-      <c r="P89" t="n">
-        <v>-80</v>
-      </c>
-      <c r="Q89" t="n">
+      <c r="R89" t="n">
         <v>0.1173381312429847</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:18">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C90" t="n">
         <v>1202</v>
@@ -5210,48 +5480,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F90" t="n">
+        <v>1.681118881118881</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6269.351313057869</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7298.0763273425</v>
+      </c>
+      <c r="I90" t="n">
         <v>5945.216355015911</v>
-      </c>
-      <c r="G90" t="n">
-        <v>80</v>
-      </c>
-      <c r="H90" t="n">
-        <v>6269.351313057869</v>
-      </c>
-      <c r="I90" t="n">
-        <v>7298.0763273425</v>
       </c>
       <c r="J90" t="n">
         <v>14659.40600097381</v>
       </c>
       <c r="K90" t="n">
+        <v>56</v>
+      </c>
+      <c r="L90" t="n">
         <v>0</v>
       </c>
-      <c r="L90" t="n">
-        <v>56</v>
-      </c>
       <c r="M90" t="n">
+        <v>275.04448</v>
+      </c>
+      <c r="N90" t="n">
         <v>80</v>
       </c>
-      <c r="N90" t="n">
-        <v>542.08896</v>
-      </c>
       <c r="O90" t="n">
+        <v>331.04448</v>
+      </c>
+      <c r="P90" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q90" t="n">
         <v>10</v>
       </c>
-      <c r="P90" t="n">
-        <v>-80</v>
-      </c>
-      <c r="Q90" t="n">
+      <c r="R90" t="n">
         <v>0.1409583797350099</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:18">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C91" t="n">
         <v>1328</v>
@@ -5263,48 +5536,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F91" t="n">
+        <v>1.857342657342657</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6833.1507579291</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8074.286357907001</v>
+      </c>
+      <c r="I91" t="n">
         <v>6504.10840827875</v>
-      </c>
-      <c r="G91" t="n">
-        <v>80</v>
-      </c>
-      <c r="H91" t="n">
-        <v>6833.1507579291</v>
-      </c>
-      <c r="I91" t="n">
-        <v>8074.286357907001</v>
       </c>
       <c r="J91" t="n">
         <v>14825.31117303481</v>
       </c>
       <c r="K91" t="n">
+        <v>56</v>
+      </c>
+      <c r="L91" t="n">
         <v>0</v>
       </c>
-      <c r="L91" t="n">
-        <v>56</v>
-      </c>
       <c r="M91" t="n">
+        <v>276.13248</v>
+      </c>
+      <c r="N91" t="n">
         <v>80</v>
       </c>
-      <c r="N91" t="n">
-        <v>544.26496</v>
-      </c>
       <c r="O91" t="n">
+        <v>332.13248</v>
+      </c>
+      <c r="P91" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q91" t="n">
         <v>10</v>
       </c>
-      <c r="P91" t="n">
-        <v>-80</v>
-      </c>
-      <c r="Q91" t="n">
+      <c r="R91" t="n">
         <v>0.1537145878858358</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:18">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92" t="n">
         <v>607</v>
@@ -5316,48 +5592,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F92" t="n">
+        <v>0.848951048951049</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1171.522444335664</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1442.678748561914</v>
+      </c>
+      <c r="I92" t="n">
         <v>865.7741329849904</v>
-      </c>
-      <c r="G92" t="n">
-        <v>600</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1166.735297320655</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1442.678748561914</v>
       </c>
       <c r="J92" t="n">
         <v>3471.950314504181</v>
       </c>
       <c r="K92" t="n">
+        <v>539.936768</v>
+      </c>
+      <c r="L92" t="n">
         <v>504</v>
       </c>
-      <c r="L92" t="n">
-        <v>539.936768</v>
-      </c>
       <c r="M92" t="n">
+        <v>330.624512</v>
+      </c>
+      <c r="N92" t="n">
         <v>96</v>
       </c>
-      <c r="N92" t="n">
-        <v>653.249024</v>
-      </c>
       <c r="O92" t="n">
+        <v>870.56128</v>
+      </c>
+      <c r="P92" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q92" t="n">
         <v>12</v>
       </c>
-      <c r="P92" t="n">
-        <v>-600</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.1912715852481533</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92" t="n">
+        <v>0.187953350319011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93" t="n">
         <v>810</v>
@@ -5369,48 +5648,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F93" t="n">
+        <v>1.132867132867133</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1400.916296648966</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1528.722657292237</v>
+      </c>
+      <c r="I93" t="n">
         <v>1092.048779166449</v>
-      </c>
-      <c r="G93" t="n">
-        <v>600</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1400.916296648966</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1528.722657292237</v>
       </c>
       <c r="J93" t="n">
         <v>3539.283631441712</v>
       </c>
       <c r="K93" t="n">
+        <v>543.772352</v>
+      </c>
+      <c r="L93" t="n">
         <v>504</v>
       </c>
-      <c r="L93" t="n">
-        <v>543.772352</v>
-      </c>
       <c r="M93" t="n">
+        <v>333.181568</v>
+      </c>
+      <c r="N93" t="n">
         <v>96</v>
       </c>
-      <c r="N93" t="n">
-        <v>658.3631359999999</v>
-      </c>
       <c r="O93" t="n">
+        <v>876.9539199999999</v>
+      </c>
+      <c r="P93" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q93" t="n">
         <v>12</v>
       </c>
-      <c r="P93" t="n">
-        <v>-600</v>
-      </c>
-      <c r="Q93" t="n">
+      <c r="R93" t="n">
         <v>0.08360336653193086</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:18">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94" t="n">
         <v>1012</v>
@@ -5422,48 +5704,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F94" t="n">
+        <v>1.415384615384615</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1642.0226673957</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1657.216165232031</v>
+      </c>
+      <c r="I94" t="n">
         <v>1325.287744318777</v>
-      </c>
-      <c r="G94" t="n">
-        <v>600</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1642.0226673957</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1657.216165232031</v>
       </c>
       <c r="J94" t="n">
         <v>3606.283138788138</v>
       </c>
       <c r="K94" t="n">
+        <v>549.3221120000001</v>
+      </c>
+      <c r="L94" t="n">
         <v>504</v>
       </c>
-      <c r="L94" t="n">
-        <v>549.3221120000001</v>
-      </c>
       <c r="M94" t="n">
+        <v>336.881408</v>
+      </c>
+      <c r="N94" t="n">
         <v>96</v>
       </c>
-      <c r="N94" t="n">
-        <v>665.762816</v>
-      </c>
       <c r="O94" t="n">
+        <v>886.20352</v>
+      </c>
+      <c r="P94" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q94" t="n">
         <v>12</v>
       </c>
-      <c r="P94" t="n">
-        <v>-600</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.009168084499226315</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94" t="n">
+        <v>0.009168084499226452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95" t="n">
         <v>1202</v>
@@ -5475,48 +5760,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F95" t="n">
+        <v>1.681118881118881</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1894.097924446125</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1862.49493157041</v>
+      </c>
+      <c r="I95" t="n">
         <v>1569.962966404167</v>
-      </c>
-      <c r="G95" t="n">
-        <v>600</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1894.097924446125</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1862.49493157041</v>
       </c>
       <c r="J95" t="n">
         <v>3669.306534225795</v>
       </c>
       <c r="K95" t="n">
+        <v>561.2199680000001</v>
+      </c>
+      <c r="L95" t="n">
         <v>504</v>
       </c>
-      <c r="L95" t="n">
-        <v>561.2199680000001</v>
-      </c>
       <c r="M95" t="n">
+        <v>344.813312</v>
+      </c>
+      <c r="N95" t="n">
         <v>96</v>
       </c>
-      <c r="N95" t="n">
-        <v>681.626624</v>
-      </c>
       <c r="O95" t="n">
+        <v>906.0332800000001</v>
+      </c>
+      <c r="P95" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q95" t="n">
         <v>12</v>
       </c>
-      <c r="P95" t="n">
-        <v>-600</v>
-      </c>
-      <c r="Q95" t="n">
+      <c r="R95" t="n">
         <v>0.01696809604151096</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:18">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96" t="n">
         <v>1328</v>
@@ -5528,48 +5816,51 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F96" t="n">
+        <v>1.857342657342657</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2062.716935759417</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2036.959644841407</v>
+      </c>
+      <c r="I96" t="n">
         <v>1733.674586109067</v>
-      </c>
-      <c r="G96" t="n">
-        <v>600</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2062.716935759417</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2036.959644841407</v>
       </c>
       <c r="J96" t="n">
         <v>3711.103649031</v>
       </c>
       <c r="K96" t="n">
+        <v>567.906176</v>
+      </c>
+      <c r="L96" t="n">
         <v>504</v>
       </c>
-      <c r="L96" t="n">
-        <v>567.906176</v>
-      </c>
       <c r="M96" t="n">
+        <v>349.270784</v>
+      </c>
+      <c r="N96" t="n">
         <v>96</v>
       </c>
-      <c r="N96" t="n">
-        <v>690.541568</v>
-      </c>
       <c r="O96" t="n">
+        <v>917.17696</v>
+      </c>
+      <c r="P96" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q96" t="n">
         <v>12</v>
       </c>
-      <c r="P96" t="n">
-        <v>-600</v>
-      </c>
-      <c r="Q96" t="n">
+      <c r="R96" t="n">
         <v>0.01264496868322371</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:18">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C97" t="n">
         <v>607</v>
@@ -5581,48 +5872,51 @@
         <v>300.9611643356643</v>
       </c>
       <c r="F97" t="n">
+        <v>0.848951048951049</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1625.116850103367</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1368.795769014625</v>
+      </c>
+      <c r="I97" t="n">
         <v>1324.155685767703</v>
-      </c>
-      <c r="G97" t="n">
-        <v>8</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1324.155685767703</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1368.795769014625</v>
       </c>
       <c r="J97" t="n">
         <v>5733.615174145511</v>
       </c>
       <c r="K97" t="n">
+        <v>56</v>
+      </c>
+      <c r="L97" t="n">
         <v>0</v>
       </c>
-      <c r="L97" t="n">
-        <v>56</v>
-      </c>
       <c r="M97" t="n">
+        <v>33.320608</v>
+      </c>
+      <c r="N97" t="n">
         <v>8</v>
       </c>
-      <c r="N97" t="n">
-        <v>58.641216</v>
-      </c>
       <c r="O97" t="n">
+        <v>89.32060799999999</v>
+      </c>
+      <c r="P97" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" t="n">
-        <v>-308.9611643356643</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.03261266892946187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97" t="n">
+        <v>0.1872602815489879</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C98" t="n">
         <v>810</v>
@@ -5634,48 +5928,51 @@
         <v>308.8675174825175</v>
       </c>
       <c r="F98" t="n">
+        <v>1.132867132867133</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1992.232348545994</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1831.456492405312</v>
+      </c>
+      <c r="I98" t="n">
         <v>1683.364831063477</v>
-      </c>
-      <c r="G98" t="n">
-        <v>8</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1683.364831063477</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1831.456492405312</v>
       </c>
       <c r="J98" t="n">
         <v>5834.875327236188</v>
       </c>
       <c r="K98" t="n">
+        <v>56</v>
+      </c>
+      <c r="L98" t="n">
         <v>0</v>
       </c>
-      <c r="L98" t="n">
-        <v>56</v>
-      </c>
       <c r="M98" t="n">
+        <v>34.120224</v>
+      </c>
+      <c r="N98" t="n">
         <v>8</v>
       </c>
-      <c r="N98" t="n">
-        <v>60.240448</v>
-      </c>
       <c r="O98" t="n">
+        <v>90.12022400000001</v>
+      </c>
+      <c r="P98" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" t="n">
-        <v>-316.8675174825175</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.08086004879501227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98" t="n">
+        <v>0.08778579060293687</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C99" t="n">
         <v>1012</v>
@@ -5687,48 +5984,51 @@
         <v>316.7349230769231</v>
       </c>
       <c r="F99" t="n">
+        <v>1.415384615384615</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2360.95295328468</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2317.060235682499</v>
+      </c>
+      <c r="I99" t="n">
         <v>2044.218030207757</v>
-      </c>
-      <c r="G99" t="n">
-        <v>8</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2044.218030207757</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2317.060235682499</v>
       </c>
       <c r="J99" t="n">
         <v>5935.682846527714</v>
       </c>
       <c r="K99" t="n">
+        <v>56</v>
+      </c>
+      <c r="L99" t="n">
         <v>0</v>
       </c>
-      <c r="L99" t="n">
-        <v>56</v>
-      </c>
       <c r="M99" t="n">
+        <v>34.70496</v>
+      </c>
+      <c r="N99" t="n">
         <v>8</v>
       </c>
-      <c r="N99" t="n">
-        <v>61.40991999999999</v>
-      </c>
       <c r="O99" t="n">
+        <v>90.70496</v>
+      </c>
+      <c r="P99" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" t="n">
-        <v>-324.7349230769231</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0.117753609195393</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="R99" t="n">
+        <v>0.01894327861064515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C100" t="n">
         <v>1202</v>
@@ -5740,48 +6040,51 @@
         <v>324.134958041958</v>
       </c>
       <c r="F100" t="n">
+        <v>1.681118881118881</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2711.005931840828</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2777.163681916313</v>
+      </c>
+      <c r="I100" t="n">
         <v>2386.87097379887</v>
-      </c>
-      <c r="G100" t="n">
-        <v>8</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2386.870973798869</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2777.163681916313</v>
       </c>
       <c r="J100" t="n">
         <v>6030.172558131901</v>
       </c>
       <c r="K100" t="n">
+        <v>56</v>
+      </c>
+      <c r="L100" t="n">
         <v>0</v>
       </c>
-      <c r="L100" t="n">
-        <v>56</v>
-      </c>
       <c r="M100" t="n">
+        <v>35.149664</v>
+      </c>
+      <c r="N100" t="n">
         <v>8</v>
       </c>
-      <c r="N100" t="n">
-        <v>62.299328</v>
-      </c>
       <c r="O100" t="n">
+        <v>91.149664</v>
+      </c>
+      <c r="P100" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" t="n">
-        <v>-332.134958041958</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.1405364439477804</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100" t="n">
+        <v>0.02382205647664047</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101" t="n">
         <v>1328</v>
@@ -5793,40 +6096,43 @@
         <v>329.0423496503496</v>
       </c>
       <c r="F101" t="n">
+        <v>1.857342657342657</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2942.738470355848</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3083.18602765075</v>
+      </c>
+      <c r="I101" t="n">
         <v>2613.696120705498</v>
-      </c>
-      <c r="G101" t="n">
-        <v>8</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2613.696120705498</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3083.18602765075</v>
       </c>
       <c r="J101" t="n">
         <v>6092.971681363248</v>
       </c>
       <c r="K101" t="n">
+        <v>56</v>
+      </c>
+      <c r="L101" t="n">
         <v>0</v>
       </c>
-      <c r="L101" t="n">
-        <v>56</v>
-      </c>
       <c r="M101" t="n">
+        <v>35.379424</v>
+      </c>
+      <c r="N101" t="n">
         <v>8</v>
       </c>
-      <c r="N101" t="n">
-        <v>62.758848</v>
-      </c>
       <c r="O101" t="n">
+        <v>91.379424</v>
+      </c>
+      <c r="P101" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" t="n">
-        <v>-337.0423496503496</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0.1522742717224178</v>
+      <c r="R101" t="n">
+        <v>0.04555273539622176</v>
       </c>
     </row>
   </sheetData>
